--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>Nicco</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Most errors are caused by verbs</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,9 +2544,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80">
+        <f>SUM(D2:D79)</f>
+        <v>53</v>
+      </c>
+      <c r="E80">
+        <f>SUM(E2:E79)</f>
+        <v>269</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:G80" si="0">SUM(F2:F79)</f>
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82">
+        <f>1-(D80/E80)</f>
+        <v>0.80297397769516732</v>
       </c>
     </row>
   </sheetData>

--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="408" windowWidth="37152" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="232">
   <si>
     <t>Nicco</t>
   </si>
@@ -352,9 +357,6 @@
   </si>
   <si>
     <t>? CCP NNC</t>
-  </si>
-  <si>
-    <t>DTC NNC VBW CCT NNC</t>
   </si>
   <si>
     <t>DTC NNC CCT NNC</t>
@@ -706,14 +708,26 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Accuracy </t>
+    <t>Accuracy (All)</t>
+  </si>
+  <si>
+    <t>Accuracy (Erroneous)</t>
+  </si>
+  <si>
+    <t>Accuracy (Error-free)</t>
+  </si>
+  <si>
+    <t>DTC ? VBW CCT NNC</t>
+  </si>
+  <si>
+    <t>DTC ? CCT NNC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +746,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -781,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -792,6 +814,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,6 +824,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -849,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,47 +1119,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G67" sqref="G59:G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1154,9 +1180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1171,9 +1197,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1188,9 +1214,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1211,9 +1237,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1228,9 +1254,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1251,9 +1277,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1274,9 +1300,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1297,9 +1323,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1320,9 +1346,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1343,9 +1369,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1366,9 +1392,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1389,9 +1415,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1412,9 +1438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1429,9 +1455,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1446,9 +1472,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1469,9 +1495,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1492,9 +1518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1509,9 +1535,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1526,9 +1552,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1549,9 +1575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1572,9 +1598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1589,9 +1615,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1612,9 +1638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1622,16 +1648,16 @@
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1646,9 +1672,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1663,9 +1689,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1686,9 +1712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1696,16 +1722,16 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1726,12 +1752,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1746,9 +1772,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1763,9 +1789,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1780,9 +1806,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1797,9 +1823,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1814,12 +1840,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
@@ -1831,9 +1857,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -1848,9 +1874,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -1865,9 +1891,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -1882,9 +1908,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
@@ -1899,9 +1925,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -1909,16 +1935,16 @@
       <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>2</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -1926,16 +1952,16 @@
       <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -1950,9 +1976,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -1967,9 +1993,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -1984,9 +2010,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -2001,9 +2027,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
@@ -2018,9 +2044,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -2035,9 +2061,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -2052,9 +2078,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
@@ -2069,9 +2095,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -2086,9 +2112,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
@@ -2103,9 +2129,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -2120,9 +2146,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -2137,9 +2163,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
         <v>52</v>
@@ -2147,16 +2173,16 @@
       <c r="C56" t="s">
         <v>105</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>1</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
@@ -2171,18 +2197,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2197,15 +2223,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2220,15 +2246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2237,15 +2263,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2260,38 +2286,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
         <v>111</v>
       </c>
       <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" t="s">
         <v>129</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>130</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2299,16 +2325,22 @@
       <c r="E64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2316,16 +2348,19 @@
       <c r="E65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2334,89 +2369,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
         <v>133</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>117</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>136</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2425,15 +2460,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2442,15 +2477,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2459,15 +2494,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2476,15 +2511,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2493,15 +2528,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2510,15 +2545,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2527,15 +2562,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2544,9 +2579,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80">
         <f>SUM(D2:D79)</f>
@@ -2558,25 +2593,43 @@
       </c>
       <c r="F80">
         <f t="shared" ref="F80:G80" si="0">SUM(F2:F79)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82">
         <f>1-(D80/E80)</f>
         <v>0.80297397769516732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83">
+        <f>1 - (SUM(D2:D30)+SUM(D59:D68))/(SUM(E2:E30)+SUM(E59:E68))</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84">
+        <f>1 - (SUM(D32:D57)+SUM(D69:D78))/(SUM(E32:E57)+SUM(E69:E78))</f>
+        <v>0.88970588235294112</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2603,7 +2656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="408" windowWidth="37152" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="308">
   <si>
     <t>Nicco</t>
   </si>
@@ -721,6 +716,234 @@
   </si>
   <si>
     <t>DTC ? CCT NNC</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>~ki@um #ang $ba</t>
+  </si>
+  <si>
+    <t>#sabi #nang *pulis #na</t>
+  </si>
+  <si>
+    <t>~pa *bata</t>
+  </si>
+  <si>
+    <t>#tayo@in #pa#rin #ang :F*torre_de_manila</t>
+  </si>
+  <si>
+    <t>*bahay #nila :F*jose #, :F*juan</t>
+  </si>
+  <si>
+    <t>#sa#ng~i $la</t>
+  </si>
+  <si>
+    <t>~i #lang~na #ang</t>
+  </si>
+  <si>
+    <t>#para *maka *kuha #ng</t>
+  </si>
+  <si>
+    <t>#na#g- #ang #na#ho~pa+n</t>
+  </si>
+  <si>
+    <t>~i~ma #ang *airship</t>
+  </si>
+  <si>
+    <t>@in #ng *tulong</t>
+  </si>
+  <si>
+    <t>*skolar #ang #na#g$a- #ng</t>
+  </si>
+  <si>
+    <t>#ang ~pa~ka@in #na</t>
+  </si>
+  <si>
+    <t>#ang *westo ~pa</t>
+  </si>
+  <si>
+    <t>#noon#g:FS *2006 #, ~ma~na #ang</t>
+  </si>
+  <si>
+    <t>#ang - #ng</t>
+  </si>
+  <si>
+    <t>#na $bi #ng</t>
+  </si>
+  <si>
+    <t>~pa :F*mark</t>
+  </si>
+  <si>
+    <t>#maganda:FS #si #.</t>
+  </si>
+  <si>
+    <t>#pang- *plano #ng #ng#ulo~pa</t>
+  </si>
+  <si>
+    <t>*taga #nila:F~ma #siya</t>
+  </si>
+  <si>
+    <t>*bahag #hari #iyon</t>
+  </si>
+  <si>
+    <t>~pa~ga #ng</t>
+  </si>
+  <si>
+    <t>@in #ikaw</t>
+  </si>
+  <si>
+    <t>~i #na #dapat</t>
+  </si>
+  <si>
+    <t>#na *bahay ~ma$ya</t>
+  </si>
+  <si>
+    <t>#sa #mga *matas #na *bahay</t>
+  </si>
+  <si>
+    <t>#tumakbo #ang #ang *manok</t>
+  </si>
+  <si>
+    <t>~pa #ng :F~na #ay #na#g #isa</t>
+  </si>
+  <si>
+    <t>#may#o:FS *31 *2016</t>
+  </si>
+  <si>
+    <t>#ang ~pa #ng *mayor</t>
+  </si>
+  <si>
+    <t>#kita~ma #nang ~ma@in</t>
+  </si>
+  <si>
+    <t>*pera #ng *bayan</t>
+  </si>
+  <si>
+    <t>~na~pa #din #ito</t>
+  </si>
+  <si>
+    <t>#na#g$a- #rin #siya</t>
+  </si>
+  <si>
+    <t>#na#g~i- #ng *pera #sa</t>
+  </si>
+  <si>
+    <t>~pa #sa ~ka #ng ~pa</t>
+  </si>
+  <si>
+    <t>#sa ~ka #ng</t>
+  </si>
+  <si>
+    <t>$la #, $ba #at *transgenders</t>
+  </si>
+  <si>
+    <t>#kumain #ng $halo-</t>
+  </si>
+  <si>
+    <t>~ma #ng *buhay</t>
+  </si>
+  <si>
+    <t>~ma$a #din #na</t>
+  </si>
+  <si>
+    <t>*suporta #ng ~ka$ba</t>
+  </si>
+  <si>
+    <t>~ma$si #mga *bata</t>
+  </si>
+  <si>
+    <t>*aso #, *pusa #, *daga #,</t>
+  </si>
+  <si>
+    <t>~ma@um #na *upuan</t>
+  </si>
+  <si>
+    <t>*bayang ~ma</t>
+  </si>
+  <si>
+    <t>*tungkol_sa ~pa #ng ~ma~ma</t>
+  </si>
+  <si>
+    <t>#upang #kita~ma #ang ~ka@in</t>
+  </si>
+  <si>
+    <t>#ang :F*mitsubishi :F*motors :F*philippines</t>
+  </si>
+  <si>
+    <t>:FS~ma #ang *pusa #.</t>
+  </si>
+  <si>
+    <t>#siya:FS #ay ~ma #.</t>
+  </si>
+  <si>
+    <t>:FS~na #siya #ng *hapunan #.</t>
+  </si>
+  <si>
+    <t>:FS@in #ko #ito #dito #.</t>
+  </si>
+  <si>
+    <t>~ma #na *dila</t>
+  </si>
+  <si>
+    <t>#ba#ng~i~i- #mga *bagay #na</t>
+  </si>
+  <si>
+    <t>#ang *lungsodng *bayan</t>
+  </si>
+  <si>
+    <t>~pa #mga *bata #ang</t>
+  </si>
+  <si>
+    <t>:FS@um #ng ~i *bisita</t>
+  </si>
+  <si>
+    <t>~pa #na ~ka~ga</t>
+  </si>
+  <si>
+    <t>#ang #pag #kain #sa *mesa</t>
+  </si>
+  <si>
+    <t>#ang #pag#kain- #sa *mesa</t>
+  </si>
+  <si>
+    <t>#sa ~ka *opisina</t>
+  </si>
+  <si>
+    <t>#ang ~na+g ~pa@in</t>
+  </si>
+  <si>
+    <t>~na #daan #sa</t>
+  </si>
+  <si>
+    <t>@in #ang #bilang #ng *kaso</t>
+  </si>
+  <si>
+    <t>:FS*amerika #at :F*tsina</t>
+  </si>
+  <si>
+    <t>*drayber #ni :F*de #lima:F</t>
+  </si>
+  <si>
+    <t>#sa#ng~i *pares #ng ~sa</t>
+  </si>
+  <si>
+    <t>#ang *harang #sa *opisina</t>
+  </si>
+  <si>
+    <t>#sa :F*maida :F*vale #, :F*london</t>
+  </si>
+  <si>
+    <t>#ang *bombe #ni :F*turing</t>
+  </si>
+  <si>
+    <t>#sa #mga ~ma$ti #tao</t>
+  </si>
+  <si>
+    <t>*bahay #na *pula #.</t>
+  </si>
+  <si>
+    <t>#iba #pang #mga *bagay</t>
   </si>
 </sst>
 </file>
@@ -803,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +1038,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -910,7 +1137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,1516 +1346,1748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G67" sqref="G59:G67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>220</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
       <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>81</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>83</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>85</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
         <v>224</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>88</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="E40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>94</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
       <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>85</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>97</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
       <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>98</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>100</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>101</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>103</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>104</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s">
         <v>44</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>106</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" t="s">
         <v>107</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>124</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>4</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" t="s">
         <v>108</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>125</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>126</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" t="s">
         <v>110</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>127</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
         <v>111</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>128</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" t="s">
         <v>230</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>129</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
       <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>5</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" t="s">
         <v>231</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>130</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" t="s">
         <v>113</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>131</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>2</v>
       </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s">
         <v>108</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>132</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" t="s">
         <v>114</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>133</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
       <c r="E68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
         <v>115</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" t="s">
         <v>116</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>135</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
       <c r="E70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" t="s">
         <v>117</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>136</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" t="s">
         <v>118</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>137</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" t="s">
         <v>112</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>138</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" t="s">
         <v>119</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>139</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" t="s">
         <v>120</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>140</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" t="s">
         <v>121</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>141</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
         <v>122</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>142</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>143</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>0</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D80">
-        <f>SUM(D2:D79)</f>
-        <v>53</v>
-      </c>
+      <c r="B80" s="5"/>
       <c r="E80">
         <f>SUM(E2:E79)</f>
+        <v>53</v>
+      </c>
+      <c r="F80">
+        <f>SUM(F2:F79)</f>
         <v>269</v>
       </c>
-      <c r="F80">
-        <f t="shared" ref="F80:G80" si="0">SUM(F2:F79)</f>
+      <c r="G80">
+        <f t="shared" ref="G80:H80" si="0">SUM(G2:G79)</f>
         <v>19</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>227</v>
       </c>
-      <c r="C82">
-        <f>1-(D80/E80)</f>
+      <c r="D82">
+        <f>1-(E80/F80)</f>
         <v>0.80297397769516732</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>228</v>
       </c>
-      <c r="C83">
-        <f>1 - (SUM(D2:D30)+SUM(D59:D68))/(SUM(E2:E30)+SUM(E59:E68))</f>
+      <c r="D83">
+        <f>1 - (SUM(E2:E30)+SUM(E59:E68))/(SUM(F2:F30)+SUM(F59:F68))</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>229</v>
       </c>
-      <c r="C84">
-        <f>1 - (SUM(D32:D57)+SUM(D69:D78))/(SUM(E32:E57)+SUM(E69:E78))</f>
+      <c r="D84">
+        <f>1 - (SUM(E32:E57)+SUM(E69:E78))/(SUM(F32:F57)+SUM(F69:F78))</f>
         <v>0.88970588235294112</v>
       </c>
     </row>
@@ -2644,7 +3103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2656,7 +3115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="885">
   <si>
     <t>Nicco</t>
   </si>
@@ -944,13 +944,1750 @@
   </si>
   <si>
     <t>#iba #pang #mga *bagay</t>
+  </si>
+  <si>
+    <t>aking pagmamahal doon</t>
+  </si>
+  <si>
+    <t>na meron akong pangangailangan</t>
+  </si>
+  <si>
+    <t>languages si IBM researcher</t>
+  </si>
+  <si>
+    <t>pagkakabuo ang_mga dokumentong</t>
+  </si>
+  <si>
+    <t>estadistika ng hindi lalagpas</t>
+  </si>
+  <si>
+    <t>Mayroong buong paghahati</t>
+  </si>
+  <si>
+    <t>gumagalaw ng patindig</t>
+  </si>
+  <si>
+    <t>gumagalaw ng pahalang</t>
+  </si>
+  <si>
+    <t>Pag pinagsama-sama ,</t>
+  </si>
+  <si>
+    <t>Walang ng natitirang</t>
+  </si>
+  <si>
+    <t>insekto ng hindi</t>
+  </si>
+  <si>
+    <t>Tulad sa lahat</t>
+  </si>
+  <si>
+    <t>nasira ng tuluyan</t>
+  </si>
+  <si>
+    <t>pagtatapos ng malaman na bumagsak</t>
+  </si>
+  <si>
+    <t>umakyat ng patayo</t>
+  </si>
+  <si>
+    <t>Nung sinedad ko siya</t>
+  </si>
+  <si>
+    <t>sinuko ang aking</t>
+  </si>
+  <si>
+    <t>Binubukas ng pagnanais</t>
+  </si>
+  <si>
+    <t>Ginagabay nito ang</t>
+  </si>
+  <si>
+    <t>ipapayagan kong magnais ang</t>
+  </si>
+  <si>
+    <t>Mageehersisyo ako</t>
+  </si>
+  <si>
+    <t>mangakit ng_mga tao</t>
+  </si>
+  <si>
+    <t>kakayan ng kalikasan ng tao</t>
+  </si>
+  <si>
+    <t>Noong panahon ako</t>
+  </si>
+  <si>
+    <t>Simulang ngayon ,</t>
+  </si>
+  <si>
+    <t>Tagal na ako natira sa</t>
+  </si>
+  <si>
+    <t>ito'y napaka-liit</t>
+  </si>
+  <si>
+    <t>Habang pinagaaralan ni</t>
+  </si>
+  <si>
+    <t>kapag nagapply ng</t>
+  </si>
+  <si>
+    <t>ang tag-tuyo at tag-ulan</t>
+  </si>
+  <si>
+    <t>Mahirap ipredict kahit anung antas</t>
+  </si>
+  <si>
+    <t>makipagusap sa kanyang kaibigan</t>
+  </si>
+  <si>
+    <t>ang pagunlad sa</t>
+  </si>
+  <si>
+    <t>pinaka-mataas na kabisera</t>
+  </si>
+  <si>
+    <t>pinaka-magandang lugar sa mundo</t>
+  </si>
+  <si>
+    <t>at pinagpatuloy niya ang</t>
+  </si>
+  <si>
+    <t>pagaaral ng musika</t>
+  </si>
+  <si>
+    <t>nahihiya siya sa magperform</t>
+  </si>
+  <si>
+    <t>sa kalidad na pangpropesyunal</t>
+  </si>
+  <si>
+    <t>pangunahing kadahilan ang paggamit</t>
+  </si>
+  <si>
+    <t>magka-ugnay na gamit</t>
+  </si>
+  <si>
+    <t>konsepto ng pagkaka-ugnay</t>
+  </si>
+  <si>
+    <t>Nagkaka-iba ang dalawang uri</t>
+  </si>
+  <si>
+    <t>ang pag-kain ng_mga protina</t>
+  </si>
+  <si>
+    <t>nadismiss ang teoryang</t>
+  </si>
+  <si>
+    <t>isang gabi ng pagiisip</t>
+  </si>
+  <si>
+    <t>na naghubog ng</t>
+  </si>
+  <si>
+    <t>1966 , nagbida siya</t>
+  </si>
+  <si>
+    <t>ang pagaani ng_mga insekto</t>
+  </si>
+  <si>
+    <t>ang patuloy na pagiinom</t>
+  </si>
+  <si>
+    <t>nagiwan ng daan-daang patay</t>
+  </si>
+  <si>
+    <t>at mapagisa ang</t>
+  </si>
+  <si>
+    <t>labag_sa batas na pagaaresto</t>
+  </si>
+  <si>
+    <t>nagayos si Baron_de_Coubertin</t>
+  </si>
+  <si>
+    <t>nakulang sila sa oras</t>
+  </si>
+  <si>
+    <t>pinaghinaan ng loob</t>
+  </si>
+  <si>
+    <t>pang-kultura ang ginawa</t>
+  </si>
+  <si>
+    <t>Mabilisan sila nakapagtayo</t>
+  </si>
+  <si>
+    <t>katulad ng pagiisip natin</t>
+  </si>
+  <si>
+    <t>sa mga pagkaka-iba nito</t>
+  </si>
+  <si>
+    <t>pag-kuha ng deposito</t>
+  </si>
+  <si>
+    <t>ang pagka-ayon ng limang dahon</t>
+  </si>
+  <si>
+    <t>pangtukoy ng kaliwa</t>
+  </si>
+  <si>
+    <t>sinubukan ko magmahal</t>
+  </si>
+  <si>
+    <t>sa aspeto ng</t>
+  </si>
+  <si>
+    <t>aking ungang beses</t>
+  </si>
+  <si>
+    <t>pagka't marunong akong lumangoy</t>
+  </si>
+  <si>
+    <t>malaya at nasaya na</t>
+  </si>
+  <si>
+    <t>yung kasalukuya ,</t>
+  </si>
+  <si>
+    <t>isang mahalagan pagkakataon</t>
+  </si>
+  <si>
+    <t>ng_mga computer .</t>
+  </si>
+  <si>
+    <t>kampanya nang taong 2010</t>
+  </si>
+  <si>
+    <t>ang kanilang apilyido</t>
+  </si>
+  <si>
+    <t>tignan ito</t>
+  </si>
+  <si>
+    <t>pixels bago sya</t>
+  </si>
+  <si>
+    <t>compara sa isang</t>
+  </si>
+  <si>
+    <t>saysayan ng koriyente</t>
+  </si>
+  <si>
+    <t>tungkol_sa terminong koriyente</t>
+  </si>
+  <si>
+    <t>elektron, nagkakameron ng</t>
+  </si>
+  <si>
+    <t>bayagang mamamahayag na nag-uulat</t>
+  </si>
+  <si>
+    <t>Pinakamayaman at pinapopuladong lungsod</t>
+  </si>
+  <si>
+    <t>Hindi possibleng mahawaan</t>
+  </si>
+  <si>
+    <t>Kamakaylan lamang hinikayat ng</t>
+  </si>
+  <si>
+    <t>sa_paligid ng lungod ng Blanyre</t>
+  </si>
+  <si>
+    <t>tunkol_sa pangako sa demokrasya</t>
+  </si>
+  <si>
+    <t>ang pagdadami ng competisyon .</t>
+  </si>
+  <si>
+    <t>Sa sector ng pang-industrya</t>
+  </si>
+  <si>
+    <t>Pampook na comersyal</t>
+  </si>
+  <si>
+    <t>Islam ang naaiwang 21 %</t>
+  </si>
+  <si>
+    <t>nangkop sa World Cup .</t>
+  </si>
+  <si>
+    <t>ng actor ang</t>
+  </si>
+  <si>
+    <t>Ang companya nagsimulang</t>
+  </si>
+  <si>
+    <t>tinangal sa kanyang leeg</t>
+  </si>
+  <si>
+    <t>ang teksto sa paagitan</t>
+  </si>
+  <si>
+    <t>na pamiliar mula_sa</t>
+  </si>
+  <si>
+    <t>sa_pagitan_ng predictor at response</t>
+  </si>
+  <si>
+    <t>pagkatapos tinignan ang bilang</t>
+  </si>
+  <si>
+    <t>sa struktura ng dahon</t>
+  </si>
+  <si>
+    <t>ang simplen dahon</t>
+  </si>
+  <si>
+    <t>ang opisinita nito</t>
+  </si>
+  <si>
+    <t>minumungkahi netong ebidensya</t>
+  </si>
+  <si>
+    <t>Sa_pamamgitan_ng karahasan</t>
+  </si>
+  <si>
+    <t>na yan sa</t>
+  </si>
+  <si>
+    <t>isang lingo ng karahasan</t>
+  </si>
+  <si>
+    <t>ng dalwang estado</t>
+  </si>
+  <si>
+    <t>bobota para_sa kanya</t>
+  </si>
+  <si>
+    <t>ang akulong nang magsimula</t>
+  </si>
+  <si>
+    <t>nungg unang panahon</t>
+  </si>
+  <si>
+    <t>intension na isali</t>
+  </si>
+  <si>
+    <t>Paligsahan anfg tema</t>
+  </si>
+  <si>
+    <t>ang sinerioso nila ang</t>
+  </si>
+  <si>
+    <t>ang competisyon at</t>
+  </si>
+  <si>
+    <t>apela ng naturang exhibition</t>
+  </si>
+  <si>
+    <t>ngunit natangal ito</t>
+  </si>
+  <si>
+    <t>para pagtignan ng publiko</t>
+  </si>
+  <si>
+    <t>myembro ng prestihiyosong pamilyang</t>
+  </si>
+  <si>
+    <t>kahit anung organic</t>
+  </si>
+  <si>
+    <t>ang putting laman ng niyog</t>
+  </si>
+  <si>
+    <t>Minsan kailangan</t>
+  </si>
+  <si>
+    <t>Ngayong araw aking maibibigay</t>
+  </si>
+  <si>
+    <t>Dati kilala</t>
+  </si>
+  <si>
+    <t>o pang probinsiya</t>
+  </si>
+  <si>
+    <t>kapangyarihan , na sa lahat</t>
+  </si>
+  <si>
+    <t>naka sulyap ako ng</t>
+  </si>
+  <si>
+    <t>aking maagang pag babalik ,</t>
+  </si>
+  <si>
+    <t>ang aking pag kabata sa</t>
+  </si>
+  <si>
+    <t>sa pag iisip ng_mga</t>
+  </si>
+  <si>
+    <t>pag-aala ala ng aking</t>
+  </si>
+  <si>
+    <t>ng aking pagka bata</t>
+  </si>
+  <si>
+    <t>hindi tayo sang ayon</t>
+  </si>
+  <si>
+    <t>ang pinaka unang kompyuter</t>
+  </si>
+  <si>
+    <t>Ang pag iwas sa</t>
+  </si>
+  <si>
+    <t>ang pinaka epektibong paraan</t>
+  </si>
+  <si>
+    <t>mag sanhi ng</t>
+  </si>
+  <si>
+    <t>nagka roon ng maraming</t>
+  </si>
+  <si>
+    <t>at ika sampu sa</t>
+  </si>
+  <si>
+    <t>Kayang kaya tumayo sa</t>
+  </si>
+  <si>
+    <t>ng Ceb u noong</t>
+  </si>
+  <si>
+    <t>Nag daan ng_mga kwento</t>
+  </si>
+  <si>
+    <t>Naka istasyon sa Kyoto</t>
+  </si>
+  <si>
+    <t>nagsimulang mag imbento</t>
+  </si>
+  <si>
+    <t>kasing haba ng libro</t>
+  </si>
+  <si>
+    <t>f ont size</t>
+  </si>
+  <si>
+    <t>Ang pinaka marami</t>
+  </si>
+  <si>
+    <t>naka diskubre ng paraan</t>
+  </si>
+  <si>
+    <t>sa pag tuyo para_sa</t>
+  </si>
+  <si>
+    <t>pinaka epektibo at ligtas</t>
+  </si>
+  <si>
+    <t>mapagsama sama ang_mga armed forces</t>
+  </si>
+  <si>
+    <t>ang pinaka matandang pinanggalingan</t>
+  </si>
+  <si>
+    <t>sa pag ipon ng pondo</t>
+  </si>
+  <si>
+    <t>Nakapag aral siya sa militar</t>
+  </si>
+  <si>
+    <t>Nag silbi siya sa</t>
+  </si>
+  <si>
+    <t>Ang pag aaral sa sekswalidad</t>
+  </si>
+  <si>
+    <t>pinaka bagong uri ng</t>
+  </si>
+  <si>
+    <t>ang pinaka importanteng aktibidad</t>
+  </si>
+  <si>
+    <t>ang iba't-ibang anyo</t>
+  </si>
+  <si>
+    <t>kasama ang isa't-isa at</t>
+  </si>
+  <si>
+    <t>At saaking paggaling ,</t>
+  </si>
+  <si>
+    <t>pagnanais nalang</t>
+  </si>
+  <si>
+    <t>pa rininiingatan ang</t>
+  </si>
+  <si>
+    <t>naniniwala parin</t>
+  </si>
+  <si>
+    <t>Nararamdaman parin ang</t>
+  </si>
+  <si>
+    <t>ang iba'tibang palitan</t>
+  </si>
+  <si>
+    <t>sa isa't-isa ang anumang</t>
+  </si>
+  <si>
+    <t>na may masmaliwanang</t>
+  </si>
+  <si>
+    <t>ang ibigsabihin .</t>
+  </si>
+  <si>
+    <t>masmaliit ito ng</t>
+  </si>
+  <si>
+    <t>Patuloy paring isang mahalagang paraan</t>
+  </si>
+  <si>
+    <t>masmadalas obserbahan na komet</t>
+  </si>
+  <si>
+    <t>ang iba't-ibang mga tanawin</t>
+  </si>
+  <si>
+    <t>ng industriyang paglalathala</t>
+  </si>
+  <si>
+    <t>nagusto nila ,</t>
+  </si>
+  <si>
+    <t>ang iba't-ibang typeface</t>
+  </si>
+  <si>
+    <t>pagkakaroonng hindi kaaya-ayang lasa</t>
+  </si>
+  <si>
+    <t>ginagamit parin ang</t>
+  </si>
+  <si>
+    <t>nagdeklara ngbatas</t>
+  </si>
+  <si>
+    <t>sa timogkanluran papunta_sa</t>
+  </si>
+  <si>
+    <t>hindi parin matuturing</t>
+  </si>
+  <si>
+    <t>Nanatili parin ang</t>
+  </si>
+  <si>
+    <t>masmalaki pa sa</t>
+  </si>
+  <si>
+    <t>ang masmaliit na sipit</t>
+  </si>
+  <si>
+    <t>huminga ng masmadali</t>
+  </si>
+  <si>
+    <t>Subalit , mahirap</t>
+  </si>
+  <si>
+    <t>Kung kung saktan</t>
+  </si>
+  <si>
+    <t>katulad na ni Howard Sturges</t>
+  </si>
+  <si>
+    <t>Kung kung masaktan</t>
+  </si>
+  <si>
+    <t>kondisyon na pagmamahal</t>
+  </si>
+  <si>
+    <t>pagkakataon na aking</t>
+  </si>
+  <si>
+    <t>Hindi ko kailangan na</t>
+  </si>
+  <si>
+    <t>palagi na pumili</t>
+  </si>
+  <si>
+    <t>Alam ko na ang</t>
+  </si>
+  <si>
+    <t>sugatan na bata</t>
+  </si>
+  <si>
+    <t>mahina na biktima</t>
+  </si>
+  <si>
+    <t>ang sarili ko na</t>
+  </si>
+  <si>
+    <t>ngayon na matanda na ako</t>
+  </si>
+  <si>
+    <t>natutunan ko na unahin</t>
+  </si>
+  <si>
+    <t>o ipakita na hindi tayo</t>
+  </si>
+  <si>
+    <t>ng karapatan na mabuhay .</t>
+  </si>
+  <si>
+    <t>ang pangalan na ginagamit</t>
+  </si>
+  <si>
+    <t>napatunayan na</t>
+  </si>
+  <si>
+    <t>mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>isang mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>Sa panahon na ito</t>
+  </si>
+  <si>
+    <t>kompederasyon na ito</t>
+  </si>
+  <si>
+    <t>Mayroong din na hindi</t>
+  </si>
+  <si>
+    <t>nung panahon na iyon</t>
+  </si>
+  <si>
+    <t>PRSP_CCP NNC PRL</t>
+  </si>
+  <si>
+    <t>CCP ? PRS_CCP NNC</t>
+  </si>
+  <si>
+    <t>FW DTP NNPA FW</t>
+  </si>
+  <si>
+    <t>VBW DTCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>NNC CCB RBF VBTF</t>
+  </si>
+  <si>
+    <t>VBH_CCP PRI_CCP VBW</t>
+  </si>
+  <si>
+    <t>VBTR CCB RBD</t>
+  </si>
+  <si>
+    <t>CCR VB_TR_RF PMC</t>
+  </si>
+  <si>
+    <t>VBN_CCP CCB VBTR_CCP</t>
+  </si>
+  <si>
+    <t>NNC CCB RBF</t>
+  </si>
+  <si>
+    <t>JJC CCT PRI</t>
+  </si>
+  <si>
+    <t>VBTS CCB VBOF</t>
+  </si>
+  <si>
+    <t>VBW CCB VBW CCP VBAF</t>
+  </si>
+  <si>
+    <t>VBAF CCB RBD</t>
+  </si>
+  <si>
+    <t>RBW ? PRS PRS</t>
+  </si>
+  <si>
+    <t>? DTC PRSP_CCP</t>
+  </si>
+  <si>
+    <t>? PRO DTC</t>
+  </si>
+  <si>
+    <t>? PRS_CCP VBAF DTC</t>
+  </si>
+  <si>
+    <t>? PRS</t>
+  </si>
+  <si>
+    <t>? DTCP NNC</t>
+  </si>
+  <si>
+    <t>? CCB NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC PRS</t>
+  </si>
+  <si>
+    <t>RBW_CCP RBW PMC</t>
+  </si>
+  <si>
+    <t>JJD CCP PRS VBTS CCT</t>
+  </si>
+  <si>
+    <t>PRO_LM JJCS_JJD</t>
+  </si>
+  <si>
+    <t>RBW ? DTP</t>
+  </si>
+  <si>
+    <t>CCR ? CCB</t>
+  </si>
+  <si>
+    <t>DTC ? CCA NNC</t>
+  </si>
+  <si>
+    <t>RBD ? CCT PRQ_CCP NNC</t>
+  </si>
+  <si>
+    <t>? CCT PRSP_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC ? CCT</t>
+  </si>
+  <si>
+    <t>? NNC CCT NNC</t>
+  </si>
+  <si>
+    <t>CCA VBRF PRS DTC</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCT ?</t>
+  </si>
+  <si>
+    <t>CCT NNC CCP ?</t>
+  </si>
+  <si>
+    <t>JJD_CCP ? DTC VBW</t>
+  </si>
+  <si>
+    <t>? CCP VBS</t>
+  </si>
+  <si>
+    <t>NNC CCB ?</t>
+  </si>
+  <si>
+    <t>? DTC JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC ? DTCP NNC</t>
+  </si>
+  <si>
+    <t>? DTC NNC_CCP</t>
+  </si>
+  <si>
+    <t>DTC ? VB_TR_RF</t>
+  </si>
+  <si>
+    <t>PRI_CCP NNC CCB ?</t>
+  </si>
+  <si>
+    <t>CCP VBTS CCB</t>
+  </si>
+  <si>
+    <t>CDB PMC VBTS PRS</t>
+  </si>
+  <si>
+    <t>DTC RBD CCP ?</t>
+  </si>
+  <si>
+    <t>CCA ? DTC</t>
+  </si>
+  <si>
+    <t>CCU NNC CCB ?</t>
+  </si>
+  <si>
+    <t>? DTP NNP</t>
+  </si>
+  <si>
+    <t>? PRP CCT NNC</t>
+  </si>
+  <si>
+    <t>VBRF CCB NNC</t>
+  </si>
+  <si>
+    <t>? DTC VBOF</t>
+  </si>
+  <si>
+    <t>RBD PRP VBTS</t>
+  </si>
+  <si>
+    <t>JJC CCB ? PRP</t>
+  </si>
+  <si>
+    <t>CCT DTCP ? PRO</t>
+  </si>
+  <si>
+    <t>DTC VBW CCB JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>? CCB JJD</t>
+  </si>
+  <si>
+    <t>VBOF PRS VBAF</t>
+  </si>
+  <si>
+    <t>CCT ? CCB</t>
+  </si>
+  <si>
+    <t>PRSP_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>CCR_CCA RBD PRS_CCP VBAF</t>
+  </si>
+  <si>
+    <t>JJD CCA VBTS CCP</t>
+  </si>
+  <si>
+    <t>PRO ? PMC</t>
+  </si>
+  <si>
+    <t>PRI_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>DTCP ? .</t>
+  </si>
+  <si>
+    <t>NNC CCB NNC_CCP CDB</t>
+  </si>
+  <si>
+    <t>DTC PRSP_CCP ?</t>
+  </si>
+  <si>
+    <t>? PRO</t>
+  </si>
+  <si>
+    <t>FW RBW ?</t>
+  </si>
+  <si>
+    <t>? CCT PRI_CCP</t>
+  </si>
+  <si>
+    <t>RBR NNC_CCP ?</t>
+  </si>
+  <si>
+    <t>NNC PMC ? CCB</t>
+  </si>
+  <si>
+    <t>? NNC CCP VBTR</t>
+  </si>
+  <si>
+    <t>JJCS_JJD CCA ? NNC</t>
+  </si>
+  <si>
+    <t>RBF ? VBW</t>
+  </si>
+  <si>
+    <t>? RBI VBTR CCB</t>
+  </si>
+  <si>
+    <t>VBTF RBL CCB ? CCB NNP</t>
+  </si>
+  <si>
+    <t>DTC VBW CCB ? PMP</t>
+  </si>
+  <si>
+    <t>CCT NNC CCB ?</t>
+  </si>
+  <si>
+    <t>JJD CCP ?</t>
+  </si>
+  <si>
+    <t>NNP DTC ? CDB PMS</t>
+  </si>
+  <si>
+    <t>? CCT NNP NNP PMP</t>
+  </si>
+  <si>
+    <t>CCB ? DTC</t>
+  </si>
+  <si>
+    <t>DTC ? VBTS_CCP</t>
+  </si>
+  <si>
+    <t>DTC NNC CCT ?</t>
+  </si>
+  <si>
+    <t>CCP ? RBL</t>
+  </si>
+  <si>
+    <t>CCU FW CCA FW</t>
+  </si>
+  <si>
+    <t>VBW ? DTC NNC</t>
+  </si>
+  <si>
+    <t>CCT ? CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC ? PRO</t>
+  </si>
+  <si>
+    <t>VBTR ? NNC</t>
+  </si>
+  <si>
+    <t>? NNC</t>
+  </si>
+  <si>
+    <t>CCP PRF CCT</t>
+  </si>
+  <si>
+    <t>JJN_CCP ? CCB NNC</t>
+  </si>
+  <si>
+    <t>CCB ? NNC</t>
+  </si>
+  <si>
+    <t>? RBB PRSP</t>
+  </si>
+  <si>
+    <t>DTC ? RBW VBAF</t>
+  </si>
+  <si>
+    <t>? JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>? CCP VBOF</t>
+  </si>
+  <si>
+    <t>NNC ? NNC</t>
+  </si>
+  <si>
+    <t>DTC ? PRP DTC</t>
+  </si>
+  <si>
+    <t>DTC ? CCA</t>
+  </si>
+  <si>
+    <t>? CCB VBTS_CCP FW</t>
+  </si>
+  <si>
+    <t>CCT ? PRO</t>
+  </si>
+  <si>
+    <t>? CCB JJD_CCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>CCT ? FW</t>
+  </si>
+  <si>
+    <t>DTC ? NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC ? RBB</t>
+  </si>
+  <si>
+    <t>RBW VBS</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC PRSP_CCP VBTF</t>
+  </si>
+  <si>
+    <t>RBW JJD</t>
+  </si>
+  <si>
+    <t>CCT PRI_CCP NNC</t>
+  </si>
+  <si>
+    <t>NNC PMC CCP CCT PRI</t>
+  </si>
+  <si>
+    <t>? NNC PRS CCB</t>
+  </si>
+  <si>
+    <t>PRSP_CCP JJD_CCP CCR VBTF PMC</t>
+  </si>
+  <si>
+    <t>DTC PRSP_CCP CCR NNC CCT</t>
+  </si>
+  <si>
+    <t>CCT CCR VBTF DTCP</t>
+  </si>
+  <si>
+    <t>? ? CCB PRSP_CCP</t>
+  </si>
+  <si>
+    <t>CCB PRSP_CCP CCR NNC</t>
+  </si>
+  <si>
+    <t>RBF PRP ? ?</t>
+  </si>
+  <si>
+    <t>DTC JJCS JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC CCR JJD CCT</t>
+  </si>
+  <si>
+    <t>DTC JJCS JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>? NNC CCB</t>
+  </si>
+  <si>
+    <t>? PRL CCB PRI_CCP</t>
+  </si>
+  <si>
+    <t>CCA ? JJN CCT</t>
+  </si>
+  <si>
+    <t>RBD_CCP JJD VBAF CCT</t>
+  </si>
+  <si>
+    <t>CCB ? ? RBW_CCP</t>
+  </si>
+  <si>
+    <t>? ? DTCP NNC</t>
+  </si>
+  <si>
+    <t>RBD NNC CCT NNP</t>
+  </si>
+  <si>
+    <t>VBTS_CCP ? NNC</t>
+  </si>
+  <si>
+    <t>? ? FW</t>
+  </si>
+  <si>
+    <t>DTC ? PRI</t>
+  </si>
+  <si>
+    <t>? VBS CCB NNC</t>
+  </si>
+  <si>
+    <t>CCT CCR JJD RBB</t>
+  </si>
+  <si>
+    <t>? JJD CCA JJD</t>
+  </si>
+  <si>
+    <t>VBW ? DTCP FW FW</t>
+  </si>
+  <si>
+    <t>DTC ? JJD_CCP VBTS</t>
+  </si>
+  <si>
+    <t>CCT ? NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>? ? PRS CCT NNC</t>
+  </si>
+  <si>
+    <t>? ? PRS CCU</t>
+  </si>
+  <si>
+    <t>DTC ? VBTF CCT NNC</t>
+  </si>
+  <si>
+    <t>? JJD_CCP NNC CCB</t>
+  </si>
+  <si>
+    <t>CCB DTC ? CCA</t>
+  </si>
+  <si>
+    <t>CCA ? VBW JJD PMC</t>
+  </si>
+  <si>
+    <t>NNC ? RBT</t>
+  </si>
+  <si>
+    <t>RBI ? DTC</t>
+  </si>
+  <si>
+    <t>VBTR ?</t>
+  </si>
+  <si>
+    <t>VBTR ? DTC</t>
+  </si>
+  <si>
+    <t>DTC ? VBOF</t>
+  </si>
+  <si>
+    <t>CCT ? DTC PRI_CCP</t>
+  </si>
+  <si>
+    <t>CCP VBH ?</t>
+  </si>
+  <si>
+    <t>DTC ? PMP</t>
+  </si>
+  <si>
+    <t>? PRO CCB</t>
+  </si>
+  <si>
+    <t>RBD ? PRI_CCP JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>? VBOF CCP NNC</t>
+  </si>
+  <si>
+    <t>CCB NNC_CCP VBW</t>
+  </si>
+  <si>
+    <t>VBTS PRP PMC</t>
+  </si>
+  <si>
+    <t>DTC ? FW</t>
+  </si>
+  <si>
+    <t>? RBF JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBTS ? FW</t>
+  </si>
+  <si>
+    <t>CCT ? RBL</t>
+  </si>
+  <si>
+    <t>RBF ? VBTF</t>
+  </si>
+  <si>
+    <t>? RBI CCT</t>
+  </si>
+  <si>
+    <t>DTC ? CCP NNC</t>
+  </si>
+  <si>
+    <t>VBAF CCB ?</t>
+  </si>
+  <si>
+    <t>CCT PMC JJD</t>
+  </si>
+  <si>
+    <t>CCR CCR VBOF</t>
+  </si>
+  <si>
+    <t>JJC CCP DTP NNP NNP</t>
+  </si>
+  <si>
+    <t>CCR CCR VBW</t>
+  </si>
+  <si>
+    <t>NNC CCP NNC</t>
+  </si>
+  <si>
+    <t>NNC CCP PRSP_CCP</t>
+  </si>
+  <si>
+    <t>RBF PRS VBS CCP</t>
+  </si>
+  <si>
+    <t>RBD CCP VBAF</t>
+  </si>
+  <si>
+    <t>VBS PRS CCP DTC</t>
+  </si>
+  <si>
+    <t>DTC NNC PRS CCP</t>
+  </si>
+  <si>
+    <t>RBW RBI JJD RBI PRS</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCP RBD</t>
+  </si>
+  <si>
+    <t>CCT VBOF CCP RBF PRP</t>
+  </si>
+  <si>
+    <t>CCB NNC CCP VBW PMP</t>
+  </si>
+  <si>
+    <t>DTC NNC CCP VBTR</t>
+  </si>
+  <si>
+    <t>VBTS CCP</t>
+  </si>
+  <si>
+    <t>PRI_CCP JJD CCP NNC</t>
+  </si>
+  <si>
+    <t>CCT NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>VBH_CCP RBI CCP RBF</t>
+  </si>
+  <si>
+    <t>RBW NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>CCP VBH PRS_CCP JJD</t>
+  </si>
+  <si>
+    <t>NNC DTCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>VBH_CCP PRI_CCP JJD_CCP</t>
+  </si>
+  <si>
+    <t>VBTR_VBAF CCB VBRF</t>
+  </si>
+  <si>
+    <t>VBTR_VBAF CCB JJD</t>
+  </si>
+  <si>
+    <t>CCR VBTR_VBRF PMC</t>
+  </si>
+  <si>
+    <t>VBTS CCB RBD</t>
+  </si>
+  <si>
+    <t>NNC CCB NNC CCP VBAF</t>
+  </si>
+  <si>
+    <t>VBS RBI_CCP NNC CCP</t>
+  </si>
+  <si>
+    <t>RBB JJD</t>
+  </si>
+  <si>
+    <t>VBOF PRS</t>
+  </si>
+  <si>
+    <t>RBW VBOF PRS PRS</t>
+  </si>
+  <si>
+    <t>VBOF DTC PRSP_CCP</t>
+  </si>
+  <si>
+    <t>VBTR PRO DTC</t>
+  </si>
+  <si>
+    <t>VBTF PRS_CCP VBW DTC</t>
+  </si>
+  <si>
+    <t>RBD PRS</t>
+  </si>
+  <si>
+    <t>NNC CCB NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>NNC RBW PMC</t>
+  </si>
+  <si>
+    <t>? CCP PRS VBTR CCT</t>
+  </si>
+  <si>
+    <t>PRO_CCP VBTS</t>
+  </si>
+  <si>
+    <t>RBW VBOF_CCP DTP</t>
+  </si>
+  <si>
+    <t>CCR VBTS CCB</t>
+  </si>
+  <si>
+    <t>DTC JJN CCA JJN</t>
+  </si>
+  <si>
+    <t>PRI_CCP NNC CCT PRQ_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBW CCT PRSP_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC CCT</t>
+  </si>
+  <si>
+    <t>JJCS_JJD_CCP NNC CCT NNC</t>
+  </si>
+  <si>
+    <t>CCA VBOF PRS DTC</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCT VBW</t>
+  </si>
+  <si>
+    <t>CCT NNC CCP NNC</t>
+  </si>
+  <si>
+    <t>JJD_CCP NNC DTC NNC</t>
+  </si>
+  <si>
+    <t>JJN CCP VBS</t>
+  </si>
+  <si>
+    <t>VBTS DTC NNC_CCP</t>
+  </si>
+  <si>
+    <t>DTC RBD_CCP VBRF</t>
+  </si>
+  <si>
+    <t>PRI_CCP NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC DTCP NNC_CCP</t>
+  </si>
+  <si>
+    <t>DTC JJD CCP NNC</t>
+  </si>
+  <si>
+    <t>VBTS CCB RBN_CCP JJD</t>
+  </si>
+  <si>
+    <t>CCA VBW DTC</t>
+  </si>
+  <si>
+    <t>CCU NNC CCP NNC</t>
+  </si>
+  <si>
+    <t>VBTS DTP NNP</t>
+  </si>
+  <si>
+    <t>VBTS PRP CCT NNC</t>
+  </si>
+  <si>
+    <t>JJD DTC NNC</t>
+  </si>
+  <si>
+    <t>RBD PRP RBD</t>
+  </si>
+  <si>
+    <t>JJC CCB NNC PRP</t>
+  </si>
+  <si>
+    <t>CCT DTCP NNC PRO</t>
+  </si>
+  <si>
+    <t>DTC ? CCB JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBTS DTC NNC</t>
+  </si>
+  <si>
+    <t>NNC_CCP DTC FW</t>
+  </si>
+  <si>
+    <t>VBOF CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC JJCS_JJD CCP</t>
+  </si>
+  <si>
+    <t>RBW_CCP CDB PMC VBW DTC</t>
+  </si>
+  <si>
+    <t>DTC NNC CCB</t>
+  </si>
+  <si>
+    <t>CCP VBTF CCB</t>
+  </si>
+  <si>
+    <t>NNC CCB</t>
+  </si>
+  <si>
+    <t>NNC CCP VBS</t>
+  </si>
+  <si>
+    <t>VBOF PRS VBW</t>
+  </si>
+  <si>
+    <t>CCT NNC CCB</t>
+  </si>
+  <si>
+    <t>PRSP_CCP NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBW VBW PRS_CCP VBAF</t>
+  </si>
+  <si>
+    <t>JJD CCA VBTR CCP</t>
+  </si>
+  <si>
+    <t>PRO_CCP NNC PMC</t>
+  </si>
+  <si>
+    <t>PRI_CCP JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTCP FW PMP</t>
+  </si>
+  <si>
+    <t>NNC RBW NNC_CCP CDB</t>
+  </si>
+  <si>
+    <t>DTC PRSP_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBOF PRO</t>
+  </si>
+  <si>
+    <t>NNC RBW PRS</t>
+  </si>
+  <si>
+    <t>NNC CCT PRI_CCP</t>
+  </si>
+  <si>
+    <t>RBL CCB NNC</t>
+  </si>
+  <si>
+    <t>RBR NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>NNC PMC VBTS CCB</t>
+  </si>
+  <si>
+    <t>NNC_CCP NNC CCP VBTR</t>
+  </si>
+  <si>
+    <t>JJCS_JJD CCA JJCS_JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>RBF RBT_CCP JJD_CCP</t>
+  </si>
+  <si>
+    <t>? RBI VBOF CCB</t>
+  </si>
+  <si>
+    <t>RBL CCB NNC CCB NNP</t>
+  </si>
+  <si>
+    <t>NNC NNC CCT NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC CCB NNC PMP</t>
+  </si>
+  <si>
+    <t>CCT NNC CCB JJD</t>
+  </si>
+  <si>
+    <t>RBD CCP NNC</t>
+  </si>
+  <si>
+    <t>JJD DTC VBTS CDB PMS</t>
+  </si>
+  <si>
+    <t>VBTS CCT NNP NNP PMP</t>
+  </si>
+  <si>
+    <t>CCB NNC DTC</t>
+  </si>
+  <si>
+    <t>DTC NNC VBTR_CCP</t>
+  </si>
+  <si>
+    <t>VBOF CCT PRSP_CCP NNC</t>
+  </si>
+  <si>
+    <t>CCP NNC RBL</t>
+  </si>
+  <si>
+    <t>RBL FW CCA NNC</t>
+  </si>
+  <si>
+    <t>RBW VBOF DTC NNC</t>
+  </si>
+  <si>
+    <t>CCT NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>DTC JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC PRO</t>
+  </si>
+  <si>
+    <t>VBTS NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>CCU NNC_CCP</t>
+  </si>
+  <si>
+    <t>CCP NNC CCT</t>
+  </si>
+  <si>
+    <t>CCB NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC_CCP RBW VBW</t>
+  </si>
+  <si>
+    <t>NNC_CCP JJN_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBOF RBI PRO_CCP</t>
+  </si>
+  <si>
+    <t>RBW NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC VBOF PRP DTC</t>
+  </si>
+  <si>
+    <t>DTC NNC CCA</t>
+  </si>
+  <si>
+    <t>NNC CCB VBTR NNC</t>
+  </si>
+  <si>
+    <t>CCT VBTS PRO</t>
+  </si>
+  <si>
+    <t>NNC CCB JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>CCT PRQ_CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC NNC_CCP NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>VBTR DTC NNC</t>
+  </si>
+  <si>
+    <t>PRI_CCP NNC</t>
+  </si>
+  <si>
+    <t>NNC DTC VBTR CCB</t>
+  </si>
+  <si>
+    <t>DTC NNC NNC</t>
+  </si>
+  <si>
+    <t>CCT DTCP NNC CCP NNC</t>
+  </si>
+  <si>
+    <t>VBAF CCB JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>NNC CCP JJC</t>
+  </si>
+  <si>
+    <t>CCT JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC PRSP_CCP ?</t>
+  </si>
+  <si>
+    <t>CCP NNC JJD</t>
+  </si>
+  <si>
+    <t>CCT RBI_CCP NNC</t>
+  </si>
+  <si>
+    <t>PRSP_CCP NNC CCR NNC PMC</t>
+  </si>
+  <si>
+    <t>? VBN CCB PRSP_CCP</t>
+  </si>
+  <si>
+    <t>CCB PRSP_CCP ? JJD</t>
+  </si>
+  <si>
+    <t>RBF PRP DTC RBR</t>
+  </si>
+  <si>
+    <t>DTC CCR VBOF CCT</t>
+  </si>
+  <si>
+    <t>VBW NNC CCB</t>
+  </si>
+  <si>
+    <t>NNC PRL CCB VBW</t>
+  </si>
+  <si>
+    <t>CCA NNC JJN CCT</t>
+  </si>
+  <si>
+    <t>RBW CCR VBAF CCT</t>
+  </si>
+  <si>
+    <t>CCB NNP NNC RBW_CCP</t>
+  </si>
+  <si>
+    <t>? NNC DTCP NNC</t>
+  </si>
+  <si>
+    <t>? NNC CCT NNP</t>
+  </si>
+  <si>
+    <t>RBD_CCP VBW PRO_CCP</t>
+  </si>
+  <si>
+    <t>JJC NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>NNC NNC FW</t>
+  </si>
+  <si>
+    <t>DTC JJCS PRI</t>
+  </si>
+  <si>
+    <t>JJCS JJD CCA JJD</t>
+  </si>
+  <si>
+    <t>VBW NNC DTCP NNC FW</t>
+  </si>
+  <si>
+    <t>DTC JJCS VBW VBOF</t>
+  </si>
+  <si>
+    <t>CCT CCR NNC CCB NNC</t>
+  </si>
+  <si>
+    <t>? NNC PRS CCT NNC</t>
+  </si>
+  <si>
+    <t>? NNC PRS CCT</t>
+  </si>
+  <si>
+    <t>DTC CCR VBTF CCT NNC</t>
+  </si>
+  <si>
+    <t>JJCS JJD_CCP NNC CCB</t>
+  </si>
+  <si>
+    <t>? ? DTC NNP</t>
+  </si>
+  <si>
+    <t>CCT NNC NNC CCB</t>
+  </si>
+  <si>
+    <t>JJD NNP PRS</t>
+  </si>
+  <si>
+    <t>NNC CCB NNP LM ? PRI</t>
+  </si>
+  <si>
+    <t>DTC CCR NNC CCT NNC</t>
+  </si>
+  <si>
+    <t>VBTS NNC CCT</t>
+  </si>
+  <si>
+    <t>NNC DTC ? CCA</t>
+  </si>
+  <si>
+    <t>CCA ? NNC PMC</t>
+  </si>
+  <si>
+    <t>NNC ?</t>
+  </si>
+  <si>
+    <t>RBI NNC DTC</t>
+  </si>
+  <si>
+    <t>CCP VBH JJD</t>
+  </si>
+  <si>
+    <t>DTC NNC PMP</t>
+  </si>
+  <si>
+    <t>JJD PRO CCB</t>
+  </si>
+  <si>
+    <t>RBD VBOF_CCP PRI_CCP JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>JJD VBOF CCP NNC</t>
+  </si>
+  <si>
+    <t>DTC JJD_CCP DTCP NNC</t>
+  </si>
+  <si>
+    <t>CCB NNC RBB</t>
+  </si>
+  <si>
+    <t>? PRP PMC</t>
+  </si>
+  <si>
+    <t>DTC JJD_CCP FW</t>
+  </si>
+  <si>
+    <t>NNC_CCP RBF JJD_CCP NNC</t>
+  </si>
+  <si>
+    <t>VBTS NNC</t>
+  </si>
+  <si>
+    <t>CCT NNC NNC</t>
+  </si>
+  <si>
+    <t>JJD RBI CCT</t>
+  </si>
+  <si>
+    <t>VBAF CCB VBW</t>
+  </si>
+  <si>
+    <t>NNC ? DTC</t>
+  </si>
+  <si>
+    <t>JJD_CCP DTCP NNC CCP</t>
+  </si>
+  <si>
+    <t>DTC NNC_CCP NNC</t>
+  </si>
+  <si>
+    <t>CCR CCR RBL</t>
+  </si>
+  <si>
+    <t>CCR CCR JJD</t>
+  </si>
+  <si>
+    <t>VBAF DTC DTC NNC</t>
+  </si>
+  <si>
+    <t>RBW CCP VBAF</t>
+  </si>
+  <si>
+    <t>RBD CCP JJD</t>
+  </si>
+  <si>
+    <t>RBW CCP RBD CCP PRS</t>
+  </si>
+  <si>
+    <t>VBTR PRS CCP NNC</t>
+  </si>
+  <si>
+    <t>CCB NNC CCP JJD PMP</t>
+  </si>
+  <si>
+    <t>VBTS RBI</t>
+  </si>
+  <si>
+    <t>JJD RBI CCP RBF</t>
+  </si>
+  <si>
+    <t>RBW_CCP NNC CCP PRO</t>
+  </si>
+  <si>
+    <t>Number of
+Question
+Marks
+Nicco</t>
+  </si>
+  <si>
+    <t>Number of
+Question
+Marks
+Gold</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +2714,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1026,7 +2776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1042,6 +2792,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,13 +4856,5803 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" s="9">
+        <f>LEN(D2)-LEN(SUBSTITUTE(D2,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <f>LEN(C2)-LEN(SUBSTITUTE(C2,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(H2&gt;G2, H2-G2, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G3" s="9">
+        <f>LEN(D3)-LEN(SUBSTITUTE(D3,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>LEN(C3)-LEN(SUBSTITUTE(C3,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>IF(H3&gt;G3, H3-G3, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" s="9">
+        <f>LEN(D4)-LEN(SUBSTITUTE(D4,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f>LEN(C4)-LEN(SUBSTITUTE(C4,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="0">IF(H4&gt;G4, H4-G4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G5" s="9">
+        <f>LEN(D5)-LEN(SUBSTITUTE(D5,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f>LEN(C5)-LEN(SUBSTITUTE(C5,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="9">
+        <f>LEN(D6)-LEN(SUBSTITUTE(D6,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>LEN(C6)-LEN(SUBSTITUTE(C6,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G7" s="9">
+        <f>LEN(D7)-LEN(SUBSTITUTE(D7,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f>LEN(C7)-LEN(SUBSTITUTE(C7,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G8" s="9">
+        <f>LEN(D8)-LEN(SUBSTITUTE(D8,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>LEN(C8)-LEN(SUBSTITUTE(C8,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" t="s">
+        <v>705</v>
+      </c>
+      <c r="G9" s="9">
+        <f>LEN(D9)-LEN(SUBSTITUTE(D9,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f>LEN(C9)-LEN(SUBSTITUTE(C9,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" t="s">
+        <v>706</v>
+      </c>
+      <c r="G10" s="9">
+        <f>LEN(D10)-LEN(SUBSTITUTE(D10,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f>LEN(C10)-LEN(SUBSTITUTE(C10,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" s="9">
+        <f>LEN(D11)-LEN(SUBSTITUTE(D11,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>LEN(C11)-LEN(SUBSTITUTE(C11,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G12" s="9">
+        <f>LEN(D12)-LEN(SUBSTITUTE(D12,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f>LEN(C12)-LEN(SUBSTITUTE(C12,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="9">
+        <f>LEN(D13)-LEN(SUBSTITUTE(D13,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f>LEN(C13)-LEN(SUBSTITUTE(C13,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14" s="9">
+        <f>LEN(D14)-LEN(SUBSTITUTE(D14,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>LEN(C14)-LEN(SUBSTITUTE(C14,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" t="s">
+        <v>708</v>
+      </c>
+      <c r="G15" s="9">
+        <f>LEN(D15)-LEN(SUBSTITUTE(D15,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f>LEN(C15)-LEN(SUBSTITUTE(C15,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" s="9">
+        <f>LEN(D16)-LEN(SUBSTITUTE(D16,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f>LEN(C16)-LEN(SUBSTITUTE(C16,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>709</v>
+      </c>
+      <c r="G17" s="9">
+        <f>LEN(D17)-LEN(SUBSTITUTE(D17,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f>LEN(C17)-LEN(SUBSTITUTE(C17,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>710</v>
+      </c>
+      <c r="G18" s="9">
+        <f>LEN(D18)-LEN(SUBSTITUTE(D18,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f>LEN(C18)-LEN(SUBSTITUTE(C18,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9">
+        <f>LEN(D19)-LEN(SUBSTITUTE(D19,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f>LEN(C19)-LEN(SUBSTITUTE(C19,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9">
+        <f>LEN(D20)-LEN(SUBSTITUTE(D20,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f>LEN(C20)-LEN(SUBSTITUTE(C20,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>711</v>
+      </c>
+      <c r="G21" s="9">
+        <f>LEN(D21)-LEN(SUBSTITUTE(D21,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f>LEN(C21)-LEN(SUBSTITUTE(C21,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="9">
+        <f>LEN(D22)-LEN(SUBSTITUTE(D22,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <f>LEN(C22)-LEN(SUBSTITUTE(C22,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" t="s">
+        <v>712</v>
+      </c>
+      <c r="G23" s="9">
+        <f>LEN(D23)-LEN(SUBSTITUTE(D23,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <f>LEN(C23)-LEN(SUBSTITUTE(C23,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24" t="s">
+        <v>713</v>
+      </c>
+      <c r="G24" s="9">
+        <f>LEN(D24)-LEN(SUBSTITUTE(D24,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <f>LEN(C24)-LEN(SUBSTITUTE(C24,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="10">
+        <f>LEN(D25)-LEN(SUBSTITUTE(D25,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <f>LEN(C25)-LEN(SUBSTITUTE(C25,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" t="s">
+        <v>714</v>
+      </c>
+      <c r="G26" s="9">
+        <f>LEN(D26)-LEN(SUBSTITUTE(D26,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <f>LEN(C26)-LEN(SUBSTITUTE(C26,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" t="s">
+        <v>715</v>
+      </c>
+      <c r="G27" s="9">
+        <f>LEN(D27)-LEN(SUBSTITUTE(D27,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <f>LEN(C27)-LEN(SUBSTITUTE(C27,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" t="s">
+        <v>716</v>
+      </c>
+      <c r="G28" s="9">
+        <f>LEN(D28)-LEN(SUBSTITUTE(D28,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <f>LEN(C28)-LEN(SUBSTITUTE(C28,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="9">
+        <f>LEN(D29)-LEN(SUBSTITUTE(D29,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f>LEN(C29)-LEN(SUBSTITUTE(C29,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D30" t="s">
+        <v>717</v>
+      </c>
+      <c r="G30" s="9">
+        <f>LEN(D30)-LEN(SUBSTITUTE(D30,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <f>LEN(C30)-LEN(SUBSTITUTE(C30,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>535</v>
+      </c>
+      <c r="D31" t="s">
+        <v>535</v>
+      </c>
+      <c r="G31" s="9">
+        <f>LEN(D31)-LEN(SUBSTITUTE(D31,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f>LEN(C31)-LEN(SUBSTITUTE(C31,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>536</v>
+      </c>
+      <c r="D32" t="s">
+        <v>718</v>
+      </c>
+      <c r="G32" s="9">
+        <f>LEN(D32)-LEN(SUBSTITUTE(D32,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <f>LEN(C32)-LEN(SUBSTITUTE(C32,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" t="s">
+        <v>719</v>
+      </c>
+      <c r="G33" s="9">
+        <f>LEN(D33)-LEN(SUBSTITUTE(D33,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <f>LEN(C33)-LEN(SUBSTITUTE(C33,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>538</v>
+      </c>
+      <c r="D34" t="s">
+        <v>720</v>
+      </c>
+      <c r="G34" s="9">
+        <f>LEN(D34)-LEN(SUBSTITUTE(D34,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <f>LEN(C34)-LEN(SUBSTITUTE(C34,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" t="s">
+        <v>721</v>
+      </c>
+      <c r="G35" s="9">
+        <f>LEN(D35)-LEN(SUBSTITUTE(D35,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <f>LEN(C35)-LEN(SUBSTITUTE(C35,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D36" t="s">
+        <v>722</v>
+      </c>
+      <c r="G36" s="9">
+        <f>LEN(D36)-LEN(SUBSTITUTE(D36,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <f>LEN(C36)-LEN(SUBSTITUTE(C36,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>541</v>
+      </c>
+      <c r="D37" t="s">
+        <v>723</v>
+      </c>
+      <c r="G37" s="9">
+        <f>LEN(D37)-LEN(SUBSTITUTE(D37,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <f>LEN(C37)-LEN(SUBSTITUTE(C37,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" t="s">
+        <v>542</v>
+      </c>
+      <c r="D38" t="s">
+        <v>724</v>
+      </c>
+      <c r="G38" s="9">
+        <f>LEN(D38)-LEN(SUBSTITUTE(D38,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <f>LEN(C38)-LEN(SUBSTITUTE(C38,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D39" t="s">
+        <v>725</v>
+      </c>
+      <c r="G39" s="9">
+        <f>LEN(D39)-LEN(SUBSTITUTE(D39,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <f>LEN(C39)-LEN(SUBSTITUTE(C39,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>544</v>
+      </c>
+      <c r="D40" t="s">
+        <v>726</v>
+      </c>
+      <c r="G40" s="9">
+        <f>LEN(D40)-LEN(SUBSTITUTE(D40,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <f>LEN(C40)-LEN(SUBSTITUTE(C40,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="9">
+        <f>LEN(D41)-LEN(SUBSTITUTE(D41,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <f>LEN(C41)-LEN(SUBSTITUTE(C41,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" t="s">
+        <v>545</v>
+      </c>
+      <c r="D42" t="s">
+        <v>727</v>
+      </c>
+      <c r="G42" s="9">
+        <f>LEN(D42)-LEN(SUBSTITUTE(D42,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <f>LEN(C42)-LEN(SUBSTITUTE(C42,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" t="s">
+        <v>546</v>
+      </c>
+      <c r="D43" t="s">
+        <v>728</v>
+      </c>
+      <c r="G43" s="9">
+        <f>LEN(D43)-LEN(SUBSTITUTE(D43,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <f>LEN(C43)-LEN(SUBSTITUTE(C43,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="9">
+        <f>LEN(D44)-LEN(SUBSTITUTE(D44,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f>LEN(C44)-LEN(SUBSTITUTE(C44,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D45" t="s">
+        <v>729</v>
+      </c>
+      <c r="G45" s="9">
+        <f>LEN(D45)-LEN(SUBSTITUTE(D45,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <f>LEN(C45)-LEN(SUBSTITUTE(C45,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G46" s="9">
+        <f>LEN(D46)-LEN(SUBSTITUTE(D46,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <f>LEN(C46)-LEN(SUBSTITUTE(C46,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" t="s">
+        <v>549</v>
+      </c>
+      <c r="D47" t="s">
+        <v>731</v>
+      </c>
+      <c r="G47" s="9">
+        <f>LEN(D47)-LEN(SUBSTITUTE(D47,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <f>LEN(C47)-LEN(SUBSTITUTE(C47,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>550</v>
+      </c>
+      <c r="D48" t="s">
+        <v>732</v>
+      </c>
+      <c r="G48" s="9">
+        <f>LEN(D48)-LEN(SUBSTITUTE(D48,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <f>LEN(C48)-LEN(SUBSTITUTE(C48,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>551</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="9">
+        <f>LEN(D49)-LEN(SUBSTITUTE(D49,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <f>LEN(C49)-LEN(SUBSTITUTE(C49,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G50" s="10">
+        <f>LEN(D50)-LEN(SUBSTITUTE(D50,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="10">
+        <f>LEN(C50)-LEN(SUBSTITUTE(C50,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G51" s="10">
+        <f>LEN(D51)-LEN(SUBSTITUTE(D51,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="10">
+        <f>LEN(C51)-LEN(SUBSTITUTE(C51,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" t="s">
+        <v>554</v>
+      </c>
+      <c r="D52" t="s">
+        <v>733</v>
+      </c>
+      <c r="G52" s="9">
+        <f>LEN(D52)-LEN(SUBSTITUTE(D52,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <f>LEN(C52)-LEN(SUBSTITUTE(C52,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>555</v>
+      </c>
+      <c r="D53" t="s">
+        <v>734</v>
+      </c>
+      <c r="G53" s="9">
+        <f>LEN(D53)-LEN(SUBSTITUTE(D53,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <f>LEN(C53)-LEN(SUBSTITUTE(C53,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" t="s">
+        <v>556</v>
+      </c>
+      <c r="D54" t="s">
+        <v>735</v>
+      </c>
+      <c r="G54" s="9">
+        <f>LEN(D54)-LEN(SUBSTITUTE(D54,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <f>LEN(C54)-LEN(SUBSTITUTE(C54,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" t="s">
+        <v>557</v>
+      </c>
+      <c r="D55" t="s">
+        <v>557</v>
+      </c>
+      <c r="G55" s="9">
+        <f>LEN(D55)-LEN(SUBSTITUTE(D55,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <f>LEN(C55)-LEN(SUBSTITUTE(C55,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" t="s">
+        <v>558</v>
+      </c>
+      <c r="G56" s="9">
+        <f>LEN(D56)-LEN(SUBSTITUTE(D56,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <f>LEN(C56)-LEN(SUBSTITUTE(C56,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" t="s">
+        <v>553</v>
+      </c>
+      <c r="D57" t="s">
+        <v>736</v>
+      </c>
+      <c r="G57" s="9">
+        <f>LEN(D57)-LEN(SUBSTITUTE(D57,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <f>LEN(C57)-LEN(SUBSTITUTE(C57,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" t="s">
+        <v>559</v>
+      </c>
+      <c r="D58" t="s">
+        <v>737</v>
+      </c>
+      <c r="G58" s="9">
+        <f>LEN(D58)-LEN(SUBSTITUTE(D58,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <f>LEN(C58)-LEN(SUBSTITUTE(C58,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>738</v>
+      </c>
+      <c r="G59" s="9">
+        <f>LEN(D59)-LEN(SUBSTITUTE(D59,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <f>LEN(C59)-LEN(SUBSTITUTE(C59,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" t="s">
+        <v>560</v>
+      </c>
+      <c r="D60" t="s">
+        <v>739</v>
+      </c>
+      <c r="G60" s="9">
+        <f>LEN(D60)-LEN(SUBSTITUTE(D60,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <f>LEN(C60)-LEN(SUBSTITUTE(C60,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" t="s">
+        <v>561</v>
+      </c>
+      <c r="D61" t="s">
+        <v>740</v>
+      </c>
+      <c r="G61" s="9">
+        <f>LEN(D61)-LEN(SUBSTITUTE(D61,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <f>LEN(C61)-LEN(SUBSTITUTE(C61,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>562</v>
+      </c>
+      <c r="D62" t="s">
+        <v>741</v>
+      </c>
+      <c r="G62" s="9">
+        <f>LEN(D62)-LEN(SUBSTITUTE(D62,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <f>LEN(C62)-LEN(SUBSTITUTE(C62,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" t="s">
+        <v>742</v>
+      </c>
+      <c r="G63" s="9">
+        <f>LEN(D63)-LEN(SUBSTITUTE(D63,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <f>LEN(C63)-LEN(SUBSTITUTE(C63,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="9">
+        <f>LEN(D64)-LEN(SUBSTITUTE(D64,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <f>LEN(C64)-LEN(SUBSTITUTE(C64,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>565</v>
+      </c>
+      <c r="D65" t="s">
+        <v>743</v>
+      </c>
+      <c r="G65" s="9">
+        <f>LEN(D65)-LEN(SUBSTITUTE(D65,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <f>LEN(C65)-LEN(SUBSTITUTE(C65,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" t="s">
+        <v>566</v>
+      </c>
+      <c r="D66" t="s">
+        <v>744</v>
+      </c>
+      <c r="G66" s="9">
+        <f>LEN(D66)-LEN(SUBSTITUTE(D66,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <f>LEN(C66)-LEN(SUBSTITUTE(C66,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" t="s">
+        <v>567</v>
+      </c>
+      <c r="D67" t="s">
+        <v>745</v>
+      </c>
+      <c r="G67" s="9">
+        <f>LEN(D67)-LEN(SUBSTITUTE(D67,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <f>LEN(C67)-LEN(SUBSTITUTE(C67,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" t="s">
+        <v>568</v>
+      </c>
+      <c r="D68" t="s">
+        <v>746</v>
+      </c>
+      <c r="G68" s="9">
+        <f>LEN(D68)-LEN(SUBSTITUTE(D68,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="9">
+        <f>LEN(C68)-LEN(SUBSTITUTE(C68,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I131" si="1">IF(H68&gt;G68, H68-G68, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="9">
+        <f>LEN(D69)-LEN(SUBSTITUTE(D69,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <f>LEN(C69)-LEN(SUBSTITUTE(C69,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+      <c r="C70" t="s">
+        <v>569</v>
+      </c>
+      <c r="D70" t="s">
+        <v>747</v>
+      </c>
+      <c r="G70" s="9">
+        <f>LEN(D70)-LEN(SUBSTITUTE(D70,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="9">
+        <f>LEN(C70)-LEN(SUBSTITUTE(C70,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C71" t="s">
+        <v>570</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="9">
+        <f>LEN(D71)-LEN(SUBSTITUTE(D71,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="9">
+        <f>LEN(C71)-LEN(SUBSTITUTE(C71,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>748</v>
+      </c>
+      <c r="G72" s="9">
+        <f>LEN(D72)-LEN(SUBSTITUTE(D72,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="9">
+        <f>LEN(C72)-LEN(SUBSTITUTE(C72,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>749</v>
+      </c>
+      <c r="G73" s="9">
+        <f>LEN(D73)-LEN(SUBSTITUTE(D73,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <f>LEN(C73)-LEN(SUBSTITUTE(C73,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>750</v>
+      </c>
+      <c r="G74" s="9">
+        <f>LEN(D74)-LEN(SUBSTITUTE(D74,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="9">
+        <f>LEN(C74)-LEN(SUBSTITUTE(C74,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>751</v>
+      </c>
+      <c r="G75" s="9">
+        <f>LEN(D75)-LEN(SUBSTITUTE(D75,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
+        <f>LEN(C75)-LEN(SUBSTITUTE(C75,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>752</v>
+      </c>
+      <c r="G76" s="9">
+        <f>LEN(D76)-LEN(SUBSTITUTE(D76,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
+        <f>LEN(C76)-LEN(SUBSTITUTE(C76,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>753</v>
+      </c>
+      <c r="G77" s="9">
+        <f>LEN(D77)-LEN(SUBSTITUTE(D77,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="9">
+        <f>LEN(C77)-LEN(SUBSTITUTE(C77,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>754</v>
+      </c>
+      <c r="G78" s="9">
+        <f>LEN(D78)-LEN(SUBSTITUTE(D78,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <f>LEN(C78)-LEN(SUBSTITUTE(C78,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" s="9">
+        <f>LEN(D79)-LEN(SUBSTITUTE(D79,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <f>LEN(C79)-LEN(SUBSTITUTE(C79,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>755</v>
+      </c>
+      <c r="G80" s="9">
+        <f>LEN(D80)-LEN(SUBSTITUTE(D80,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <f>LEN(C80)-LEN(SUBSTITUTE(C80,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>756</v>
+      </c>
+      <c r="G81" s="9">
+        <f>LEN(D81)-LEN(SUBSTITUTE(D81,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <f>LEN(C81)-LEN(SUBSTITUTE(C81,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82" s="9">
+        <f>LEN(D82)-LEN(SUBSTITUTE(D82,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="9">
+        <f>LEN(C82)-LEN(SUBSTITUTE(C82,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" t="s">
+        <v>734</v>
+      </c>
+      <c r="G83" s="9">
+        <f>LEN(D83)-LEN(SUBSTITUTE(D83,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <f>LEN(C83)-LEN(SUBSTITUTE(C83,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84" t="s">
+        <v>757</v>
+      </c>
+      <c r="G84" s="9">
+        <f>LEN(D84)-LEN(SUBSTITUTE(D84,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
+        <f>LEN(C84)-LEN(SUBSTITUTE(C84,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" t="s">
+        <v>758</v>
+      </c>
+      <c r="G85" s="9">
+        <f>LEN(D85)-LEN(SUBSTITUTE(D85,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <f>LEN(C85)-LEN(SUBSTITUTE(C85,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" t="s">
+        <v>573</v>
+      </c>
+      <c r="D86" t="s">
+        <v>759</v>
+      </c>
+      <c r="G86" s="9">
+        <f>LEN(D86)-LEN(SUBSTITUTE(D86,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <f>LEN(C86)-LEN(SUBSTITUTE(C86,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>374</v>
+      </c>
+      <c r="C87" t="s">
+        <v>574</v>
+      </c>
+      <c r="D87" t="s">
+        <v>760</v>
+      </c>
+      <c r="G87" s="9">
+        <f>LEN(D87)-LEN(SUBSTITUTE(D87,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="9">
+        <f>LEN(C87)-LEN(SUBSTITUTE(C87,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>375</v>
+      </c>
+      <c r="C88" t="s">
+        <v>575</v>
+      </c>
+      <c r="D88" t="s">
+        <v>761</v>
+      </c>
+      <c r="G88" s="9">
+        <f>LEN(D88)-LEN(SUBSTITUTE(D88,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="9">
+        <f>LEN(C88)-LEN(SUBSTITUTE(C88,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" t="s">
+        <v>576</v>
+      </c>
+      <c r="D89" t="s">
+        <v>762</v>
+      </c>
+      <c r="G89" s="9">
+        <f>LEN(D89)-LEN(SUBSTITUTE(D89,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="9">
+        <f>LEN(C89)-LEN(SUBSTITUTE(C89,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>377</v>
+      </c>
+      <c r="C90" t="s">
+        <v>577</v>
+      </c>
+      <c r="D90" t="s">
+        <v>763</v>
+      </c>
+      <c r="G90" s="9">
+        <f>LEN(D90)-LEN(SUBSTITUTE(D90,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="9">
+        <f>LEN(C90)-LEN(SUBSTITUTE(C90,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>378</v>
+      </c>
+      <c r="C91" t="s">
+        <v>578</v>
+      </c>
+      <c r="D91" t="s">
+        <v>764</v>
+      </c>
+      <c r="G91" s="9">
+        <f>LEN(D91)-LEN(SUBSTITUTE(D91,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="9">
+        <f>LEN(C91)-LEN(SUBSTITUTE(C91,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" t="s">
+        <v>765</v>
+      </c>
+      <c r="G92" s="9">
+        <f>LEN(D92)-LEN(SUBSTITUTE(D92,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="9">
+        <f>LEN(C92)-LEN(SUBSTITUTE(C92,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" t="s">
+        <v>766</v>
+      </c>
+      <c r="G93" s="9">
+        <f>LEN(D93)-LEN(SUBSTITUTE(D93,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
+        <f>LEN(C93)-LEN(SUBSTITUTE(C93,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" t="s">
+        <v>767</v>
+      </c>
+      <c r="G94" s="9">
+        <f>LEN(D94)-LEN(SUBSTITUTE(D94,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="9">
+        <f>LEN(C94)-LEN(SUBSTITUTE(C94,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" t="s">
+        <v>768</v>
+      </c>
+      <c r="G95" s="9">
+        <f>LEN(D95)-LEN(SUBSTITUTE(D95,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="9">
+        <f>LEN(C95)-LEN(SUBSTITUTE(C95,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>583</v>
+      </c>
+      <c r="D96" t="s">
+        <v>769</v>
+      </c>
+      <c r="G96" s="9">
+        <f>LEN(D96)-LEN(SUBSTITUTE(D96,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="9">
+        <f>LEN(C96)-LEN(SUBSTITUTE(C96,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>551</v>
+      </c>
+      <c r="D97" t="s">
+        <v>770</v>
+      </c>
+      <c r="G97" s="9">
+        <f>LEN(D97)-LEN(SUBSTITUTE(D97,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="9">
+        <f>LEN(C97)-LEN(SUBSTITUTE(C97,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" t="s">
+        <v>584</v>
+      </c>
+      <c r="D98" t="s">
+        <v>771</v>
+      </c>
+      <c r="G98" s="9">
+        <f>LEN(D98)-LEN(SUBSTITUTE(D98,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
+        <f>LEN(C98)-LEN(SUBSTITUTE(C98,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
+      <c r="D99" t="s">
+        <v>772</v>
+      </c>
+      <c r="G99" s="9">
+        <f>LEN(D99)-LEN(SUBSTITUTE(D99,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <f>LEN(C99)-LEN(SUBSTITUTE(C99,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" t="s">
+        <v>586</v>
+      </c>
+      <c r="D100" t="s">
+        <v>773</v>
+      </c>
+      <c r="G100" s="9">
+        <f>LEN(D100)-LEN(SUBSTITUTE(D100,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="9">
+        <f>LEN(C100)-LEN(SUBSTITUTE(C100,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
+      <c r="D101" t="s">
+        <v>774</v>
+      </c>
+      <c r="G101" s="9">
+        <f>LEN(D101)-LEN(SUBSTITUTE(D101,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="9">
+        <f>LEN(C101)-LEN(SUBSTITUTE(C101,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" t="s">
+        <v>588</v>
+      </c>
+      <c r="D102" t="s">
+        <v>775</v>
+      </c>
+      <c r="G102" s="9">
+        <f>LEN(D102)-LEN(SUBSTITUTE(D102,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="9">
+        <f>LEN(C102)-LEN(SUBSTITUTE(C102,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G103" s="10">
+        <f>LEN(D103)-LEN(SUBSTITUTE(D103,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H103" s="10">
+        <f>LEN(C103)-LEN(SUBSTITUTE(C103,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" t="s">
+        <v>590</v>
+      </c>
+      <c r="D104" t="s">
+        <v>777</v>
+      </c>
+      <c r="G104" s="9">
+        <f>LEN(D104)-LEN(SUBSTITUTE(D104,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="9">
+        <f>LEN(C104)-LEN(SUBSTITUTE(C104,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>392</v>
+      </c>
+      <c r="C105" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" t="s">
+        <v>778</v>
+      </c>
+      <c r="G105" s="9">
+        <f>LEN(D105)-LEN(SUBSTITUTE(D105,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <f>LEN(C105)-LEN(SUBSTITUTE(C105,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" t="s">
+        <v>591</v>
+      </c>
+      <c r="D106" t="s">
+        <v>779</v>
+      </c>
+      <c r="G106" s="9">
+        <f>LEN(D106)-LEN(SUBSTITUTE(D106,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="9">
+        <f>LEN(C106)-LEN(SUBSTITUTE(C106,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" t="s">
+        <v>592</v>
+      </c>
+      <c r="D107" t="s">
+        <v>780</v>
+      </c>
+      <c r="G107" s="9">
+        <f>LEN(D107)-LEN(SUBSTITUTE(D107,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="9">
+        <f>LEN(C107)-LEN(SUBSTITUTE(C107,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" t="s">
+        <v>593</v>
+      </c>
+      <c r="D108" t="s">
+        <v>781</v>
+      </c>
+      <c r="G108" s="9">
+        <f>LEN(D108)-LEN(SUBSTITUTE(D108,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="9">
+        <f>LEN(C108)-LEN(SUBSTITUTE(C108,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>396</v>
+      </c>
+      <c r="C109" t="s">
+        <v>594</v>
+      </c>
+      <c r="D109" t="s">
+        <v>782</v>
+      </c>
+      <c r="G109" s="9">
+        <f>LEN(D109)-LEN(SUBSTITUTE(D109,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="9">
+        <f>LEN(C109)-LEN(SUBSTITUTE(C109,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>397</v>
+      </c>
+      <c r="C110" t="s">
+        <v>595</v>
+      </c>
+      <c r="D110" t="s">
+        <v>783</v>
+      </c>
+      <c r="G110" s="9">
+        <f>LEN(D110)-LEN(SUBSTITUTE(D110,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="9">
+        <f>LEN(C110)-LEN(SUBSTITUTE(C110,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>398</v>
+      </c>
+      <c r="C111" t="s">
+        <v>596</v>
+      </c>
+      <c r="D111" t="s">
+        <v>784</v>
+      </c>
+      <c r="G111" s="9">
+        <f>LEN(D111)-LEN(SUBSTITUTE(D111,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <f>LEN(C111)-LEN(SUBSTITUTE(C111,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" t="s">
+        <v>597</v>
+      </c>
+      <c r="D112" t="s">
+        <v>785</v>
+      </c>
+      <c r="G112" s="9">
+        <f>LEN(D112)-LEN(SUBSTITUTE(D112,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="9">
+        <f>LEN(C112)-LEN(SUBSTITUTE(C112,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>400</v>
+      </c>
+      <c r="C113" t="s">
+        <v>543</v>
+      </c>
+      <c r="D113" t="s">
+        <v>786</v>
+      </c>
+      <c r="G113" s="9">
+        <f>LEN(D113)-LEN(SUBSTITUTE(D113,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="9">
+        <f>LEN(C113)-LEN(SUBSTITUTE(C113,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>401</v>
+      </c>
+      <c r="C114" t="s">
+        <v>598</v>
+      </c>
+      <c r="D114" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="9">
+        <f>LEN(D114)-LEN(SUBSTITUTE(D114,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="9">
+        <f>LEN(C114)-LEN(SUBSTITUTE(C114,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" t="s">
+        <v>599</v>
+      </c>
+      <c r="D115" t="s">
+        <v>787</v>
+      </c>
+      <c r="G115" s="9">
+        <f>LEN(D115)-LEN(SUBSTITUTE(D115,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="9">
+        <f>LEN(C115)-LEN(SUBSTITUTE(C115,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>403</v>
+      </c>
+      <c r="C116" t="s">
+        <v>600</v>
+      </c>
+      <c r="D116" t="s">
+        <v>788</v>
+      </c>
+      <c r="G116" s="9">
+        <f>LEN(D116)-LEN(SUBSTITUTE(D116,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="9">
+        <f>LEN(C116)-LEN(SUBSTITUTE(C116,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>404</v>
+      </c>
+      <c r="C117" t="s">
+        <v>601</v>
+      </c>
+      <c r="D117" t="s">
+        <v>789</v>
+      </c>
+      <c r="G117" s="9">
+        <f>LEN(D117)-LEN(SUBSTITUTE(D117,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="9">
+        <f>LEN(C117)-LEN(SUBSTITUTE(C117,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" t="s">
+        <v>602</v>
+      </c>
+      <c r="D118" t="s">
+        <v>790</v>
+      </c>
+      <c r="G118" s="9">
+        <f>LEN(D118)-LEN(SUBSTITUTE(D118,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="9">
+        <f>LEN(C118)-LEN(SUBSTITUTE(C118,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>406</v>
+      </c>
+      <c r="C119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>791</v>
+      </c>
+      <c r="G119" s="9">
+        <f>LEN(D119)-LEN(SUBSTITUTE(D119,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="9">
+        <f>LEN(C119)-LEN(SUBSTITUTE(C119,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>407</v>
+      </c>
+      <c r="C120" t="s">
+        <v>603</v>
+      </c>
+      <c r="D120" t="s">
+        <v>792</v>
+      </c>
+      <c r="G120" s="9">
+        <f>LEN(D120)-LEN(SUBSTITUTE(D120,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="9">
+        <f>LEN(C120)-LEN(SUBSTITUTE(C120,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>408</v>
+      </c>
+      <c r="C121" t="s">
+        <v>604</v>
+      </c>
+      <c r="D121" t="s">
+        <v>793</v>
+      </c>
+      <c r="G121" s="9">
+        <f>LEN(D121)-LEN(SUBSTITUTE(D121,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="9">
+        <f>LEN(C121)-LEN(SUBSTITUTE(C121,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>409</v>
+      </c>
+      <c r="C122" t="s">
+        <v>605</v>
+      </c>
+      <c r="D122" t="s">
+        <v>794</v>
+      </c>
+      <c r="G122" s="9">
+        <f>LEN(D122)-LEN(SUBSTITUTE(D122,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="9">
+        <f>LEN(C122)-LEN(SUBSTITUTE(C122,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>410</v>
+      </c>
+      <c r="C123" t="s">
+        <v>606</v>
+      </c>
+      <c r="D123" t="s">
+        <v>795</v>
+      </c>
+      <c r="G123" s="9">
+        <f>LEN(D123)-LEN(SUBSTITUTE(D123,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="9">
+        <f>LEN(C123)-LEN(SUBSTITUTE(C123,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124" t="s">
+        <v>607</v>
+      </c>
+      <c r="D124" t="s">
+        <v>735</v>
+      </c>
+      <c r="G124" s="9">
+        <f>LEN(D124)-LEN(SUBSTITUTE(D124,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="9">
+        <f>LEN(C124)-LEN(SUBSTITUTE(C124,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>412</v>
+      </c>
+      <c r="C125" t="s">
+        <v>608</v>
+      </c>
+      <c r="D125" t="s">
+        <v>796</v>
+      </c>
+      <c r="G125" s="9">
+        <f>LEN(D125)-LEN(SUBSTITUTE(D125,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="9">
+        <f>LEN(C125)-LEN(SUBSTITUTE(C125,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G126" s="10">
+        <f>LEN(D126)-LEN(SUBSTITUTE(D126,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H126" s="10">
+        <f>LEN(C126)-LEN(SUBSTITUTE(C126,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" t="s">
+        <v>610</v>
+      </c>
+      <c r="D127" t="s">
+        <v>797</v>
+      </c>
+      <c r="G127" s="9">
+        <f>LEN(D127)-LEN(SUBSTITUTE(D127,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="9">
+        <f>LEN(C127)-LEN(SUBSTITUTE(C127,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" t="s">
+        <v>611</v>
+      </c>
+      <c r="D128" t="s">
+        <v>798</v>
+      </c>
+      <c r="G128" s="9">
+        <f>LEN(D128)-LEN(SUBSTITUTE(D128,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="9">
+        <f>LEN(C128)-LEN(SUBSTITUTE(C128,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" t="s">
+        <v>612</v>
+      </c>
+      <c r="D129" t="s">
+        <v>799</v>
+      </c>
+      <c r="G129" s="9">
+        <f>LEN(D129)-LEN(SUBSTITUTE(D129,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <f>LEN(C129)-LEN(SUBSTITUTE(C129,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>417</v>
+      </c>
+      <c r="C130" t="s">
+        <v>613</v>
+      </c>
+      <c r="D130" t="s">
+        <v>800</v>
+      </c>
+      <c r="G130" s="9">
+        <f>LEN(D130)-LEN(SUBSTITUTE(D130,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="9">
+        <f>LEN(C130)-LEN(SUBSTITUTE(C130,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131" t="s">
+        <v>614</v>
+      </c>
+      <c r="D131" t="s">
+        <v>801</v>
+      </c>
+      <c r="G131" s="9">
+        <f>LEN(D131)-LEN(SUBSTITUTE(D131,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="9">
+        <f>LEN(C131)-LEN(SUBSTITUTE(C131,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" t="s">
+        <v>615</v>
+      </c>
+      <c r="D132" t="s">
+        <v>802</v>
+      </c>
+      <c r="G132" s="9">
+        <f>LEN(D132)-LEN(SUBSTITUTE(D132,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="9">
+        <f>LEN(C132)-LEN(SUBSTITUTE(C132,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:I195" si="2">IF(H132&gt;G132, H132-G132, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>420</v>
+      </c>
+      <c r="C133" t="s">
+        <v>616</v>
+      </c>
+      <c r="D133" t="s">
+        <v>803</v>
+      </c>
+      <c r="G133" s="9">
+        <f>LEN(D133)-LEN(SUBSTITUTE(D133,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="9">
+        <f>LEN(C133)-LEN(SUBSTITUTE(C133,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>421</v>
+      </c>
+      <c r="C134" t="s">
+        <v>617</v>
+      </c>
+      <c r="D134" t="s">
+        <v>804</v>
+      </c>
+      <c r="G134" s="9">
+        <f>LEN(D134)-LEN(SUBSTITUTE(D134,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="9">
+        <f>LEN(C134)-LEN(SUBSTITUTE(C134,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>422</v>
+      </c>
+      <c r="C135" t="s">
+        <v>602</v>
+      </c>
+      <c r="D135" t="s">
+        <v>790</v>
+      </c>
+      <c r="G135" s="9">
+        <f>LEN(D135)-LEN(SUBSTITUTE(D135,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="9">
+        <f>LEN(C135)-LEN(SUBSTITUTE(C135,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>423</v>
+      </c>
+      <c r="C136" t="s">
+        <v>618</v>
+      </c>
+      <c r="D136" t="s">
+        <v>805</v>
+      </c>
+      <c r="G136" s="9">
+        <f>LEN(D136)-LEN(SUBSTITUTE(D136,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="9">
+        <f>LEN(C136)-LEN(SUBSTITUTE(C136,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>424</v>
+      </c>
+      <c r="C137" t="s">
+        <v>619</v>
+      </c>
+      <c r="D137" t="s">
+        <v>806</v>
+      </c>
+      <c r="G137" s="9">
+        <f>LEN(D137)-LEN(SUBSTITUTE(D137,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="9">
+        <f>LEN(C137)-LEN(SUBSTITUTE(C137,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" t="s">
+        <v>620</v>
+      </c>
+      <c r="D138" t="s">
+        <v>807</v>
+      </c>
+      <c r="G138" s="9">
+        <f>LEN(D138)-LEN(SUBSTITUTE(D138,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="9">
+        <f>LEN(C138)-LEN(SUBSTITUTE(C138,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>808</v>
+      </c>
+      <c r="G139" s="9">
+        <f>LEN(D139)-LEN(SUBSTITUTE(D139,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="9">
+        <f>LEN(C139)-LEN(SUBSTITUTE(C139,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>809</v>
+      </c>
+      <c r="G140" s="9">
+        <f>LEN(D140)-LEN(SUBSTITUTE(D140,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="9">
+        <f>LEN(C140)-LEN(SUBSTITUTE(C140,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>810</v>
+      </c>
+      <c r="G141" s="9">
+        <f>LEN(D141)-LEN(SUBSTITUTE(D141,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="9">
+        <f>LEN(C141)-LEN(SUBSTITUTE(C141,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" t="s">
+        <v>621</v>
+      </c>
+      <c r="D142" t="s">
+        <v>811</v>
+      </c>
+      <c r="G142" s="9">
+        <f>LEN(D142)-LEN(SUBSTITUTE(D142,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="9">
+        <f>LEN(C142)-LEN(SUBSTITUTE(C142,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" t="s">
+        <v>812</v>
+      </c>
+      <c r="G143" s="9">
+        <f>LEN(D143)-LEN(SUBSTITUTE(D143,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="9">
+        <f>LEN(C143)-LEN(SUBSTITUTE(C143,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" t="s">
+        <v>813</v>
+      </c>
+      <c r="G144" s="9">
+        <f>LEN(D144)-LEN(SUBSTITUTE(D144,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="9">
+        <f>LEN(C144)-LEN(SUBSTITUTE(C144,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145" t="s">
+        <v>814</v>
+      </c>
+      <c r="G145" s="9">
+        <f>LEN(D145)-LEN(SUBSTITUTE(D145,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="9">
+        <f>LEN(C145)-LEN(SUBSTITUTE(C145,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" t="s">
+        <v>815</v>
+      </c>
+      <c r="G146" s="9">
+        <f>LEN(D146)-LEN(SUBSTITUTE(D146,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="9">
+        <f>LEN(C146)-LEN(SUBSTITUTE(C146,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>426</v>
+      </c>
+      <c r="C147" t="s">
+        <v>622</v>
+      </c>
+      <c r="D147" t="s">
+        <v>622</v>
+      </c>
+      <c r="G147" s="9">
+        <f>LEN(D147)-LEN(SUBSTITUTE(D147,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="9">
+        <f>LEN(C147)-LEN(SUBSTITUTE(C147,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="G148" s="9">
+        <f>LEN(D148)-LEN(SUBSTITUTE(D148,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H148" s="9">
+        <f>LEN(C148)-LEN(SUBSTITUTE(C148,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I148" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>428</v>
+      </c>
+      <c r="C149" t="s">
+        <v>624</v>
+      </c>
+      <c r="D149" t="s">
+        <v>624</v>
+      </c>
+      <c r="G149" s="9">
+        <f>LEN(D149)-LEN(SUBSTITUTE(D149,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="9">
+        <f>LEN(C149)-LEN(SUBSTITUTE(C149,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="9">
+        <f>LEN(D150)-LEN(SUBSTITUTE(D150,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="9">
+        <f>LEN(C150)-LEN(SUBSTITUTE(C150,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>817</v>
+      </c>
+      <c r="G151" s="9">
+        <f>LEN(D151)-LEN(SUBSTITUTE(D151,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="9">
+        <f>LEN(C151)-LEN(SUBSTITUTE(C151,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>429</v>
+      </c>
+      <c r="C152" t="s">
+        <v>625</v>
+      </c>
+      <c r="D152" t="s">
+        <v>818</v>
+      </c>
+      <c r="G152" s="9">
+        <f>LEN(D152)-LEN(SUBSTITUTE(D152,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="9">
+        <f>LEN(C152)-LEN(SUBSTITUTE(C152,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>430</v>
+      </c>
+      <c r="C153" t="s">
+        <v>626</v>
+      </c>
+      <c r="D153" t="s">
+        <v>626</v>
+      </c>
+      <c r="G153" s="9">
+        <f>LEN(D153)-LEN(SUBSTITUTE(D153,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="9">
+        <f>LEN(C153)-LEN(SUBSTITUTE(C153,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>431</v>
+      </c>
+      <c r="C154" t="s">
+        <v>627</v>
+      </c>
+      <c r="D154" t="s">
+        <v>627</v>
+      </c>
+      <c r="G154" s="9">
+        <f>LEN(D154)-LEN(SUBSTITUTE(D154,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H154" s="9">
+        <f>LEN(C154)-LEN(SUBSTITUTE(C154,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>432</v>
+      </c>
+      <c r="C155" t="s">
+        <v>628</v>
+      </c>
+      <c r="D155" t="s">
+        <v>819</v>
+      </c>
+      <c r="G155" s="9">
+        <f>LEN(D155)-LEN(SUBSTITUTE(D155,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="9">
+        <f>LEN(C155)-LEN(SUBSTITUTE(C155,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" t="s">
+        <v>629</v>
+      </c>
+      <c r="D156" t="s">
+        <v>629</v>
+      </c>
+      <c r="G156" s="9">
+        <f>LEN(D156)-LEN(SUBSTITUTE(D156,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="9">
+        <f>LEN(C156)-LEN(SUBSTITUTE(C156,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" t="s">
+        <v>630</v>
+      </c>
+      <c r="D157" t="s">
+        <v>630</v>
+      </c>
+      <c r="G157" s="9">
+        <f>LEN(D157)-LEN(SUBSTITUTE(D157,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="9">
+        <f>LEN(C157)-LEN(SUBSTITUTE(C157,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G158" s="10">
+        <f>LEN(D158)-LEN(SUBSTITUTE(D158,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H158" s="10">
+        <f>LEN(C158)-LEN(SUBSTITUTE(C158,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I158" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" t="s">
+        <v>632</v>
+      </c>
+      <c r="D159" t="s">
+        <v>821</v>
+      </c>
+      <c r="G159" s="9">
+        <f>LEN(D159)-LEN(SUBSTITUTE(D159,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H159" s="9">
+        <f>LEN(C159)-LEN(SUBSTITUTE(C159,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>437</v>
+      </c>
+      <c r="C160" t="s">
+        <v>633</v>
+      </c>
+      <c r="D160" t="s">
+        <v>822</v>
+      </c>
+      <c r="G160" s="9">
+        <f>LEN(D160)-LEN(SUBSTITUTE(D160,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="9">
+        <f>LEN(C160)-LEN(SUBSTITUTE(C160,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>438</v>
+      </c>
+      <c r="C161" t="s">
+        <v>634</v>
+      </c>
+      <c r="D161" t="s">
+        <v>634</v>
+      </c>
+      <c r="G161" s="9">
+        <f>LEN(D161)-LEN(SUBSTITUTE(D161,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="9">
+        <f>LEN(C161)-LEN(SUBSTITUTE(C161,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>439</v>
+      </c>
+      <c r="C162" t="s">
+        <v>635</v>
+      </c>
+      <c r="D162" t="s">
+        <v>823</v>
+      </c>
+      <c r="G162" s="9">
+        <f>LEN(D162)-LEN(SUBSTITUTE(D162,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="9">
+        <f>LEN(C162)-LEN(SUBSTITUTE(C162,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>440</v>
+      </c>
+      <c r="C163" t="s">
+        <v>636</v>
+      </c>
+      <c r="D163" t="s">
+        <v>636</v>
+      </c>
+      <c r="G163" s="9">
+        <f>LEN(D163)-LEN(SUBSTITUTE(D163,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="9">
+        <f>LEN(C163)-LEN(SUBSTITUTE(C163,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>441</v>
+      </c>
+      <c r="C164" t="s">
+        <v>637</v>
+      </c>
+      <c r="D164" t="s">
+        <v>824</v>
+      </c>
+      <c r="G164" s="9">
+        <f>LEN(D164)-LEN(SUBSTITUTE(D164,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="9">
+        <f>LEN(C164)-LEN(SUBSTITUTE(C164,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>442</v>
+      </c>
+      <c r="C165" t="s">
+        <v>638</v>
+      </c>
+      <c r="D165" t="s">
+        <v>825</v>
+      </c>
+      <c r="G165" s="9">
+        <f>LEN(D165)-LEN(SUBSTITUTE(D165,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="9">
+        <f>LEN(C165)-LEN(SUBSTITUTE(C165,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>443</v>
+      </c>
+      <c r="C166" t="s">
+        <v>639</v>
+      </c>
+      <c r="D166" t="s">
+        <v>826</v>
+      </c>
+      <c r="G166" s="9">
+        <f>LEN(D166)-LEN(SUBSTITUTE(D166,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="9">
+        <f>LEN(C166)-LEN(SUBSTITUTE(C166,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>444</v>
+      </c>
+      <c r="C167" t="s">
+        <v>640</v>
+      </c>
+      <c r="D167" t="s">
+        <v>827</v>
+      </c>
+      <c r="G167" s="9">
+        <f>LEN(D167)-LEN(SUBSTITUTE(D167,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="9">
+        <f>LEN(C167)-LEN(SUBSTITUTE(C167,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>445</v>
+      </c>
+      <c r="C168" t="s">
+        <v>641</v>
+      </c>
+      <c r="D168" t="s">
+        <v>828</v>
+      </c>
+      <c r="G168" s="9">
+        <f>LEN(D168)-LEN(SUBSTITUTE(D168,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <f>LEN(C168)-LEN(SUBSTITUTE(C168,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="G169" s="10">
+        <f>LEN(D169)-LEN(SUBSTITUTE(D169,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H169" s="10">
+        <f>LEN(C169)-LEN(SUBSTITUTE(C169,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I169" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>447</v>
+      </c>
+      <c r="C170" t="s">
+        <v>643</v>
+      </c>
+      <c r="D170" t="s">
+        <v>830</v>
+      </c>
+      <c r="G170" s="9">
+        <f>LEN(D170)-LEN(SUBSTITUTE(D170,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H170" s="9">
+        <f>LEN(C170)-LEN(SUBSTITUTE(C170,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>448</v>
+      </c>
+      <c r="C171" t="s">
+        <v>644</v>
+      </c>
+      <c r="D171" t="s">
+        <v>831</v>
+      </c>
+      <c r="G171" s="9">
+        <f>LEN(D171)-LEN(SUBSTITUTE(D171,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <f>LEN(C171)-LEN(SUBSTITUTE(C171,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>449</v>
+      </c>
+      <c r="C172" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" t="s">
+        <v>832</v>
+      </c>
+      <c r="G172" s="9">
+        <f>LEN(D172)-LEN(SUBSTITUTE(D172,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="9">
+        <f>LEN(C172)-LEN(SUBSTITUTE(C172,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>450</v>
+      </c>
+      <c r="C173" t="s">
+        <v>645</v>
+      </c>
+      <c r="D173" t="s">
+        <v>833</v>
+      </c>
+      <c r="G173" s="9">
+        <f>LEN(D173)-LEN(SUBSTITUTE(D173,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="9">
+        <f>LEN(C173)-LEN(SUBSTITUTE(C173,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>451</v>
+      </c>
+      <c r="C174" t="s">
+        <v>646</v>
+      </c>
+      <c r="D174" t="s">
+        <v>834</v>
+      </c>
+      <c r="G174" s="9">
+        <f>LEN(D174)-LEN(SUBSTITUTE(D174,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="9">
+        <f>LEN(C174)-LEN(SUBSTITUTE(C174,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" s="10">
+        <f>LEN(D175)-LEN(SUBSTITUTE(D175,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H175" s="10">
+        <f>LEN(C175)-LEN(SUBSTITUTE(C175,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I175" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>453</v>
+      </c>
+      <c r="C176" t="s">
+        <v>648</v>
+      </c>
+      <c r="D176" t="s">
+        <v>648</v>
+      </c>
+      <c r="G176" s="9">
+        <f>LEN(D176)-LEN(SUBSTITUTE(D176,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H176" s="9">
+        <f>LEN(C176)-LEN(SUBSTITUTE(C176,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>454</v>
+      </c>
+      <c r="C177" t="s">
+        <v>649</v>
+      </c>
+      <c r="D177" t="s">
+        <v>835</v>
+      </c>
+      <c r="G177" s="9">
+        <f>LEN(D177)-LEN(SUBSTITUTE(D177,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <f>LEN(C177)-LEN(SUBSTITUTE(C177,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>455</v>
+      </c>
+      <c r="C178" t="s">
+        <v>650</v>
+      </c>
+      <c r="D178" t="s">
+        <v>836</v>
+      </c>
+      <c r="G178" s="9">
+        <f>LEN(D178)-LEN(SUBSTITUTE(D178,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="9">
+        <f>LEN(C178)-LEN(SUBSTITUTE(C178,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>456</v>
+      </c>
+      <c r="C179" t="s">
+        <v>651</v>
+      </c>
+      <c r="D179" t="s">
+        <v>837</v>
+      </c>
+      <c r="G179" s="9">
+        <f>LEN(D179)-LEN(SUBSTITUTE(D179,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H179" s="9">
+        <f>LEN(C179)-LEN(SUBSTITUTE(C179,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>457</v>
+      </c>
+      <c r="C180" t="s">
+        <v>652</v>
+      </c>
+      <c r="D180" t="s">
+        <v>838</v>
+      </c>
+      <c r="G180" s="9">
+        <f>LEN(D180)-LEN(SUBSTITUTE(D180,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H180" s="9">
+        <f>LEN(C180)-LEN(SUBSTITUTE(C180,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="G181" s="10">
+        <f>LEN(D181)-LEN(SUBSTITUTE(D181,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H181" s="10">
+        <f>LEN(C181)-LEN(SUBSTITUTE(C181,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I181" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="G182" s="10">
+        <f>LEN(D182)-LEN(SUBSTITUTE(D182,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H182" s="10">
+        <f>LEN(C182)-LEN(SUBSTITUTE(C182,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="I182" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>460</v>
+      </c>
+      <c r="C183" t="s">
+        <v>655</v>
+      </c>
+      <c r="D183" t="s">
+        <v>841</v>
+      </c>
+      <c r="G183" s="9">
+        <f>LEN(D183)-LEN(SUBSTITUTE(D183,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="9">
+        <f>LEN(C183)-LEN(SUBSTITUTE(C183,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>461</v>
+      </c>
+      <c r="C184" t="s">
+        <v>656</v>
+      </c>
+      <c r="D184" t="s">
+        <v>842</v>
+      </c>
+      <c r="G184" s="9">
+        <f>LEN(D184)-LEN(SUBSTITUTE(D184,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H184" s="9">
+        <f>LEN(C184)-LEN(SUBSTITUTE(C184,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>843</v>
+      </c>
+      <c r="G185" s="9">
+        <f>LEN(D185)-LEN(SUBSTITUTE(D185,"?",""))</f>
+        <v>2</v>
+      </c>
+      <c r="H185" s="9">
+        <f>LEN(C185)-LEN(SUBSTITUTE(C185,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>151</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>844</v>
+      </c>
+      <c r="G186" s="9">
+        <f>LEN(D186)-LEN(SUBSTITUTE(D186,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H186" s="9">
+        <f>LEN(C186)-LEN(SUBSTITUTE(C186,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>845</v>
+      </c>
+      <c r="G187" s="9">
+        <f>LEN(D187)-LEN(SUBSTITUTE(D187,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="9">
+        <f>LEN(C187)-LEN(SUBSTITUTE(C187,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="9">
+        <f>LEN(D188)-LEN(SUBSTITUTE(D188,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="9">
+        <f>LEN(C188)-LEN(SUBSTITUTE(C188,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>172</v>
+      </c>
+      <c r="C189" t="s">
+        <v>29</v>
+      </c>
+      <c r="D189" t="s">
+        <v>846</v>
+      </c>
+      <c r="G189" s="9">
+        <f>LEN(D189)-LEN(SUBSTITUTE(D189,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H189" s="9">
+        <f>LEN(C189)-LEN(SUBSTITUTE(C189,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" t="s">
+        <v>230</v>
+      </c>
+      <c r="D190" t="s">
+        <v>847</v>
+      </c>
+      <c r="G190" s="9">
+        <f>LEN(D190)-LEN(SUBSTITUTE(D190,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H190" s="9">
+        <f>LEN(C190)-LEN(SUBSTITUTE(C190,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>208</v>
+      </c>
+      <c r="C191" t="s">
+        <v>114</v>
+      </c>
+      <c r="D191" t="s">
+        <v>848</v>
+      </c>
+      <c r="G191" s="9">
+        <f>LEN(D191)-LEN(SUBSTITUTE(D191,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="9">
+        <f>LEN(C191)-LEN(SUBSTITUTE(C191,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>462</v>
+      </c>
+      <c r="C192" t="s">
+        <v>636</v>
+      </c>
+      <c r="D192" t="s">
+        <v>636</v>
+      </c>
+      <c r="G192" s="9">
+        <f>LEN(D192)-LEN(SUBSTITUTE(D192,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H192" s="9">
+        <f>LEN(C192)-LEN(SUBSTITUTE(C192,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>463</v>
+      </c>
+      <c r="C193" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" t="s">
+        <v>791</v>
+      </c>
+      <c r="G193" s="9">
+        <f>LEN(D193)-LEN(SUBSTITUTE(D193,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H193" s="9">
+        <f>LEN(C193)-LEN(SUBSTITUTE(C193,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="G194" s="10">
+        <f>LEN(D194)-LEN(SUBSTITUTE(D194,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H194" s="10">
+        <f>LEN(C194)-LEN(SUBSTITUTE(C194,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I194" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="G195" s="10">
+        <f>LEN(D195)-LEN(SUBSTITUTE(D195,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H195" s="10">
+        <f>LEN(C195)-LEN(SUBSTITUTE(C195,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I195" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="G196" s="10">
+        <f>LEN(D196)-LEN(SUBSTITUTE(D196,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H196" s="10">
+        <f>LEN(C196)-LEN(SUBSTITUTE(C196,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I196" s="6">
+        <f t="shared" ref="I196:I250" si="3">IF(H196&gt;G196, H196-G196, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>467</v>
+      </c>
+      <c r="C197" t="s">
+        <v>660</v>
+      </c>
+      <c r="D197" t="s">
+        <v>852</v>
+      </c>
+      <c r="G197" s="9">
+        <f>LEN(D197)-LEN(SUBSTITUTE(D197,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H197" s="9">
+        <f>LEN(C197)-LEN(SUBSTITUTE(C197,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G198" s="10">
+        <f>LEN(D198)-LEN(SUBSTITUTE(D198,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H198" s="10">
+        <f>LEN(C198)-LEN(SUBSTITUTE(C198,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I198" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="G199" s="10">
+        <f>LEN(D199)-LEN(SUBSTITUTE(D199,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H199" s="10">
+        <f>LEN(C199)-LEN(SUBSTITUTE(C199,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I199" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>470</v>
+      </c>
+      <c r="C200" t="s">
+        <v>663</v>
+      </c>
+      <c r="D200" t="s">
+        <v>791</v>
+      </c>
+      <c r="G200" s="9">
+        <f>LEN(D200)-LEN(SUBSTITUTE(D200,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H200" s="9">
+        <f>LEN(C200)-LEN(SUBSTITUTE(C200,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G201" s="10">
+        <f>LEN(D201)-LEN(SUBSTITUTE(D201,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H201" s="10">
+        <f>LEN(C201)-LEN(SUBSTITUTE(C201,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I201" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>472</v>
+      </c>
+      <c r="C202" t="s">
+        <v>665</v>
+      </c>
+      <c r="D202" t="s">
+        <v>853</v>
+      </c>
+      <c r="G202" s="9">
+        <f>LEN(D202)-LEN(SUBSTITUTE(D202,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H202" s="9">
+        <f>LEN(C202)-LEN(SUBSTITUTE(C202,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>473</v>
+      </c>
+      <c r="C203" t="s">
+        <v>666</v>
+      </c>
+      <c r="D203" t="s">
+        <v>854</v>
+      </c>
+      <c r="G203" s="9">
+        <f>LEN(D203)-LEN(SUBSTITUTE(D203,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H203" s="9">
+        <f>LEN(C203)-LEN(SUBSTITUTE(C203,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>474</v>
+      </c>
+      <c r="C204" t="s">
+        <v>667</v>
+      </c>
+      <c r="D204" t="s">
+        <v>855</v>
+      </c>
+      <c r="G204" s="9">
+        <f>LEN(D204)-LEN(SUBSTITUTE(D204,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H204" s="9">
+        <f>LEN(C204)-LEN(SUBSTITUTE(C204,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>475</v>
+      </c>
+      <c r="C205" t="s">
+        <v>668</v>
+      </c>
+      <c r="D205" t="s">
+        <v>856</v>
+      </c>
+      <c r="G205" s="9">
+        <f>LEN(D205)-LEN(SUBSTITUTE(D205,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H205" s="9">
+        <f>LEN(C205)-LEN(SUBSTITUTE(C205,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>476</v>
+      </c>
+      <c r="C206" t="s">
+        <v>669</v>
+      </c>
+      <c r="D206" t="s">
+        <v>857</v>
+      </c>
+      <c r="G206" s="9">
+        <f>LEN(D206)-LEN(SUBSTITUTE(D206,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="9">
+        <f>LEN(C206)-LEN(SUBSTITUTE(C206,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>477</v>
+      </c>
+      <c r="C207" t="s">
+        <v>553</v>
+      </c>
+      <c r="D207" t="s">
+        <v>858</v>
+      </c>
+      <c r="G207" s="9">
+        <f>LEN(D207)-LEN(SUBSTITUTE(D207,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H207" s="9">
+        <f>LEN(C207)-LEN(SUBSTITUTE(C207,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>478</v>
+      </c>
+      <c r="C208" t="s">
+        <v>670</v>
+      </c>
+      <c r="D208" t="s">
+        <v>859</v>
+      </c>
+      <c r="G208" s="9">
+        <f>LEN(D208)-LEN(SUBSTITUTE(D208,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H208" s="9">
+        <f>LEN(C208)-LEN(SUBSTITUTE(C208,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>479</v>
+      </c>
+      <c r="C209" t="s">
+        <v>671</v>
+      </c>
+      <c r="D209" t="s">
+        <v>860</v>
+      </c>
+      <c r="G209" s="9">
+        <f>LEN(D209)-LEN(SUBSTITUTE(D209,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H209" s="9">
+        <f>LEN(C209)-LEN(SUBSTITUTE(C209,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>480</v>
+      </c>
+      <c r="C210" t="s">
+        <v>672</v>
+      </c>
+      <c r="D210" t="s">
+        <v>861</v>
+      </c>
+      <c r="G210" s="9">
+        <f>LEN(D210)-LEN(SUBSTITUTE(D210,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H210" s="9">
+        <f>LEN(C210)-LEN(SUBSTITUTE(C210,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>481</v>
+      </c>
+      <c r="C211" t="s">
+        <v>673</v>
+      </c>
+      <c r="D211" t="s">
+        <v>862</v>
+      </c>
+      <c r="G211" s="9">
+        <f>LEN(D211)-LEN(SUBSTITUTE(D211,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H211" s="9">
+        <f>LEN(C211)-LEN(SUBSTITUTE(C211,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>482</v>
+      </c>
+      <c r="C212" t="s">
+        <v>662</v>
+      </c>
+      <c r="D212" t="s">
+        <v>662</v>
+      </c>
+      <c r="G212" s="9">
+        <f>LEN(D212)-LEN(SUBSTITUTE(D212,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H212" s="9">
+        <f>LEN(C212)-LEN(SUBSTITUTE(C212,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" t="s">
+        <v>674</v>
+      </c>
+      <c r="D213" t="s">
+        <v>863</v>
+      </c>
+      <c r="G213" s="9">
+        <f>LEN(D213)-LEN(SUBSTITUTE(D213,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H213" s="9">
+        <f>LEN(C213)-LEN(SUBSTITUTE(C213,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>484</v>
+      </c>
+      <c r="C214" t="s">
+        <v>675</v>
+      </c>
+      <c r="D214" t="s">
+        <v>864</v>
+      </c>
+      <c r="G214" s="9">
+        <f>LEN(D214)-LEN(SUBSTITUTE(D214,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H214" s="9">
+        <f>LEN(C214)-LEN(SUBSTITUTE(C214,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G215" s="10">
+        <f>LEN(D215)-LEN(SUBSTITUTE(D215,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H215" s="10">
+        <f>LEN(C215)-LEN(SUBSTITUTE(C215,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I215" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" s="10">
+        <f>LEN(D216)-LEN(SUBSTITUTE(D216,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H216" s="10">
+        <f>LEN(C216)-LEN(SUBSTITUTE(C216,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I216" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G217" s="10">
+        <f>LEN(D217)-LEN(SUBSTITUTE(D217,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H217" s="10">
+        <f>LEN(C217)-LEN(SUBSTITUTE(C217,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I217" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>487</v>
+      </c>
+      <c r="C218" t="s">
+        <v>677</v>
+      </c>
+      <c r="D218" t="s">
+        <v>865</v>
+      </c>
+      <c r="G218" s="9">
+        <f>LEN(D218)-LEN(SUBSTITUTE(D218,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H218" s="9">
+        <f>LEN(C218)-LEN(SUBSTITUTE(C218,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" t="s">
+        <v>678</v>
+      </c>
+      <c r="D219" t="s">
+        <v>737</v>
+      </c>
+      <c r="G219" s="9">
+        <f>LEN(D219)-LEN(SUBSTITUTE(D219,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H219" s="9">
+        <f>LEN(C219)-LEN(SUBSTITUTE(C219,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>489</v>
+      </c>
+      <c r="C220" t="s">
+        <v>679</v>
+      </c>
+      <c r="D220" t="s">
+        <v>866</v>
+      </c>
+      <c r="G220" s="9">
+        <f>LEN(D220)-LEN(SUBSTITUTE(D220,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H220" s="9">
+        <f>LEN(C220)-LEN(SUBSTITUTE(C220,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="G221" s="10">
+        <f>LEN(D221)-LEN(SUBSTITUTE(D221,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="H221" s="10">
+        <f>LEN(C221)-LEN(SUBSTITUTE(C221,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I221" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>199</v>
+      </c>
+      <c r="C222" t="s">
+        <v>107</v>
+      </c>
+      <c r="D222" t="s">
+        <v>868</v>
+      </c>
+      <c r="G222" s="9">
+        <f>LEN(D222)-LEN(SUBSTITUTE(D222,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H222" s="9">
+        <f>LEN(C222)-LEN(SUBSTITUTE(C222,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>200</v>
+      </c>
+      <c r="C223" t="s">
+        <v>108</v>
+      </c>
+      <c r="D223" t="s">
+        <v>869</v>
+      </c>
+      <c r="G223" s="9">
+        <f>LEN(D223)-LEN(SUBSTITUTE(D223,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H223" s="9">
+        <f>LEN(C223)-LEN(SUBSTITUTE(C223,"?",""))</f>
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>490</v>
+      </c>
+      <c r="C224" t="s">
+        <v>680</v>
+      </c>
+      <c r="D224" t="s">
+        <v>680</v>
+      </c>
+      <c r="G224" s="9">
+        <f>LEN(D224)-LEN(SUBSTITUTE(D224,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H224" s="9">
+        <f>LEN(C224)-LEN(SUBSTITUTE(C224,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>491</v>
+      </c>
+      <c r="C225" t="s">
+        <v>681</v>
+      </c>
+      <c r="D225" t="s">
+        <v>870</v>
+      </c>
+      <c r="G225" s="9">
+        <f>LEN(D225)-LEN(SUBSTITUTE(D225,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H225" s="9">
+        <f>LEN(C225)-LEN(SUBSTITUTE(C225,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>492</v>
+      </c>
+      <c r="C226" t="s">
+        <v>682</v>
+      </c>
+      <c r="D226" t="s">
+        <v>682</v>
+      </c>
+      <c r="G226" s="9">
+        <f>LEN(D226)-LEN(SUBSTITUTE(D226,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H226" s="9">
+        <f>LEN(C226)-LEN(SUBSTITUTE(C226,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>493</v>
+      </c>
+      <c r="C227" t="s">
+        <v>683</v>
+      </c>
+      <c r="D227" t="s">
+        <v>871</v>
+      </c>
+      <c r="G227" s="9">
+        <f>LEN(D227)-LEN(SUBSTITUTE(D227,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H227" s="9">
+        <f>LEN(C227)-LEN(SUBSTITUTE(C227,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>872</v>
+      </c>
+      <c r="G228" s="9">
+        <f>LEN(D228)-LEN(SUBSTITUTE(D228,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H228" s="9">
+        <f>LEN(C228)-LEN(SUBSTITUTE(C228,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="9">
+        <f>LEN(D229)-LEN(SUBSTITUTE(D229,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H229" s="9">
+        <f>LEN(C229)-LEN(SUBSTITUTE(C229,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>494</v>
+      </c>
+      <c r="C230" t="s">
+        <v>684</v>
+      </c>
+      <c r="D230" t="s">
+        <v>684</v>
+      </c>
+      <c r="G230" s="9">
+        <f>LEN(D230)-LEN(SUBSTITUTE(D230,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H230" s="9">
+        <f>LEN(C230)-LEN(SUBSTITUTE(C230,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>495</v>
+      </c>
+      <c r="C231" t="s">
+        <v>685</v>
+      </c>
+      <c r="D231" t="s">
+        <v>685</v>
+      </c>
+      <c r="G231" s="9">
+        <f>LEN(D231)-LEN(SUBSTITUTE(D231,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H231" s="9">
+        <f>LEN(C231)-LEN(SUBSTITUTE(C231,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>496</v>
+      </c>
+      <c r="C232" t="s">
+        <v>686</v>
+      </c>
+      <c r="D232" t="s">
+        <v>686</v>
+      </c>
+      <c r="G232" s="9">
+        <f>LEN(D232)-LEN(SUBSTITUTE(D232,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H232" s="9">
+        <f>LEN(C232)-LEN(SUBSTITUTE(C232,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>497</v>
+      </c>
+      <c r="C233" t="s">
+        <v>687</v>
+      </c>
+      <c r="D233" t="s">
+        <v>873</v>
+      </c>
+      <c r="G233" s="9">
+        <f>LEN(D233)-LEN(SUBSTITUTE(D233,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H233" s="9">
+        <f>LEN(C233)-LEN(SUBSTITUTE(C233,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>498</v>
+      </c>
+      <c r="C234" t="s">
+        <v>688</v>
+      </c>
+      <c r="D234" t="s">
+        <v>688</v>
+      </c>
+      <c r="G234" s="9">
+        <f>LEN(D234)-LEN(SUBSTITUTE(D234,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <f>LEN(C234)-LEN(SUBSTITUTE(C234,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>499</v>
+      </c>
+      <c r="C235" t="s">
+        <v>44</v>
+      </c>
+      <c r="D235" t="s">
+        <v>874</v>
+      </c>
+      <c r="G235" s="9">
+        <f>LEN(D235)-LEN(SUBSTITUTE(D235,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H235" s="9">
+        <f>LEN(C235)-LEN(SUBSTITUTE(C235,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>500</v>
+      </c>
+      <c r="C236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D236" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" s="9">
+        <f>LEN(D236)-LEN(SUBSTITUTE(D236,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H236" s="9">
+        <f>LEN(C236)-LEN(SUBSTITUTE(C236,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>501</v>
+      </c>
+      <c r="C237" t="s">
+        <v>689</v>
+      </c>
+      <c r="D237" t="s">
+        <v>689</v>
+      </c>
+      <c r="G237" s="9">
+        <f>LEN(D237)-LEN(SUBSTITUTE(D237,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H237" s="9">
+        <f>LEN(C237)-LEN(SUBSTITUTE(C237,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>502</v>
+      </c>
+      <c r="C238" t="s">
+        <v>690</v>
+      </c>
+      <c r="D238" t="s">
+        <v>875</v>
+      </c>
+      <c r="G238" s="9">
+        <f>LEN(D238)-LEN(SUBSTITUTE(D238,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H238" s="9">
+        <f>LEN(C238)-LEN(SUBSTITUTE(C238,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>503</v>
+      </c>
+      <c r="C239" t="s">
+        <v>691</v>
+      </c>
+      <c r="D239" t="s">
+        <v>876</v>
+      </c>
+      <c r="G239" s="9">
+        <f>LEN(D239)-LEN(SUBSTITUTE(D239,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H239" s="9">
+        <f>LEN(C239)-LEN(SUBSTITUTE(C239,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>504</v>
+      </c>
+      <c r="C240" t="s">
+        <v>692</v>
+      </c>
+      <c r="D240" t="s">
+        <v>692</v>
+      </c>
+      <c r="G240" s="9">
+        <f>LEN(D240)-LEN(SUBSTITUTE(D240,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H240" s="9">
+        <f>LEN(C240)-LEN(SUBSTITUTE(C240,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>505</v>
+      </c>
+      <c r="C241" t="s">
+        <v>693</v>
+      </c>
+      <c r="D241" t="s">
+        <v>877</v>
+      </c>
+      <c r="G241" s="9">
+        <f>LEN(D241)-LEN(SUBSTITUTE(D241,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H241" s="9">
+        <f>LEN(C241)-LEN(SUBSTITUTE(C241,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>506</v>
+      </c>
+      <c r="C242" t="s">
+        <v>694</v>
+      </c>
+      <c r="D242" t="s">
+        <v>694</v>
+      </c>
+      <c r="G242" s="9">
+        <f>LEN(D242)-LEN(SUBSTITUTE(D242,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H242" s="9">
+        <f>LEN(C242)-LEN(SUBSTITUTE(C242,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>507</v>
+      </c>
+      <c r="C243" t="s">
+        <v>695</v>
+      </c>
+      <c r="D243" t="s">
+        <v>878</v>
+      </c>
+      <c r="G243" s="9">
+        <f>LEN(D243)-LEN(SUBSTITUTE(D243,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H243" s="9">
+        <f>LEN(C243)-LEN(SUBSTITUTE(C243,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>508</v>
+      </c>
+      <c r="C244" t="s">
+        <v>44</v>
+      </c>
+      <c r="D244" t="s">
+        <v>44</v>
+      </c>
+      <c r="G244" s="9">
+        <f>LEN(D244)-LEN(SUBSTITUTE(D244,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H244" s="9">
+        <f>LEN(C244)-LEN(SUBSTITUTE(C244,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>509</v>
+      </c>
+      <c r="C245" t="s">
+        <v>696</v>
+      </c>
+      <c r="D245" t="s">
+        <v>696</v>
+      </c>
+      <c r="G245" s="9">
+        <f>LEN(D245)-LEN(SUBSTITUTE(D245,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H245" s="9">
+        <f>LEN(C245)-LEN(SUBSTITUTE(C245,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>510</v>
+      </c>
+      <c r="C246" t="s">
+        <v>697</v>
+      </c>
+      <c r="D246" t="s">
+        <v>697</v>
+      </c>
+      <c r="G246" s="9">
+        <f>LEN(D246)-LEN(SUBSTITUTE(D246,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H246" s="9">
+        <f>LEN(C246)-LEN(SUBSTITUTE(C246,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>511</v>
+      </c>
+      <c r="C247" t="s">
+        <v>698</v>
+      </c>
+      <c r="D247" t="s">
+        <v>698</v>
+      </c>
+      <c r="G247" s="9">
+        <f>LEN(D247)-LEN(SUBSTITUTE(D247,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H247" s="9">
+        <f>LEN(C247)-LEN(SUBSTITUTE(C247,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>512</v>
+      </c>
+      <c r="C248" t="s">
+        <v>699</v>
+      </c>
+      <c r="D248" t="s">
+        <v>879</v>
+      </c>
+      <c r="G248" s="9">
+        <f>LEN(D248)-LEN(SUBSTITUTE(D248,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H248" s="9">
+        <f>LEN(C248)-LEN(SUBSTITUTE(C248,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>513</v>
+      </c>
+      <c r="C249" t="s">
+        <v>700</v>
+      </c>
+      <c r="D249" t="s">
+        <v>880</v>
+      </c>
+      <c r="G249" s="9">
+        <f>LEN(D249)-LEN(SUBSTITUTE(D249,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H249" s="9">
+        <f>LEN(C249)-LEN(SUBSTITUTE(C249,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>692</v>
+      </c>
+      <c r="D250" t="s">
+        <v>692</v>
+      </c>
+      <c r="G250" s="9">
+        <f>LEN(D250)-LEN(SUBSTITUTE(D250,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="H250" s="9">
+        <f>LEN(C250)-LEN(SUBSTITUTE(C250,"?",""))</f>
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>883</v>
+      </c>
+      <c r="J252" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>226</v>
+      </c>
+      <c r="G253">
+        <f>SUM(G2:G252)</f>
+        <v>32</v>
+      </c>
+      <c r="H253">
+        <f>SUM(H2:H252)</f>
+        <v>168</v>
+      </c>
+      <c r="I253">
+        <f>SUM(I2:I252)</f>
+        <v>143</v>
+      </c>
+      <c r="J253">
+        <f>H253-I253</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3113,7 +10660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Google Drive\Workspaces\Java\NGramChecker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="408" windowWidth="37152" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2859,7 +2864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2894,7 +2899,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3109,16 +3114,16 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -3282,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -3360,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>155</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -3464,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
@@ -3504,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>160</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -3596,7 +3601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>163</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>168</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>170</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>171</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>172</v>
       </c>
@@ -3826,11 +3831,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>173</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>175</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>176</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>177</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>178</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>179</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>180</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>181</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>182</v>
       </c>
@@ -4030,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>183</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>184</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>185</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>186</v>
       </c>
@@ -4110,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>187</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>188</v>
       </c>
@@ -4150,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>189</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>190</v>
       </c>
@@ -4190,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>191</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>192</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>193</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>194</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>195</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>196</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>197</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>198</v>
       </c>
@@ -4350,11 +4355,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>200</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>201</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>202</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>203</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -4504,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>205</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>208</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>209</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>210</v>
       </c>
@@ -4633,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>211</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>212</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>213</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>214</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>216</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>217</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>218</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>226</v>
       </c>
@@ -4815,13 +4820,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>227</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>0.80297397769516732</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>228</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>229</v>
       </c>
@@ -4858,23 +4863,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -4914,11 +4919,11 @@
         <v>514</v>
       </c>
       <c r="G2" s="9">
-        <f>LEN(D2)-LEN(SUBSTITUTE(D2,"?",""))</f>
+        <f t="shared" ref="G2:G65" si="0">LEN(D2)-LEN(SUBSTITUTE(D2,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <f>LEN(C2)-LEN(SUBSTITUTE(C2,"?",""))</f>
+        <f t="shared" ref="H2:H65" si="1">LEN(C2)-LEN(SUBSTITUTE(C2,"?",""))</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -4926,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -4937,11 +4942,11 @@
         <v>701</v>
       </c>
       <c r="G3" s="9">
-        <f>LEN(D3)-LEN(SUBSTITUTE(D3,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>LEN(C3)-LEN(SUBSTITUTE(C3,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I3">
@@ -4949,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -4960,19 +4965,19 @@
         <v>516</v>
       </c>
       <c r="G4" s="9">
-        <f>LEN(D4)-LEN(SUBSTITUTE(D4,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f>LEN(C4)-LEN(SUBSTITUTE(C4,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="0">IF(H4&gt;G4, H4-G4, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I67" si="2">IF(H4&gt;G4, H4-G4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>311</v>
       </c>
@@ -4983,19 +4988,19 @@
         <v>702</v>
       </c>
       <c r="G5" s="9">
-        <f>LEN(D5)-LEN(SUBSTITUTE(D5,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <f>LEN(C5)-LEN(SUBSTITUTE(C5,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -5006,19 +5011,19 @@
         <v>518</v>
       </c>
       <c r="G6" s="9">
-        <f>LEN(D6)-LEN(SUBSTITUTE(D6,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>LEN(C6)-LEN(SUBSTITUTE(C6,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -5029,19 +5034,19 @@
         <v>703</v>
       </c>
       <c r="G7" s="9">
-        <f>LEN(D7)-LEN(SUBSTITUTE(D7,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>LEN(C7)-LEN(SUBSTITUTE(C7,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -5052,19 +5057,19 @@
         <v>704</v>
       </c>
       <c r="G8" s="9">
-        <f>LEN(D8)-LEN(SUBSTITUTE(D8,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>LEN(C8)-LEN(SUBSTITUTE(C8,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -5075,19 +5080,19 @@
         <v>705</v>
       </c>
       <c r="G9" s="9">
-        <f>LEN(D9)-LEN(SUBSTITUTE(D9,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <f>LEN(C9)-LEN(SUBSTITUTE(C9,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>316</v>
       </c>
@@ -5098,19 +5103,19 @@
         <v>706</v>
       </c>
       <c r="G10" s="9">
-        <f>LEN(D10)-LEN(SUBSTITUTE(D10,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f>LEN(C10)-LEN(SUBSTITUTE(C10,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -5121,19 +5126,19 @@
         <v>522</v>
       </c>
       <c r="G11" s="9">
-        <f>LEN(D11)-LEN(SUBSTITUTE(D11,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>LEN(C11)-LEN(SUBSTITUTE(C11,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -5144,19 +5149,19 @@
         <v>523</v>
       </c>
       <c r="G12" s="9">
-        <f>LEN(D12)-LEN(SUBSTITUTE(D12,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f>LEN(C12)-LEN(SUBSTITUTE(C12,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>319</v>
       </c>
@@ -5167,19 +5172,19 @@
         <v>524</v>
       </c>
       <c r="G13" s="9">
-        <f>LEN(D13)-LEN(SUBSTITUTE(D13,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>LEN(C13)-LEN(SUBSTITUTE(C13,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>320</v>
       </c>
@@ -5190,19 +5195,19 @@
         <v>707</v>
       </c>
       <c r="G14" s="9">
-        <f>LEN(D14)-LEN(SUBSTITUTE(D14,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f>LEN(C14)-LEN(SUBSTITUTE(C14,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -5213,19 +5218,19 @@
         <v>708</v>
       </c>
       <c r="G15" s="9">
-        <f>LEN(D15)-LEN(SUBSTITUTE(D15,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f>LEN(C15)-LEN(SUBSTITUTE(C15,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>322</v>
       </c>
@@ -5236,19 +5241,19 @@
         <v>527</v>
       </c>
       <c r="G16" s="9">
-        <f>LEN(D16)-LEN(SUBSTITUTE(D16,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f>LEN(C16)-LEN(SUBSTITUTE(C16,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -5259,19 +5264,19 @@
         <v>709</v>
       </c>
       <c r="G17" s="9">
-        <f>LEN(D17)-LEN(SUBSTITUTE(D17,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f>LEN(C17)-LEN(SUBSTITUTE(C17,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -5282,19 +5287,19 @@
         <v>710</v>
       </c>
       <c r="G18" s="9">
-        <f>LEN(D18)-LEN(SUBSTITUTE(D18,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>LEN(C18)-LEN(SUBSTITUTE(C18,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -5305,19 +5310,19 @@
         <v>6</v>
       </c>
       <c r="G19" s="9">
-        <f>LEN(D19)-LEN(SUBSTITUTE(D19,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f>LEN(C19)-LEN(SUBSTITUTE(C19,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -5328,19 +5333,19 @@
         <v>18</v>
       </c>
       <c r="G20" s="9">
-        <f>LEN(D20)-LEN(SUBSTITUTE(D20,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f>LEN(C20)-LEN(SUBSTITUTE(C20,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -5351,19 +5356,19 @@
         <v>711</v>
       </c>
       <c r="G21" s="9">
-        <f>LEN(D21)-LEN(SUBSTITUTE(D21,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f>LEN(C21)-LEN(SUBSTITUTE(C21,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -5374,19 +5379,19 @@
         <v>109</v>
       </c>
       <c r="G22" s="9">
-        <f>LEN(D22)-LEN(SUBSTITUTE(D22,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f>LEN(C22)-LEN(SUBSTITUTE(C22,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
@@ -5397,19 +5402,19 @@
         <v>712</v>
       </c>
       <c r="G23" s="9">
-        <f>LEN(D23)-LEN(SUBSTITUTE(D23,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f>LEN(C23)-LEN(SUBSTITUTE(C23,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -5420,19 +5425,19 @@
         <v>713</v>
       </c>
       <c r="G24" s="9">
-        <f>LEN(D24)-LEN(SUBSTITUTE(D24,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f>LEN(C24)-LEN(SUBSTITUTE(C24,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>325</v>
       </c>
@@ -5443,19 +5448,19 @@
         <v>11</v>
       </c>
       <c r="G25" s="10">
-        <f>LEN(D25)-LEN(SUBSTITUTE(D25,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="10">
-        <f>LEN(C25)-LEN(SUBSTITUTE(C25,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -5466,19 +5471,19 @@
         <v>714</v>
       </c>
       <c r="G26" s="9">
-        <f>LEN(D26)-LEN(SUBSTITUTE(D26,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <f>LEN(C26)-LEN(SUBSTITUTE(C26,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -5489,19 +5494,19 @@
         <v>715</v>
       </c>
       <c r="G27" s="9">
-        <f>LEN(D27)-LEN(SUBSTITUTE(D27,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f>LEN(C27)-LEN(SUBSTITUTE(C27,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
@@ -5512,19 +5517,19 @@
         <v>716</v>
       </c>
       <c r="G28" s="9">
-        <f>LEN(D28)-LEN(SUBSTITUTE(D28,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <f>LEN(C28)-LEN(SUBSTITUTE(C28,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -5535,19 +5540,19 @@
         <v>42</v>
       </c>
       <c r="G29" s="9">
-        <f>LEN(D29)-LEN(SUBSTITUTE(D29,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <f>LEN(C29)-LEN(SUBSTITUTE(C29,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -5558,19 +5563,19 @@
         <v>717</v>
       </c>
       <c r="G30" s="9">
-        <f>LEN(D30)-LEN(SUBSTITUTE(D30,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <f>LEN(C30)-LEN(SUBSTITUTE(C30,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5581,19 +5586,19 @@
         <v>535</v>
       </c>
       <c r="G31" s="9">
-        <f>LEN(D31)-LEN(SUBSTITUTE(D31,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f>LEN(C31)-LEN(SUBSTITUTE(C31,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -5604,42 +5609,42 @@
         <v>718</v>
       </c>
       <c r="G32" s="9">
-        <f>LEN(D32)-LEN(SUBSTITUTE(D32,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <f>LEN(C32)-LEN(SUBSTITUTE(C32,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>333</v>
-      </c>
-      <c r="C33" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G33" s="9">
-        <f>LEN(D33)-LEN(SUBSTITUTE(D33,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <f>LEN(C33)-LEN(SUBSTITUTE(C33,"?",""))</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
@@ -5650,19 +5655,19 @@
         <v>720</v>
       </c>
       <c r="G34" s="9">
-        <f>LEN(D34)-LEN(SUBSTITUTE(D34,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <f>LEN(C34)-LEN(SUBSTITUTE(C34,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
@@ -5673,19 +5678,19 @@
         <v>721</v>
       </c>
       <c r="G35" s="9">
-        <f>LEN(D35)-LEN(SUBSTITUTE(D35,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <f>LEN(C35)-LEN(SUBSTITUTE(C35,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -5696,19 +5701,19 @@
         <v>722</v>
       </c>
       <c r="G36" s="9">
-        <f>LEN(D36)-LEN(SUBSTITUTE(D36,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <f>LEN(C36)-LEN(SUBSTITUTE(C36,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -5719,19 +5724,19 @@
         <v>723</v>
       </c>
       <c r="G37" s="9">
-        <f>LEN(D37)-LEN(SUBSTITUTE(D37,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <f>LEN(C37)-LEN(SUBSTITUTE(C37,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -5742,19 +5747,19 @@
         <v>724</v>
       </c>
       <c r="G38" s="9">
-        <f>LEN(D38)-LEN(SUBSTITUTE(D38,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <f>LEN(C38)-LEN(SUBSTITUTE(C38,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -5765,19 +5770,19 @@
         <v>725</v>
       </c>
       <c r="G39" s="9">
-        <f>LEN(D39)-LEN(SUBSTITUTE(D39,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <f>LEN(C39)-LEN(SUBSTITUTE(C39,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -5788,19 +5793,19 @@
         <v>726</v>
       </c>
       <c r="G40" s="9">
-        <f>LEN(D40)-LEN(SUBSTITUTE(D40,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <f>LEN(C40)-LEN(SUBSTITUTE(C40,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
@@ -5811,19 +5816,19 @@
         <v>44</v>
       </c>
       <c r="G41" s="9">
-        <f>LEN(D41)-LEN(SUBSTITUTE(D41,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <f>LEN(C41)-LEN(SUBSTITUTE(C41,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -5834,19 +5839,19 @@
         <v>727</v>
       </c>
       <c r="G42" s="9">
-        <f>LEN(D42)-LEN(SUBSTITUTE(D42,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <f>LEN(C42)-LEN(SUBSTITUTE(C42,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -5857,19 +5862,19 @@
         <v>728</v>
       </c>
       <c r="G43" s="9">
-        <f>LEN(D43)-LEN(SUBSTITUTE(D43,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <f>LEN(C43)-LEN(SUBSTITUTE(C43,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
@@ -5880,19 +5885,19 @@
         <v>33</v>
       </c>
       <c r="G44" s="9">
-        <f>LEN(D44)-LEN(SUBSTITUTE(D44,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <f>LEN(C44)-LEN(SUBSTITUTE(C44,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -5903,19 +5908,19 @@
         <v>729</v>
       </c>
       <c r="G45" s="9">
-        <f>LEN(D45)-LEN(SUBSTITUTE(D45,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f>LEN(C45)-LEN(SUBSTITUTE(C45,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -5926,19 +5931,19 @@
         <v>730</v>
       </c>
       <c r="G46" s="9">
-        <f>LEN(D46)-LEN(SUBSTITUTE(D46,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <f>LEN(C46)-LEN(SUBSTITUTE(C46,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -5949,19 +5954,19 @@
         <v>731</v>
       </c>
       <c r="G47" s="9">
-        <f>LEN(D47)-LEN(SUBSTITUTE(D47,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <f>LEN(C47)-LEN(SUBSTITUTE(C47,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
@@ -5972,19 +5977,19 @@
         <v>732</v>
       </c>
       <c r="G48" s="9">
-        <f>LEN(D48)-LEN(SUBSTITUTE(D48,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <f>LEN(C48)-LEN(SUBSTITUTE(C48,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -5995,19 +6000,19 @@
         <v>33</v>
       </c>
       <c r="G49" s="9">
-        <f>LEN(D49)-LEN(SUBSTITUTE(D49,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <f>LEN(C49)-LEN(SUBSTITUTE(C49,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>350</v>
       </c>
@@ -6018,19 +6023,19 @@
         <v>552</v>
       </c>
       <c r="G50" s="10">
-        <f>LEN(D50)-LEN(SUBSTITUTE(D50,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H50" s="10">
-        <f>LEN(C50)-LEN(SUBSTITUTE(C50,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>351</v>
       </c>
@@ -6041,19 +6046,19 @@
         <v>553</v>
       </c>
       <c r="G51" s="10">
-        <f>LEN(D51)-LEN(SUBSTITUTE(D51,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" s="10">
-        <f>LEN(C51)-LEN(SUBSTITUTE(C51,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -6064,19 +6069,19 @@
         <v>733</v>
       </c>
       <c r="G52" s="9">
-        <f>LEN(D52)-LEN(SUBSTITUTE(D52,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <f>LEN(C52)-LEN(SUBSTITUTE(C52,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -6087,19 +6092,19 @@
         <v>734</v>
       </c>
       <c r="G53" s="9">
-        <f>LEN(D53)-LEN(SUBSTITUTE(D53,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <f>LEN(C53)-LEN(SUBSTITUTE(C53,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -6110,19 +6115,19 @@
         <v>735</v>
       </c>
       <c r="G54" s="9">
-        <f>LEN(D54)-LEN(SUBSTITUTE(D54,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" s="9">
-        <f>LEN(C54)-LEN(SUBSTITUTE(C54,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -6133,19 +6138,19 @@
         <v>557</v>
       </c>
       <c r="G55" s="9">
-        <f>LEN(D55)-LEN(SUBSTITUTE(D55,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f>LEN(C55)-LEN(SUBSTITUTE(C55,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -6156,19 +6161,19 @@
         <v>558</v>
       </c>
       <c r="G56" s="9">
-        <f>LEN(D56)-LEN(SUBSTITUTE(D56,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <f>LEN(C56)-LEN(SUBSTITUTE(C56,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -6179,19 +6184,19 @@
         <v>736</v>
       </c>
       <c r="G57" s="9">
-        <f>LEN(D57)-LEN(SUBSTITUTE(D57,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f>LEN(C57)-LEN(SUBSTITUTE(C57,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -6202,19 +6207,19 @@
         <v>737</v>
       </c>
       <c r="G58" s="9">
-        <f>LEN(D58)-LEN(SUBSTITUTE(D58,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <f>LEN(C58)-LEN(SUBSTITUTE(C58,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -6225,19 +6230,19 @@
         <v>738</v>
       </c>
       <c r="G59" s="9">
-        <f>LEN(D59)-LEN(SUBSTITUTE(D59,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <f>LEN(C59)-LEN(SUBSTITUTE(C59,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -6248,19 +6253,19 @@
         <v>739</v>
       </c>
       <c r="G60" s="9">
-        <f>LEN(D60)-LEN(SUBSTITUTE(D60,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H60" s="9">
-        <f>LEN(C60)-LEN(SUBSTITUTE(C60,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -6271,19 +6276,19 @@
         <v>740</v>
       </c>
       <c r="G61" s="9">
-        <f>LEN(D61)-LEN(SUBSTITUTE(D61,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H61" s="9">
-        <f>LEN(C61)-LEN(SUBSTITUTE(C61,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -6294,19 +6299,19 @@
         <v>741</v>
       </c>
       <c r="G62" s="9">
-        <f>LEN(D62)-LEN(SUBSTITUTE(D62,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H62" s="9">
-        <f>LEN(C62)-LEN(SUBSTITUTE(C62,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -6317,19 +6322,19 @@
         <v>742</v>
       </c>
       <c r="G63" s="9">
-        <f>LEN(D63)-LEN(SUBSTITUTE(D63,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H63" s="9">
-        <f>LEN(C63)-LEN(SUBSTITUTE(C63,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -6340,19 +6345,19 @@
         <v>39</v>
       </c>
       <c r="G64" s="9">
-        <f>LEN(D64)-LEN(SUBSTITUTE(D64,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <f>LEN(C64)-LEN(SUBSTITUTE(C64,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -6363,19 +6368,19 @@
         <v>743</v>
       </c>
       <c r="G65" s="9">
-        <f>LEN(D65)-LEN(SUBSTITUTE(D65,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <f>LEN(C65)-LEN(SUBSTITUTE(C65,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -6386,19 +6391,19 @@
         <v>744</v>
       </c>
       <c r="G66" s="9">
-        <f>LEN(D66)-LEN(SUBSTITUTE(D66,"?",""))</f>
+        <f t="shared" ref="G66:G129" si="3">LEN(D66)-LEN(SUBSTITUTE(D66,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <f>LEN(C66)-LEN(SUBSTITUTE(C66,"?",""))</f>
+        <f t="shared" ref="H66:H129" si="4">LEN(C66)-LEN(SUBSTITUTE(C66,"?",""))</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -6409,19 +6414,19 @@
         <v>745</v>
       </c>
       <c r="G67" s="9">
-        <f>LEN(D67)-LEN(SUBSTITUTE(D67,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <f>LEN(C67)-LEN(SUBSTITUTE(C67,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -6432,19 +6437,19 @@
         <v>746</v>
       </c>
       <c r="G68" s="9">
-        <f>LEN(D68)-LEN(SUBSTITUTE(D68,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <f>LEN(C68)-LEN(SUBSTITUTE(C68,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="1">IF(H68&gt;G68, H68-G68, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I68:I131" si="5">IF(H68&gt;G68, H68-G68, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -6455,42 +6460,42 @@
         <v>33</v>
       </c>
       <c r="G69" s="9">
-        <f>LEN(D69)-LEN(SUBSTITUTE(D69,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <f>LEN(C69)-LEN(SUBSTITUTE(C69,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="G70" s="9">
-        <f>LEN(D70)-LEN(SUBSTITUTE(D70,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H70" s="9">
-        <f>LEN(C70)-LEN(SUBSTITUTE(C70,"?",""))</f>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -6501,19 +6506,19 @@
         <v>33</v>
       </c>
       <c r="G71" s="9">
-        <f>LEN(D71)-LEN(SUBSTITUTE(D71,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <f>LEN(C71)-LEN(SUBSTITUTE(C71,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -6524,19 +6529,19 @@
         <v>748</v>
       </c>
       <c r="G72" s="9">
-        <f>LEN(D72)-LEN(SUBSTITUTE(D72,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <f>LEN(C72)-LEN(SUBSTITUTE(C72,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6547,19 +6552,19 @@
         <v>749</v>
       </c>
       <c r="G73" s="9">
-        <f>LEN(D73)-LEN(SUBSTITUTE(D73,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <f>LEN(C73)-LEN(SUBSTITUTE(C73,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -6570,19 +6575,19 @@
         <v>750</v>
       </c>
       <c r="G74" s="9">
-        <f>LEN(D74)-LEN(SUBSTITUTE(D74,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <f>LEN(C74)-LEN(SUBSTITUTE(C74,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -6593,19 +6598,19 @@
         <v>751</v>
       </c>
       <c r="G75" s="9">
-        <f>LEN(D75)-LEN(SUBSTITUTE(D75,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <f>LEN(C75)-LEN(SUBSTITUTE(C75,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -6616,19 +6621,19 @@
         <v>752</v>
       </c>
       <c r="G76" s="9">
-        <f>LEN(D76)-LEN(SUBSTITUTE(D76,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <f>LEN(C76)-LEN(SUBSTITUTE(C76,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -6639,19 +6644,19 @@
         <v>753</v>
       </c>
       <c r="G77" s="9">
-        <f>LEN(D77)-LEN(SUBSTITUTE(D77,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <f>LEN(C77)-LEN(SUBSTITUTE(C77,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -6662,19 +6667,19 @@
         <v>754</v>
       </c>
       <c r="G78" s="9">
-        <f>LEN(D78)-LEN(SUBSTITUTE(D78,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <f>LEN(C78)-LEN(SUBSTITUTE(C78,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -6685,19 +6690,19 @@
         <v>118</v>
       </c>
       <c r="G79" s="9">
-        <f>LEN(D79)-LEN(SUBSTITUTE(D79,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <f>LEN(C79)-LEN(SUBSTITUTE(C79,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -6708,19 +6713,19 @@
         <v>755</v>
       </c>
       <c r="G80" s="9">
-        <f>LEN(D80)-LEN(SUBSTITUTE(D80,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <f>LEN(C80)-LEN(SUBSTITUTE(C80,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -6731,19 +6736,19 @@
         <v>756</v>
       </c>
       <c r="G81" s="9">
-        <f>LEN(D81)-LEN(SUBSTITUTE(D81,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="9">
-        <f>LEN(C81)-LEN(SUBSTITUTE(C81,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -6754,19 +6759,19 @@
         <v>231</v>
       </c>
       <c r="G82" s="9">
-        <f>LEN(D82)-LEN(SUBSTITUTE(D82,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H82" s="9">
-        <f>LEN(C82)-LEN(SUBSTITUTE(C82,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -6777,19 +6782,19 @@
         <v>734</v>
       </c>
       <c r="G83" s="9">
-        <f>LEN(D83)-LEN(SUBSTITUTE(D83,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <f>LEN(C83)-LEN(SUBSTITUTE(C83,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -6800,19 +6805,19 @@
         <v>757</v>
       </c>
       <c r="G84" s="9">
-        <f>LEN(D84)-LEN(SUBSTITUTE(D84,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="9">
-        <f>LEN(C84)-LEN(SUBSTITUTE(C84,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -6823,19 +6828,19 @@
         <v>758</v>
       </c>
       <c r="G85" s="9">
-        <f>LEN(D85)-LEN(SUBSTITUTE(D85,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <f>LEN(C85)-LEN(SUBSTITUTE(C85,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -6846,19 +6851,19 @@
         <v>759</v>
       </c>
       <c r="G86" s="9">
-        <f>LEN(D86)-LEN(SUBSTITUTE(D86,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <f>LEN(C86)-LEN(SUBSTITUTE(C86,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -6869,19 +6874,19 @@
         <v>760</v>
       </c>
       <c r="G87" s="9">
-        <f>LEN(D87)-LEN(SUBSTITUTE(D87,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <f>LEN(C87)-LEN(SUBSTITUTE(C87,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -6892,19 +6897,19 @@
         <v>761</v>
       </c>
       <c r="G88" s="9">
-        <f>LEN(D88)-LEN(SUBSTITUTE(D88,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <f>LEN(C88)-LEN(SUBSTITUTE(C88,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -6915,19 +6920,19 @@
         <v>762</v>
       </c>
       <c r="G89" s="9">
-        <f>LEN(D89)-LEN(SUBSTITUTE(D89,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <f>LEN(C89)-LEN(SUBSTITUTE(C89,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -6938,19 +6943,19 @@
         <v>763</v>
       </c>
       <c r="G90" s="9">
-        <f>LEN(D90)-LEN(SUBSTITUTE(D90,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="9">
-        <f>LEN(C90)-LEN(SUBSTITUTE(C90,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -6961,19 +6966,19 @@
         <v>764</v>
       </c>
       <c r="G91" s="9">
-        <f>LEN(D91)-LEN(SUBSTITUTE(D91,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H91" s="9">
-        <f>LEN(C91)-LEN(SUBSTITUTE(C91,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -6984,19 +6989,19 @@
         <v>765</v>
       </c>
       <c r="G92" s="9">
-        <f>LEN(D92)-LEN(SUBSTITUTE(D92,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="9">
-        <f>LEN(C92)-LEN(SUBSTITUTE(C92,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -7007,19 +7012,19 @@
         <v>766</v>
       </c>
       <c r="G93" s="9">
-        <f>LEN(D93)-LEN(SUBSTITUTE(D93,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H93" s="9">
-        <f>LEN(C93)-LEN(SUBSTITUTE(C93,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>381</v>
       </c>
@@ -7030,19 +7035,19 @@
         <v>767</v>
       </c>
       <c r="G94" s="9">
-        <f>LEN(D94)-LEN(SUBSTITUTE(D94,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H94" s="9">
-        <f>LEN(C94)-LEN(SUBSTITUTE(C94,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -7053,19 +7058,19 @@
         <v>768</v>
       </c>
       <c r="G95" s="9">
-        <f>LEN(D95)-LEN(SUBSTITUTE(D95,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H95" s="9">
-        <f>LEN(C95)-LEN(SUBSTITUTE(C95,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>383</v>
       </c>
@@ -7076,19 +7081,19 @@
         <v>769</v>
       </c>
       <c r="G96" s="9">
-        <f>LEN(D96)-LEN(SUBSTITUTE(D96,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <f>LEN(C96)-LEN(SUBSTITUTE(C96,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>384</v>
       </c>
@@ -7099,19 +7104,19 @@
         <v>770</v>
       </c>
       <c r="G97" s="9">
-        <f>LEN(D97)-LEN(SUBSTITUTE(D97,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H97" s="9">
-        <f>LEN(C97)-LEN(SUBSTITUTE(C97,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>385</v>
       </c>
@@ -7122,19 +7127,19 @@
         <v>771</v>
       </c>
       <c r="G98" s="9">
-        <f>LEN(D98)-LEN(SUBSTITUTE(D98,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <f>LEN(C98)-LEN(SUBSTITUTE(C98,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>386</v>
       </c>
@@ -7145,19 +7150,19 @@
         <v>772</v>
       </c>
       <c r="G99" s="9">
-        <f>LEN(D99)-LEN(SUBSTITUTE(D99,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <f>LEN(C99)-LEN(SUBSTITUTE(C99,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -7168,19 +7173,19 @@
         <v>773</v>
       </c>
       <c r="G100" s="9">
-        <f>LEN(D100)-LEN(SUBSTITUTE(D100,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H100" s="9">
-        <f>LEN(C100)-LEN(SUBSTITUTE(C100,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I100">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>388</v>
       </c>
@@ -7191,19 +7196,19 @@
         <v>774</v>
       </c>
       <c r="G101" s="9">
-        <f>LEN(D101)-LEN(SUBSTITUTE(D101,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="9">
-        <f>LEN(C101)-LEN(SUBSTITUTE(C101,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I101">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>389</v>
       </c>
@@ -7214,19 +7219,19 @@
         <v>775</v>
       </c>
       <c r="G102" s="9">
-        <f>LEN(D102)-LEN(SUBSTITUTE(D102,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="9">
-        <f>LEN(C102)-LEN(SUBSTITUTE(C102,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I102">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>390</v>
       </c>
@@ -7237,19 +7242,19 @@
         <v>776</v>
       </c>
       <c r="G103" s="10">
-        <f>LEN(D103)-LEN(SUBSTITUTE(D103,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H103" s="10">
-        <f>LEN(C103)-LEN(SUBSTITUTE(C103,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>391</v>
       </c>
@@ -7260,19 +7265,19 @@
         <v>777</v>
       </c>
       <c r="G104" s="9">
-        <f>LEN(D104)-LEN(SUBSTITUTE(D104,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H104" s="9">
-        <f>LEN(C104)-LEN(SUBSTITUTE(C104,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>392</v>
       </c>
@@ -7283,19 +7288,19 @@
         <v>778</v>
       </c>
       <c r="G105" s="9">
-        <f>LEN(D105)-LEN(SUBSTITUTE(D105,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <f>LEN(C105)-LEN(SUBSTITUTE(C105,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>393</v>
       </c>
@@ -7306,19 +7311,19 @@
         <v>779</v>
       </c>
       <c r="G106" s="9">
-        <f>LEN(D106)-LEN(SUBSTITUTE(D106,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H106" s="9">
-        <f>LEN(C106)-LEN(SUBSTITUTE(C106,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>394</v>
       </c>
@@ -7329,19 +7334,19 @@
         <v>780</v>
       </c>
       <c r="G107" s="9">
-        <f>LEN(D107)-LEN(SUBSTITUTE(D107,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H107" s="9">
-        <f>LEN(C107)-LEN(SUBSTITUTE(C107,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>395</v>
       </c>
@@ -7352,19 +7357,19 @@
         <v>781</v>
       </c>
       <c r="G108" s="9">
-        <f>LEN(D108)-LEN(SUBSTITUTE(D108,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H108" s="9">
-        <f>LEN(C108)-LEN(SUBSTITUTE(C108,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>396</v>
       </c>
@@ -7375,19 +7380,19 @@
         <v>782</v>
       </c>
       <c r="G109" s="9">
-        <f>LEN(D109)-LEN(SUBSTITUTE(D109,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H109" s="9">
-        <f>LEN(C109)-LEN(SUBSTITUTE(C109,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I109">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>397</v>
       </c>
@@ -7398,19 +7403,19 @@
         <v>783</v>
       </c>
       <c r="G110" s="9">
-        <f>LEN(D110)-LEN(SUBSTITUTE(D110,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H110" s="9">
-        <f>LEN(C110)-LEN(SUBSTITUTE(C110,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>398</v>
       </c>
@@ -7421,19 +7426,19 @@
         <v>784</v>
       </c>
       <c r="G111" s="9">
-        <f>LEN(D111)-LEN(SUBSTITUTE(D111,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H111" s="9">
-        <f>LEN(C111)-LEN(SUBSTITUTE(C111,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I111">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>399</v>
       </c>
@@ -7444,19 +7449,19 @@
         <v>785</v>
       </c>
       <c r="G112" s="9">
-        <f>LEN(D112)-LEN(SUBSTITUTE(D112,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H112" s="9">
-        <f>LEN(C112)-LEN(SUBSTITUTE(C112,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I112">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>400</v>
       </c>
@@ -7467,19 +7472,19 @@
         <v>786</v>
       </c>
       <c r="G113" s="9">
-        <f>LEN(D113)-LEN(SUBSTITUTE(D113,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <f>LEN(C113)-LEN(SUBSTITUTE(C113,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>401</v>
       </c>
@@ -7490,19 +7495,19 @@
         <v>112</v>
       </c>
       <c r="G114" s="9">
-        <f>LEN(D114)-LEN(SUBSTITUTE(D114,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H114" s="9">
-        <f>LEN(C114)-LEN(SUBSTITUTE(C114,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>402</v>
       </c>
@@ -7513,19 +7518,19 @@
         <v>787</v>
       </c>
       <c r="G115" s="9">
-        <f>LEN(D115)-LEN(SUBSTITUTE(D115,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H115" s="9">
-        <f>LEN(C115)-LEN(SUBSTITUTE(C115,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>403</v>
       </c>
@@ -7536,19 +7541,19 @@
         <v>788</v>
       </c>
       <c r="G116" s="9">
-        <f>LEN(D116)-LEN(SUBSTITUTE(D116,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H116" s="9">
-        <f>LEN(C116)-LEN(SUBSTITUTE(C116,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>404</v>
       </c>
@@ -7559,19 +7564,19 @@
         <v>789</v>
       </c>
       <c r="G117" s="9">
-        <f>LEN(D117)-LEN(SUBSTITUTE(D117,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H117" s="9">
-        <f>LEN(C117)-LEN(SUBSTITUTE(C117,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>405</v>
       </c>
@@ -7582,19 +7587,19 @@
         <v>790</v>
       </c>
       <c r="G118" s="9">
-        <f>LEN(D118)-LEN(SUBSTITUTE(D118,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H118" s="9">
-        <f>LEN(C118)-LEN(SUBSTITUTE(C118,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>406</v>
       </c>
@@ -7605,19 +7610,19 @@
         <v>791</v>
       </c>
       <c r="G119" s="9">
-        <f>LEN(D119)-LEN(SUBSTITUTE(D119,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H119" s="9">
-        <f>LEN(C119)-LEN(SUBSTITUTE(C119,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>407</v>
       </c>
@@ -7628,19 +7633,19 @@
         <v>792</v>
       </c>
       <c r="G120" s="9">
-        <f>LEN(D120)-LEN(SUBSTITUTE(D120,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H120" s="9">
-        <f>LEN(C120)-LEN(SUBSTITUTE(C120,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I120">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -7651,19 +7656,19 @@
         <v>793</v>
       </c>
       <c r="G121" s="9">
-        <f>LEN(D121)-LEN(SUBSTITUTE(D121,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H121" s="9">
-        <f>LEN(C121)-LEN(SUBSTITUTE(C121,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I121">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>409</v>
       </c>
@@ -7674,19 +7679,19 @@
         <v>794</v>
       </c>
       <c r="G122" s="9">
-        <f>LEN(D122)-LEN(SUBSTITUTE(D122,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H122" s="9">
-        <f>LEN(C122)-LEN(SUBSTITUTE(C122,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I122">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>410</v>
       </c>
@@ -7697,19 +7702,19 @@
         <v>795</v>
       </c>
       <c r="G123" s="9">
-        <f>LEN(D123)-LEN(SUBSTITUTE(D123,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H123" s="9">
-        <f>LEN(C123)-LEN(SUBSTITUTE(C123,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>411</v>
       </c>
@@ -7720,19 +7725,19 @@
         <v>735</v>
       </c>
       <c r="G124" s="9">
-        <f>LEN(D124)-LEN(SUBSTITUTE(D124,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H124" s="9">
-        <f>LEN(C124)-LEN(SUBSTITUTE(C124,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I124">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>412</v>
       </c>
@@ -7743,19 +7748,19 @@
         <v>796</v>
       </c>
       <c r="G125" s="9">
-        <f>LEN(D125)-LEN(SUBSTITUTE(D125,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H125" s="9">
-        <f>LEN(C125)-LEN(SUBSTITUTE(C125,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I125">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>413</v>
       </c>
@@ -7766,19 +7771,19 @@
         <v>609</v>
       </c>
       <c r="G126" s="10">
-        <f>LEN(D126)-LEN(SUBSTITUTE(D126,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H126" s="10">
-        <f>LEN(C126)-LEN(SUBSTITUTE(C126,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I126" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>414</v>
       </c>
@@ -7789,19 +7794,19 @@
         <v>797</v>
       </c>
       <c r="G127" s="9">
-        <f>LEN(D127)-LEN(SUBSTITUTE(D127,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H127" s="9">
-        <f>LEN(C127)-LEN(SUBSTITUTE(C127,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I127">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -7812,19 +7817,19 @@
         <v>798</v>
       </c>
       <c r="G128" s="9">
-        <f>LEN(D128)-LEN(SUBSTITUTE(D128,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H128" s="9">
-        <f>LEN(C128)-LEN(SUBSTITUTE(C128,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I128">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>416</v>
       </c>
@@ -7835,19 +7840,19 @@
         <v>799</v>
       </c>
       <c r="G129" s="9">
-        <f>LEN(D129)-LEN(SUBSTITUTE(D129,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H129" s="9">
-        <f>LEN(C129)-LEN(SUBSTITUTE(C129,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I129">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>417</v>
       </c>
@@ -7858,19 +7863,19 @@
         <v>800</v>
       </c>
       <c r="G130" s="9">
-        <f>LEN(D130)-LEN(SUBSTITUTE(D130,"?",""))</f>
+        <f t="shared" ref="G130:G193" si="6">LEN(D130)-LEN(SUBSTITUTE(D130,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H130" s="9">
-        <f>LEN(C130)-LEN(SUBSTITUTE(C130,"?",""))</f>
+        <f t="shared" ref="H130:H193" si="7">LEN(C130)-LEN(SUBSTITUTE(C130,"?",""))</f>
         <v>1</v>
       </c>
       <c r="I130">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -7881,19 +7886,19 @@
         <v>801</v>
       </c>
       <c r="G131" s="9">
-        <f>LEN(D131)-LEN(SUBSTITUTE(D131,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H131" s="9">
-        <f>LEN(C131)-LEN(SUBSTITUTE(C131,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I131">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>419</v>
       </c>
@@ -7904,19 +7909,19 @@
         <v>802</v>
       </c>
       <c r="G132" s="9">
-        <f>LEN(D132)-LEN(SUBSTITUTE(D132,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132" s="9">
-        <f>LEN(C132)-LEN(SUBSTITUTE(C132,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I195" si="2">IF(H132&gt;G132, H132-G132, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I132:I195" si="8">IF(H132&gt;G132, H132-G132, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -7927,19 +7932,19 @@
         <v>803</v>
       </c>
       <c r="G133" s="9">
-        <f>LEN(D133)-LEN(SUBSTITUTE(D133,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133" s="9">
-        <f>LEN(C133)-LEN(SUBSTITUTE(C133,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I133">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>421</v>
       </c>
@@ -7950,19 +7955,19 @@
         <v>804</v>
       </c>
       <c r="G134" s="9">
-        <f>LEN(D134)-LEN(SUBSTITUTE(D134,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134" s="9">
-        <f>LEN(C134)-LEN(SUBSTITUTE(C134,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I134">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>422</v>
       </c>
@@ -7973,19 +7978,19 @@
         <v>790</v>
       </c>
       <c r="G135" s="9">
-        <f>LEN(D135)-LEN(SUBSTITUTE(D135,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135" s="9">
-        <f>LEN(C135)-LEN(SUBSTITUTE(C135,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I135">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>423</v>
       </c>
@@ -7996,19 +8001,19 @@
         <v>805</v>
       </c>
       <c r="G136" s="9">
-        <f>LEN(D136)-LEN(SUBSTITUTE(D136,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136" s="9">
-        <f>LEN(C136)-LEN(SUBSTITUTE(C136,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>424</v>
       </c>
@@ -8019,19 +8024,19 @@
         <v>806</v>
       </c>
       <c r="G137" s="9">
-        <f>LEN(D137)-LEN(SUBSTITUTE(D137,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137" s="9">
-        <f>LEN(C137)-LEN(SUBSTITUTE(C137,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I137">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>425</v>
       </c>
@@ -8042,19 +8047,19 @@
         <v>807</v>
       </c>
       <c r="G138" s="9">
-        <f>LEN(D138)-LEN(SUBSTITUTE(D138,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138" s="9">
-        <f>LEN(C138)-LEN(SUBSTITUTE(C138,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I138">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -8065,19 +8070,19 @@
         <v>808</v>
       </c>
       <c r="G139" s="9">
-        <f>LEN(D139)-LEN(SUBSTITUTE(D139,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139" s="9">
-        <f>LEN(C139)-LEN(SUBSTITUTE(C139,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I139">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -8088,19 +8093,19 @@
         <v>809</v>
       </c>
       <c r="G140" s="9">
-        <f>LEN(D140)-LEN(SUBSTITUTE(D140,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140" s="9">
-        <f>LEN(C140)-LEN(SUBSTITUTE(C140,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I140">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -8111,19 +8116,19 @@
         <v>810</v>
       </c>
       <c r="G141" s="9">
-        <f>LEN(D141)-LEN(SUBSTITUTE(D141,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141" s="9">
-        <f>LEN(C141)-LEN(SUBSTITUTE(C141,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I141">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -8134,19 +8139,19 @@
         <v>811</v>
       </c>
       <c r="G142" s="9">
-        <f>LEN(D142)-LEN(SUBSTITUTE(D142,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142" s="9">
-        <f>LEN(C142)-LEN(SUBSTITUTE(C142,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I142">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>170</v>
       </c>
@@ -8157,19 +8162,19 @@
         <v>812</v>
       </c>
       <c r="G143" s="9">
-        <f>LEN(D143)-LEN(SUBSTITUTE(D143,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143" s="9">
-        <f>LEN(C143)-LEN(SUBSTITUTE(C143,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I143">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -8180,19 +8185,19 @@
         <v>813</v>
       </c>
       <c r="G144" s="9">
-        <f>LEN(D144)-LEN(SUBSTITUTE(D144,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144" s="9">
-        <f>LEN(C144)-LEN(SUBSTITUTE(C144,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I144">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>203</v>
       </c>
@@ -8203,19 +8208,19 @@
         <v>814</v>
       </c>
       <c r="G145" s="9">
-        <f>LEN(D145)-LEN(SUBSTITUTE(D145,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145" s="9">
-        <f>LEN(C145)-LEN(SUBSTITUTE(C145,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I145">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -8226,19 +8231,19 @@
         <v>815</v>
       </c>
       <c r="G146" s="9">
-        <f>LEN(D146)-LEN(SUBSTITUTE(D146,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146" s="9">
-        <f>LEN(C146)-LEN(SUBSTITUTE(C146,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>426</v>
       </c>
@@ -8249,19 +8254,19 @@
         <v>622</v>
       </c>
       <c r="G147" s="9">
-        <f>LEN(D147)-LEN(SUBSTITUTE(D147,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147" s="9">
-        <f>LEN(C147)-LEN(SUBSTITUTE(C147,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>427</v>
       </c>
@@ -8272,19 +8277,19 @@
         <v>816</v>
       </c>
       <c r="G148" s="9">
-        <f>LEN(D148)-LEN(SUBSTITUTE(D148,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H148" s="9">
-        <f>LEN(C148)-LEN(SUBSTITUTE(C148,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>428</v>
       </c>
@@ -8295,19 +8300,19 @@
         <v>624</v>
       </c>
       <c r="G149" s="9">
-        <f>LEN(D149)-LEN(SUBSTITUTE(D149,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149" s="9">
-        <f>LEN(C149)-LEN(SUBSTITUTE(C149,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -8318,19 +8323,19 @@
         <v>19</v>
       </c>
       <c r="G150" s="9">
-        <f>LEN(D150)-LEN(SUBSTITUTE(D150,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150" s="9">
-        <f>LEN(C150)-LEN(SUBSTITUTE(C150,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -8341,19 +8346,19 @@
         <v>817</v>
       </c>
       <c r="G151" s="9">
-        <f>LEN(D151)-LEN(SUBSTITUTE(D151,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151" s="9">
-        <f>LEN(C151)-LEN(SUBSTITUTE(C151,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>429</v>
       </c>
@@ -8364,19 +8369,19 @@
         <v>818</v>
       </c>
       <c r="G152" s="9">
-        <f>LEN(D152)-LEN(SUBSTITUTE(D152,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152" s="9">
-        <f>LEN(C152)-LEN(SUBSTITUTE(C152,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>430</v>
       </c>
@@ -8387,42 +8392,42 @@
         <v>626</v>
       </c>
       <c r="G153" s="9">
-        <f>LEN(D153)-LEN(SUBSTITUTE(D153,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153" s="9">
-        <f>LEN(C153)-LEN(SUBSTITUTE(C153,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="G154" s="9">
-        <f>LEN(D154)-LEN(SUBSTITUTE(D154,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H154" s="9">
-        <f>LEN(C154)-LEN(SUBSTITUTE(C154,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H154" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I154" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -8433,19 +8438,19 @@
         <v>819</v>
       </c>
       <c r="G155" s="9">
-        <f>LEN(D155)-LEN(SUBSTITUTE(D155,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155" s="9">
-        <f>LEN(C155)-LEN(SUBSTITUTE(C155,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>433</v>
       </c>
@@ -8456,19 +8461,19 @@
         <v>629</v>
       </c>
       <c r="G156" s="9">
-        <f>LEN(D156)-LEN(SUBSTITUTE(D156,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156" s="9">
-        <f>LEN(C156)-LEN(SUBSTITUTE(C156,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>434</v>
       </c>
@@ -8479,19 +8484,19 @@
         <v>630</v>
       </c>
       <c r="G157" s="9">
-        <f>LEN(D157)-LEN(SUBSTITUTE(D157,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="9">
-        <f>LEN(C157)-LEN(SUBSTITUTE(C157,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>435</v>
       </c>
@@ -8502,19 +8507,19 @@
         <v>820</v>
       </c>
       <c r="G158" s="10">
-        <f>LEN(D158)-LEN(SUBSTITUTE(D158,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H158" s="10">
-        <f>LEN(C158)-LEN(SUBSTITUTE(C158,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I158" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>436</v>
       </c>
@@ -8525,19 +8530,19 @@
         <v>821</v>
       </c>
       <c r="G159" s="9">
-        <f>LEN(D159)-LEN(SUBSTITUTE(D159,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H159" s="9">
-        <f>LEN(C159)-LEN(SUBSTITUTE(C159,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>437</v>
       </c>
@@ -8548,19 +8553,19 @@
         <v>822</v>
       </c>
       <c r="G160" s="9">
-        <f>LEN(D160)-LEN(SUBSTITUTE(D160,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="9">
-        <f>LEN(C160)-LEN(SUBSTITUTE(C160,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>438</v>
       </c>
@@ -8571,19 +8576,19 @@
         <v>634</v>
       </c>
       <c r="G161" s="9">
-        <f>LEN(D161)-LEN(SUBSTITUTE(D161,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161" s="9">
-        <f>LEN(C161)-LEN(SUBSTITUTE(C161,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>439</v>
       </c>
@@ -8594,19 +8599,19 @@
         <v>823</v>
       </c>
       <c r="G162" s="9">
-        <f>LEN(D162)-LEN(SUBSTITUTE(D162,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162" s="9">
-        <f>LEN(C162)-LEN(SUBSTITUTE(C162,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>440</v>
       </c>
@@ -8617,19 +8622,19 @@
         <v>636</v>
       </c>
       <c r="G163" s="9">
-        <f>LEN(D163)-LEN(SUBSTITUTE(D163,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163" s="9">
-        <f>LEN(C163)-LEN(SUBSTITUTE(C163,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>441</v>
       </c>
@@ -8640,19 +8645,19 @@
         <v>824</v>
       </c>
       <c r="G164" s="9">
-        <f>LEN(D164)-LEN(SUBSTITUTE(D164,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164" s="9">
-        <f>LEN(C164)-LEN(SUBSTITUTE(C164,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I164">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -8663,19 +8668,19 @@
         <v>825</v>
       </c>
       <c r="G165" s="9">
-        <f>LEN(D165)-LEN(SUBSTITUTE(D165,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165" s="9">
-        <f>LEN(C165)-LEN(SUBSTITUTE(C165,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I165">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>443</v>
       </c>
@@ -8686,19 +8691,19 @@
         <v>826</v>
       </c>
       <c r="G166" s="9">
-        <f>LEN(D166)-LEN(SUBSTITUTE(D166,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166" s="9">
-        <f>LEN(C166)-LEN(SUBSTITUTE(C166,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I166">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>444</v>
       </c>
@@ -8709,19 +8714,19 @@
         <v>827</v>
       </c>
       <c r="G167" s="9">
-        <f>LEN(D167)-LEN(SUBSTITUTE(D167,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167" s="9">
-        <f>LEN(C167)-LEN(SUBSTITUTE(C167,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>445</v>
       </c>
@@ -8732,19 +8737,19 @@
         <v>828</v>
       </c>
       <c r="G168" s="9">
-        <f>LEN(D168)-LEN(SUBSTITUTE(D168,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168" s="9">
-        <f>LEN(C168)-LEN(SUBSTITUTE(C168,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>446</v>
       </c>
@@ -8755,42 +8760,42 @@
         <v>829</v>
       </c>
       <c r="G169" s="10">
-        <f>LEN(D169)-LEN(SUBSTITUTE(D169,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H169" s="10">
-        <f>LEN(C169)-LEN(SUBSTITUTE(C169,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I169" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="G170" s="9">
-        <f>LEN(D170)-LEN(SUBSTITUTE(D170,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H170" s="9">
-        <f>LEN(C170)-LEN(SUBSTITUTE(C170,"?",""))</f>
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H170" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I170" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>448</v>
       </c>
@@ -8801,19 +8806,19 @@
         <v>831</v>
       </c>
       <c r="G171" s="9">
-        <f>LEN(D171)-LEN(SUBSTITUTE(D171,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171" s="9">
-        <f>LEN(C171)-LEN(SUBSTITUTE(C171,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I171">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>449</v>
       </c>
@@ -8824,19 +8829,19 @@
         <v>832</v>
       </c>
       <c r="G172" s="9">
-        <f>LEN(D172)-LEN(SUBSTITUTE(D172,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172" s="9">
-        <f>LEN(C172)-LEN(SUBSTITUTE(C172,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I172">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>450</v>
       </c>
@@ -8847,19 +8852,19 @@
         <v>833</v>
       </c>
       <c r="G173" s="9">
-        <f>LEN(D173)-LEN(SUBSTITUTE(D173,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173" s="9">
-        <f>LEN(C173)-LEN(SUBSTITUTE(C173,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>451</v>
       </c>
@@ -8870,19 +8875,19 @@
         <v>834</v>
       </c>
       <c r="G174" s="9">
-        <f>LEN(D174)-LEN(SUBSTITUTE(D174,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174" s="9">
-        <f>LEN(C174)-LEN(SUBSTITUTE(C174,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I174">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>452</v>
       </c>
@@ -8893,19 +8898,19 @@
         <v>20</v>
       </c>
       <c r="G175" s="10">
-        <f>LEN(D175)-LEN(SUBSTITUTE(D175,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H175" s="10">
-        <f>LEN(C175)-LEN(SUBSTITUTE(C175,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I175" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>453</v>
       </c>
@@ -8916,19 +8921,19 @@
         <v>648</v>
       </c>
       <c r="G176" s="9">
-        <f>LEN(D176)-LEN(SUBSTITUTE(D176,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176" s="9">
-        <f>LEN(C176)-LEN(SUBSTITUTE(C176,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>454</v>
       </c>
@@ -8939,19 +8944,19 @@
         <v>835</v>
       </c>
       <c r="G177" s="9">
-        <f>LEN(D177)-LEN(SUBSTITUTE(D177,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177" s="9">
-        <f>LEN(C177)-LEN(SUBSTITUTE(C177,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I177">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>455</v>
       </c>
@@ -8962,19 +8967,19 @@
         <v>836</v>
       </c>
       <c r="G178" s="9">
-        <f>LEN(D178)-LEN(SUBSTITUTE(D178,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178" s="9">
-        <f>LEN(C178)-LEN(SUBSTITUTE(C178,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I178">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>456</v>
       </c>
@@ -8985,19 +8990,19 @@
         <v>837</v>
       </c>
       <c r="G179" s="9">
-        <f>LEN(D179)-LEN(SUBSTITUTE(D179,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179" s="9">
-        <f>LEN(C179)-LEN(SUBSTITUTE(C179,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I179">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>457</v>
       </c>
@@ -9008,19 +9013,19 @@
         <v>838</v>
       </c>
       <c r="G180" s="9">
-        <f>LEN(D180)-LEN(SUBSTITUTE(D180,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180" s="9">
-        <f>LEN(C180)-LEN(SUBSTITUTE(C180,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I180">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>458</v>
       </c>
@@ -9031,19 +9036,19 @@
         <v>839</v>
       </c>
       <c r="G181" s="10">
-        <f>LEN(D181)-LEN(SUBSTITUTE(D181,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H181" s="10">
-        <f>LEN(C181)-LEN(SUBSTITUTE(C181,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I181" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>459</v>
       </c>
@@ -9054,19 +9059,19 @@
         <v>840</v>
       </c>
       <c r="G182" s="10">
-        <f>LEN(D182)-LEN(SUBSTITUTE(D182,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H182" s="10">
-        <f>LEN(C182)-LEN(SUBSTITUTE(C182,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I182" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>460</v>
       </c>
@@ -9077,19 +9082,19 @@
         <v>841</v>
       </c>
       <c r="G183" s="9">
-        <f>LEN(D183)-LEN(SUBSTITUTE(D183,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183" s="9">
-        <f>LEN(C183)-LEN(SUBSTITUTE(C183,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I183">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>461</v>
       </c>
@@ -9100,42 +9105,42 @@
         <v>842</v>
       </c>
       <c r="G184" s="9">
-        <f>LEN(D184)-LEN(SUBSTITUTE(D184,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184" s="9">
-        <f>LEN(C184)-LEN(SUBSTITUTE(C184,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I184">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="G185" s="9">
-        <f>LEN(D185)-LEN(SUBSTITUTE(D185,"?",""))</f>
+      <c r="G185" s="10">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H185" s="9">
-        <f>LEN(C185)-LEN(SUBSTITUTE(C185,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="I185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I185" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>151</v>
       </c>
@@ -9146,19 +9151,19 @@
         <v>844</v>
       </c>
       <c r="G186" s="9">
-        <f>LEN(D186)-LEN(SUBSTITUTE(D186,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186" s="9">
-        <f>LEN(C186)-LEN(SUBSTITUTE(C186,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I186">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>164</v>
       </c>
@@ -9169,19 +9174,19 @@
         <v>845</v>
       </c>
       <c r="G187" s="9">
-        <f>LEN(D187)-LEN(SUBSTITUTE(D187,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187" s="9">
-        <f>LEN(C187)-LEN(SUBSTITUTE(C187,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I187">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -9192,19 +9197,19 @@
         <v>22</v>
       </c>
       <c r="G188" s="9">
-        <f>LEN(D188)-LEN(SUBSTITUTE(D188,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188" s="9">
-        <f>LEN(C188)-LEN(SUBSTITUTE(C188,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>172</v>
       </c>
@@ -9215,19 +9220,19 @@
         <v>846</v>
       </c>
       <c r="G189" s="9">
-        <f>LEN(D189)-LEN(SUBSTITUTE(D189,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H189" s="9">
-        <f>LEN(C189)-LEN(SUBSTITUTE(C189,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -9238,19 +9243,19 @@
         <v>847</v>
       </c>
       <c r="G190" s="9">
-        <f>LEN(D190)-LEN(SUBSTITUTE(D190,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190" s="9">
-        <f>LEN(C190)-LEN(SUBSTITUTE(C190,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I190">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -9261,19 +9266,19 @@
         <v>848</v>
       </c>
       <c r="G191" s="9">
-        <f>LEN(D191)-LEN(SUBSTITUTE(D191,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H191" s="9">
-        <f>LEN(C191)-LEN(SUBSTITUTE(C191,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>462</v>
       </c>
@@ -9284,19 +9289,19 @@
         <v>636</v>
       </c>
       <c r="G192" s="9">
-        <f>LEN(D192)-LEN(SUBSTITUTE(D192,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <f>LEN(C192)-LEN(SUBSTITUTE(C192,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>463</v>
       </c>
@@ -9307,19 +9312,19 @@
         <v>791</v>
       </c>
       <c r="G193" s="9">
-        <f>LEN(D193)-LEN(SUBSTITUTE(D193,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H193" s="9">
-        <f>LEN(C193)-LEN(SUBSTITUTE(C193,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I193">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>464</v>
       </c>
@@ -9330,19 +9335,19 @@
         <v>849</v>
       </c>
       <c r="G194" s="10">
-        <f>LEN(D194)-LEN(SUBSTITUTE(D194,"?",""))</f>
+        <f t="shared" ref="G194:G250" si="9">LEN(D194)-LEN(SUBSTITUTE(D194,"?",""))</f>
         <v>1</v>
       </c>
       <c r="H194" s="10">
-        <f>LEN(C194)-LEN(SUBSTITUTE(C194,"?",""))</f>
+        <f t="shared" ref="H194:H250" si="10">LEN(C194)-LEN(SUBSTITUTE(C194,"?",""))</f>
         <v>1</v>
       </c>
       <c r="I194" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>465</v>
       </c>
@@ -9353,19 +9358,19 @@
         <v>850</v>
       </c>
       <c r="G195" s="10">
-        <f>LEN(D195)-LEN(SUBSTITUTE(D195,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H195" s="10">
-        <f>LEN(C195)-LEN(SUBSTITUTE(C195,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I195" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>466</v>
       </c>
@@ -9376,19 +9381,19 @@
         <v>851</v>
       </c>
       <c r="G196" s="10">
-        <f>LEN(D196)-LEN(SUBSTITUTE(D196,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H196" s="10">
-        <f>LEN(C196)-LEN(SUBSTITUTE(C196,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I196" s="6">
-        <f t="shared" ref="I196:I250" si="3">IF(H196&gt;G196, H196-G196, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I196:I250" si="11">IF(H196&gt;G196, H196-G196, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>467</v>
       </c>
@@ -9399,19 +9404,19 @@
         <v>852</v>
       </c>
       <c r="G197" s="9">
-        <f>LEN(D197)-LEN(SUBSTITUTE(D197,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H197" s="9">
-        <f>LEN(C197)-LEN(SUBSTITUTE(C197,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I197">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>468</v>
       </c>
@@ -9422,19 +9427,19 @@
         <v>661</v>
       </c>
       <c r="G198" s="10">
-        <f>LEN(D198)-LEN(SUBSTITUTE(D198,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H198" s="10">
-        <f>LEN(C198)-LEN(SUBSTITUTE(C198,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I198" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>469</v>
       </c>
@@ -9445,19 +9450,19 @@
         <v>662</v>
       </c>
       <c r="G199" s="10">
-        <f>LEN(D199)-LEN(SUBSTITUTE(D199,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H199" s="10">
-        <f>LEN(C199)-LEN(SUBSTITUTE(C199,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I199" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>470</v>
       </c>
@@ -9468,19 +9473,19 @@
         <v>791</v>
       </c>
       <c r="G200" s="9">
-        <f>LEN(D200)-LEN(SUBSTITUTE(D200,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H200" s="9">
-        <f>LEN(C200)-LEN(SUBSTITUTE(C200,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I200">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>471</v>
       </c>
@@ -9491,19 +9496,19 @@
         <v>664</v>
       </c>
       <c r="G201" s="10">
-        <f>LEN(D201)-LEN(SUBSTITUTE(D201,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H201" s="10">
-        <f>LEN(C201)-LEN(SUBSTITUTE(C201,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I201" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>472</v>
       </c>
@@ -9514,19 +9519,19 @@
         <v>853</v>
       </c>
       <c r="G202" s="9">
-        <f>LEN(D202)-LEN(SUBSTITUTE(D202,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <f>LEN(C202)-LEN(SUBSTITUTE(C202,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I202">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>473</v>
       </c>
@@ -9537,19 +9542,19 @@
         <v>854</v>
       </c>
       <c r="G203" s="9">
-        <f>LEN(D203)-LEN(SUBSTITUTE(D203,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H203" s="9">
-        <f>LEN(C203)-LEN(SUBSTITUTE(C203,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I203">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>474</v>
       </c>
@@ -9560,19 +9565,19 @@
         <v>855</v>
       </c>
       <c r="G204" s="9">
-        <f>LEN(D204)-LEN(SUBSTITUTE(D204,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H204" s="9">
-        <f>LEN(C204)-LEN(SUBSTITUTE(C204,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I204">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>475</v>
       </c>
@@ -9583,19 +9588,19 @@
         <v>856</v>
       </c>
       <c r="G205" s="9">
-        <f>LEN(D205)-LEN(SUBSTITUTE(D205,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H205" s="9">
-        <f>LEN(C205)-LEN(SUBSTITUTE(C205,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I205">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>476</v>
       </c>
@@ -9606,19 +9611,19 @@
         <v>857</v>
       </c>
       <c r="G206" s="9">
-        <f>LEN(D206)-LEN(SUBSTITUTE(D206,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H206" s="9">
-        <f>LEN(C206)-LEN(SUBSTITUTE(C206,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I206">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>477</v>
       </c>
@@ -9629,19 +9634,19 @@
         <v>858</v>
       </c>
       <c r="G207" s="9">
-        <f>LEN(D207)-LEN(SUBSTITUTE(D207,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H207" s="9">
-        <f>LEN(C207)-LEN(SUBSTITUTE(C207,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I207">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>478</v>
       </c>
@@ -9652,42 +9657,42 @@
         <v>859</v>
       </c>
       <c r="G208" s="9">
-        <f>LEN(D208)-LEN(SUBSTITUTE(D208,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H208" s="9">
-        <f>LEN(C208)-LEN(SUBSTITUTE(C208,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="G209" s="9">
-        <f>LEN(D209)-LEN(SUBSTITUTE(D209,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H209" s="9">
-        <f>LEN(C209)-LEN(SUBSTITUTE(C209,"?",""))</f>
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G209" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H209" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I209" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>480</v>
       </c>
@@ -9698,19 +9703,19 @@
         <v>861</v>
       </c>
       <c r="G210" s="9">
-        <f>LEN(D210)-LEN(SUBSTITUTE(D210,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H210" s="9">
-        <f>LEN(C210)-LEN(SUBSTITUTE(C210,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I210">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>481</v>
       </c>
@@ -9721,42 +9726,42 @@
         <v>862</v>
       </c>
       <c r="G211" s="9">
-        <f>LEN(D211)-LEN(SUBSTITUTE(D211,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H211" s="9">
-        <f>LEN(C211)-LEN(SUBSTITUTE(C211,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I211">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G212" s="9">
-        <f>LEN(D212)-LEN(SUBSTITUTE(D212,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="H212" s="9">
-        <f>LEN(C212)-LEN(SUBSTITUTE(C212,"?",""))</f>
-        <v>1</v>
-      </c>
-      <c r="I212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G212" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H212" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I212" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>483</v>
       </c>
@@ -9767,19 +9772,19 @@
         <v>863</v>
       </c>
       <c r="G213" s="9">
-        <f>LEN(D213)-LEN(SUBSTITUTE(D213,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H213" s="9">
-        <f>LEN(C213)-LEN(SUBSTITUTE(C213,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I213">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>484</v>
       </c>
@@ -9790,19 +9795,19 @@
         <v>864</v>
       </c>
       <c r="G214" s="9">
-        <f>LEN(D214)-LEN(SUBSTITUTE(D214,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H214" s="9">
-        <f>LEN(C214)-LEN(SUBSTITUTE(C214,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I214">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>485</v>
       </c>
@@ -9813,19 +9818,19 @@
         <v>676</v>
       </c>
       <c r="G215" s="10">
-        <f>LEN(D215)-LEN(SUBSTITUTE(D215,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H215" s="10">
-        <f>LEN(C215)-LEN(SUBSTITUTE(C215,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I215" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>486</v>
       </c>
@@ -9836,19 +9841,19 @@
         <v>8</v>
       </c>
       <c r="G216" s="10">
-        <f>LEN(D216)-LEN(SUBSTITUTE(D216,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H216" s="10">
-        <f>LEN(C216)-LEN(SUBSTITUTE(C216,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I216" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>471</v>
       </c>
@@ -9859,19 +9864,19 @@
         <v>664</v>
       </c>
       <c r="G217" s="10">
-        <f>LEN(D217)-LEN(SUBSTITUTE(D217,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H217" s="10">
-        <f>LEN(C217)-LEN(SUBSTITUTE(C217,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I217" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>487</v>
       </c>
@@ -9882,19 +9887,19 @@
         <v>865</v>
       </c>
       <c r="G218" s="9">
-        <f>LEN(D218)-LEN(SUBSTITUTE(D218,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H218" s="9">
-        <f>LEN(C218)-LEN(SUBSTITUTE(C218,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I218">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>488</v>
       </c>
@@ -9905,19 +9910,19 @@
         <v>737</v>
       </c>
       <c r="G219" s="9">
-        <f>LEN(D219)-LEN(SUBSTITUTE(D219,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H219" s="9">
-        <f>LEN(C219)-LEN(SUBSTITUTE(C219,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I219">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>489</v>
       </c>
@@ -9928,19 +9933,19 @@
         <v>866</v>
       </c>
       <c r="G220" s="9">
-        <f>LEN(D220)-LEN(SUBSTITUTE(D220,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H220" s="9">
-        <f>LEN(C220)-LEN(SUBSTITUTE(C220,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I220">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>150</v>
       </c>
@@ -9951,19 +9956,19 @@
         <v>867</v>
       </c>
       <c r="G221" s="10">
-        <f>LEN(D221)-LEN(SUBSTITUTE(D221,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H221" s="10">
-        <f>LEN(C221)-LEN(SUBSTITUTE(C221,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I221" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>199</v>
       </c>
@@ -9974,19 +9979,19 @@
         <v>868</v>
       </c>
       <c r="G222" s="9">
-        <f>LEN(D222)-LEN(SUBSTITUTE(D222,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H222" s="9">
-        <f>LEN(C222)-LEN(SUBSTITUTE(C222,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I222">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>200</v>
       </c>
@@ -9997,19 +10002,19 @@
         <v>869</v>
       </c>
       <c r="G223" s="9">
-        <f>LEN(D223)-LEN(SUBSTITUTE(D223,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H223" s="9">
-        <f>LEN(C223)-LEN(SUBSTITUTE(C223,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I223">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>490</v>
       </c>
@@ -10020,19 +10025,19 @@
         <v>680</v>
       </c>
       <c r="G224" s="9">
-        <f>LEN(D224)-LEN(SUBSTITUTE(D224,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H224" s="9">
-        <f>LEN(C224)-LEN(SUBSTITUTE(C224,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>491</v>
       </c>
@@ -10043,19 +10048,19 @@
         <v>870</v>
       </c>
       <c r="G225" s="9">
-        <f>LEN(D225)-LEN(SUBSTITUTE(D225,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H225" s="9">
-        <f>LEN(C225)-LEN(SUBSTITUTE(C225,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>492</v>
       </c>
@@ -10066,19 +10071,19 @@
         <v>682</v>
       </c>
       <c r="G226" s="9">
-        <f>LEN(D226)-LEN(SUBSTITUTE(D226,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H226" s="9">
-        <f>LEN(C226)-LEN(SUBSTITUTE(C226,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>493</v>
       </c>
@@ -10089,19 +10094,19 @@
         <v>871</v>
       </c>
       <c r="G227" s="9">
-        <f>LEN(D227)-LEN(SUBSTITUTE(D227,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H227" s="9">
-        <f>LEN(C227)-LEN(SUBSTITUTE(C227,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>171</v>
       </c>
@@ -10112,33 +10117,33 @@
         <v>872</v>
       </c>
       <c r="G228" s="9">
-        <f>LEN(D228)-LEN(SUBSTITUTE(D228,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H228" s="9">
-        <f>LEN(C228)-LEN(SUBSTITUTE(C228,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="G229" s="9">
-        <f>LEN(D229)-LEN(SUBSTITUTE(D229,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H229" s="9">
-        <f>LEN(C229)-LEN(SUBSTITUTE(C229,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>494</v>
       </c>
@@ -10149,19 +10154,19 @@
         <v>684</v>
       </c>
       <c r="G230" s="9">
-        <f>LEN(D230)-LEN(SUBSTITUTE(D230,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H230" s="9">
-        <f>LEN(C230)-LEN(SUBSTITUTE(C230,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>495</v>
       </c>
@@ -10172,19 +10177,19 @@
         <v>685</v>
       </c>
       <c r="G231" s="9">
-        <f>LEN(D231)-LEN(SUBSTITUTE(D231,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H231" s="9">
-        <f>LEN(C231)-LEN(SUBSTITUTE(C231,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -10195,19 +10200,19 @@
         <v>686</v>
       </c>
       <c r="G232" s="9">
-        <f>LEN(D232)-LEN(SUBSTITUTE(D232,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H232" s="9">
-        <f>LEN(C232)-LEN(SUBSTITUTE(C232,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>497</v>
       </c>
@@ -10218,19 +10223,19 @@
         <v>873</v>
       </c>
       <c r="G233" s="9">
-        <f>LEN(D233)-LEN(SUBSTITUTE(D233,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H233" s="9">
-        <f>LEN(C233)-LEN(SUBSTITUTE(C233,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>498</v>
       </c>
@@ -10241,19 +10246,19 @@
         <v>688</v>
       </c>
       <c r="G234" s="9">
-        <f>LEN(D234)-LEN(SUBSTITUTE(D234,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H234" s="9">
-        <f>LEN(C234)-LEN(SUBSTITUTE(C234,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -10264,19 +10269,19 @@
         <v>874</v>
       </c>
       <c r="G235" s="9">
-        <f>LEN(D235)-LEN(SUBSTITUTE(D235,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H235" s="9">
-        <f>LEN(C235)-LEN(SUBSTITUTE(C235,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>500</v>
       </c>
@@ -10287,19 +10292,19 @@
         <v>44</v>
       </c>
       <c r="G236" s="9">
-        <f>LEN(D236)-LEN(SUBSTITUTE(D236,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H236" s="9">
-        <f>LEN(C236)-LEN(SUBSTITUTE(C236,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>501</v>
       </c>
@@ -10310,19 +10315,19 @@
         <v>689</v>
       </c>
       <c r="G237" s="9">
-        <f>LEN(D237)-LEN(SUBSTITUTE(D237,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H237" s="9">
-        <f>LEN(C237)-LEN(SUBSTITUTE(C237,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>502</v>
       </c>
@@ -10333,19 +10338,19 @@
         <v>875</v>
       </c>
       <c r="G238" s="9">
-        <f>LEN(D238)-LEN(SUBSTITUTE(D238,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H238" s="9">
-        <f>LEN(C238)-LEN(SUBSTITUTE(C238,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>503</v>
       </c>
@@ -10356,19 +10361,19 @@
         <v>876</v>
       </c>
       <c r="G239" s="9">
-        <f>LEN(D239)-LEN(SUBSTITUTE(D239,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H239" s="9">
-        <f>LEN(C239)-LEN(SUBSTITUTE(C239,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>504</v>
       </c>
@@ -10379,19 +10384,19 @@
         <v>692</v>
       </c>
       <c r="G240" s="9">
-        <f>LEN(D240)-LEN(SUBSTITUTE(D240,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H240" s="9">
-        <f>LEN(C240)-LEN(SUBSTITUTE(C240,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>505</v>
       </c>
@@ -10402,19 +10407,19 @@
         <v>877</v>
       </c>
       <c r="G241" s="9">
-        <f>LEN(D241)-LEN(SUBSTITUTE(D241,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H241" s="9">
-        <f>LEN(C241)-LEN(SUBSTITUTE(C241,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>506</v>
       </c>
@@ -10425,19 +10430,19 @@
         <v>694</v>
       </c>
       <c r="G242" s="9">
-        <f>LEN(D242)-LEN(SUBSTITUTE(D242,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H242" s="9">
-        <f>LEN(C242)-LEN(SUBSTITUTE(C242,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>507</v>
       </c>
@@ -10448,19 +10453,19 @@
         <v>878</v>
       </c>
       <c r="G243" s="9">
-        <f>LEN(D243)-LEN(SUBSTITUTE(D243,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H243" s="9">
-        <f>LEN(C243)-LEN(SUBSTITUTE(C243,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>508</v>
       </c>
@@ -10471,19 +10476,19 @@
         <v>44</v>
       </c>
       <c r="G244" s="9">
-        <f>LEN(D244)-LEN(SUBSTITUTE(D244,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H244" s="9">
-        <f>LEN(C244)-LEN(SUBSTITUTE(C244,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>509</v>
       </c>
@@ -10494,19 +10499,19 @@
         <v>696</v>
       </c>
       <c r="G245" s="9">
-        <f>LEN(D245)-LEN(SUBSTITUTE(D245,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H245" s="9">
-        <f>LEN(C245)-LEN(SUBSTITUTE(C245,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>510</v>
       </c>
@@ -10517,19 +10522,19 @@
         <v>697</v>
       </c>
       <c r="G246" s="9">
-        <f>LEN(D246)-LEN(SUBSTITUTE(D246,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H246" s="9">
-        <f>LEN(C246)-LEN(SUBSTITUTE(C246,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>511</v>
       </c>
@@ -10540,19 +10545,19 @@
         <v>698</v>
       </c>
       <c r="G247" s="9">
-        <f>LEN(D247)-LEN(SUBSTITUTE(D247,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H247" s="9">
-        <f>LEN(C247)-LEN(SUBSTITUTE(C247,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>512</v>
       </c>
@@ -10563,19 +10568,19 @@
         <v>879</v>
       </c>
       <c r="G248" s="9">
-        <f>LEN(D248)-LEN(SUBSTITUTE(D248,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H248" s="9">
-        <f>LEN(C248)-LEN(SUBSTITUTE(C248,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>513</v>
       </c>
@@ -10586,19 +10591,19 @@
         <v>880</v>
       </c>
       <c r="G249" s="9">
-        <f>LEN(D249)-LEN(SUBSTITUTE(D249,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H249" s="9">
-        <f>LEN(C249)-LEN(SUBSTITUTE(C249,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>504</v>
       </c>
@@ -10609,19 +10614,19 @@
         <v>692</v>
       </c>
       <c r="G250" s="9">
-        <f>LEN(D250)-LEN(SUBSTITUTE(D250,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H250" s="9">
-        <f>LEN(C250)-LEN(SUBSTITUTE(C250,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I252" t="s">
         <v>883</v>
       </c>
@@ -10629,7 +10634,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F253" t="s">
         <v>226</v>
       </c>
@@ -10660,9 +10665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nicco Tags Analysis.xlsx
+++ b/Nicco Tags Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="37155" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3105,7 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4856,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J253"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,7 +4874,7 @@
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -4914,19 +4914,23 @@
         <v>514</v>
       </c>
       <c r="G2" s="9">
-        <f>LEN(D2)-LEN(SUBSTITUTE(D2,"?",""))</f>
+        <f t="shared" ref="G2:G65" si="0">LEN(D2)-LEN(SUBSTITUTE(D2,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <f>LEN(C2)-LEN(SUBSTITUTE(C2,"?",""))</f>
+        <f t="shared" ref="H2:H65" si="1">LEN(C2)-LEN(SUBSTITUTE(C2,"?",""))</f>
         <v>0</v>
       </c>
       <c r="I2">
         <f>IF(H2&gt;G2, H2-G2, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>COUNTIF(H:H,0)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -4937,11 +4941,11 @@
         <v>701</v>
       </c>
       <c r="G3" s="9">
-        <f>LEN(D3)-LEN(SUBSTITUTE(D3,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>LEN(C3)-LEN(SUBSTITUTE(C3,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I3">
@@ -4949,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -4960,19 +4964,19 @@
         <v>516</v>
       </c>
       <c r="G4" s="9">
-        <f>LEN(D4)-LEN(SUBSTITUTE(D4,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f>LEN(C4)-LEN(SUBSTITUTE(C4,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="0">IF(H4&gt;G4, H4-G4, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I67" si="2">IF(H4&gt;G4, H4-G4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>311</v>
       </c>
@@ -4983,19 +4987,19 @@
         <v>702</v>
       </c>
       <c r="G5" s="9">
-        <f>LEN(D5)-LEN(SUBSTITUTE(D5,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <f>LEN(C5)-LEN(SUBSTITUTE(C5,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -5006,19 +5010,19 @@
         <v>518</v>
       </c>
       <c r="G6" s="9">
-        <f>LEN(D6)-LEN(SUBSTITUTE(D6,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>LEN(C6)-LEN(SUBSTITUTE(C6,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -5029,19 +5033,19 @@
         <v>703</v>
       </c>
       <c r="G7" s="9">
-        <f>LEN(D7)-LEN(SUBSTITUTE(D7,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>LEN(C7)-LEN(SUBSTITUTE(C7,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -5052,19 +5056,19 @@
         <v>704</v>
       </c>
       <c r="G8" s="9">
-        <f>LEN(D8)-LEN(SUBSTITUTE(D8,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>LEN(C8)-LEN(SUBSTITUTE(C8,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -5075,19 +5079,19 @@
         <v>705</v>
       </c>
       <c r="G9" s="9">
-        <f>LEN(D9)-LEN(SUBSTITUTE(D9,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <f>LEN(C9)-LEN(SUBSTITUTE(C9,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>316</v>
       </c>
@@ -5098,19 +5102,19 @@
         <v>706</v>
       </c>
       <c r="G10" s="9">
-        <f>LEN(D10)-LEN(SUBSTITUTE(D10,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f>LEN(C10)-LEN(SUBSTITUTE(C10,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -5121,19 +5125,19 @@
         <v>522</v>
       </c>
       <c r="G11" s="9">
-        <f>LEN(D11)-LEN(SUBSTITUTE(D11,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>LEN(C11)-LEN(SUBSTITUTE(C11,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>318</v>
       </c>
@@ -5144,19 +5148,19 @@
         <v>523</v>
       </c>
       <c r="G12" s="9">
-        <f>LEN(D12)-LEN(SUBSTITUTE(D12,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f>LEN(C12)-LEN(SUBSTITUTE(C12,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>319</v>
       </c>
@@ -5167,19 +5171,19 @@
         <v>524</v>
       </c>
       <c r="G13" s="9">
-        <f>LEN(D13)-LEN(SUBSTITUTE(D13,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>LEN(C13)-LEN(SUBSTITUTE(C13,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>320</v>
       </c>
@@ -5190,19 +5194,19 @@
         <v>707</v>
       </c>
       <c r="G14" s="9">
-        <f>LEN(D14)-LEN(SUBSTITUTE(D14,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f>LEN(C14)-LEN(SUBSTITUTE(C14,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -5213,19 +5217,19 @@
         <v>708</v>
       </c>
       <c r="G15" s="9">
-        <f>LEN(D15)-LEN(SUBSTITUTE(D15,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f>LEN(C15)-LEN(SUBSTITUTE(C15,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>322</v>
       </c>
@@ -5236,15 +5240,15 @@
         <v>527</v>
       </c>
       <c r="G16" s="9">
-        <f>LEN(D16)-LEN(SUBSTITUTE(D16,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f>LEN(C16)-LEN(SUBSTITUTE(C16,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5259,15 +5263,15 @@
         <v>709</v>
       </c>
       <c r="G17" s="9">
-        <f>LEN(D17)-LEN(SUBSTITUTE(D17,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f>LEN(C17)-LEN(SUBSTITUTE(C17,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5282,15 +5286,15 @@
         <v>710</v>
       </c>
       <c r="G18" s="9">
-        <f>LEN(D18)-LEN(SUBSTITUTE(D18,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>LEN(C18)-LEN(SUBSTITUTE(C18,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5305,15 +5309,15 @@
         <v>6</v>
       </c>
       <c r="G19" s="9">
-        <f>LEN(D19)-LEN(SUBSTITUTE(D19,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f>LEN(C19)-LEN(SUBSTITUTE(C19,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5328,15 +5332,15 @@
         <v>18</v>
       </c>
       <c r="G20" s="9">
-        <f>LEN(D20)-LEN(SUBSTITUTE(D20,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f>LEN(C20)-LEN(SUBSTITUTE(C20,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,15 +5355,15 @@
         <v>711</v>
       </c>
       <c r="G21" s="9">
-        <f>LEN(D21)-LEN(SUBSTITUTE(D21,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f>LEN(C21)-LEN(SUBSTITUTE(C21,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5374,15 +5378,15 @@
         <v>109</v>
       </c>
       <c r="G22" s="9">
-        <f>LEN(D22)-LEN(SUBSTITUTE(D22,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <f>LEN(C22)-LEN(SUBSTITUTE(C22,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5397,15 +5401,15 @@
         <v>712</v>
       </c>
       <c r="G23" s="9">
-        <f>LEN(D23)-LEN(SUBSTITUTE(D23,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f>LEN(C23)-LEN(SUBSTITUTE(C23,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5420,15 +5424,15 @@
         <v>713</v>
       </c>
       <c r="G24" s="9">
-        <f>LEN(D24)-LEN(SUBSTITUTE(D24,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f>LEN(C24)-LEN(SUBSTITUTE(C24,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5443,15 +5447,15 @@
         <v>11</v>
       </c>
       <c r="G25" s="10">
-        <f>LEN(D25)-LEN(SUBSTITUTE(D25,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="10">
-        <f>LEN(C25)-LEN(SUBSTITUTE(C25,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5466,15 +5470,15 @@
         <v>714</v>
       </c>
       <c r="G26" s="9">
-        <f>LEN(D26)-LEN(SUBSTITUTE(D26,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="9">
-        <f>LEN(C26)-LEN(SUBSTITUTE(C26,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5489,15 +5493,15 @@
         <v>715</v>
       </c>
       <c r="G27" s="9">
-        <f>LEN(D27)-LEN(SUBSTITUTE(D27,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f>LEN(C27)-LEN(SUBSTITUTE(C27,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5512,15 +5516,15 @@
         <v>716</v>
       </c>
       <c r="G28" s="9">
-        <f>LEN(D28)-LEN(SUBSTITUTE(D28,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <f>LEN(C28)-LEN(SUBSTITUTE(C28,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5535,15 +5539,15 @@
         <v>42</v>
       </c>
       <c r="G29" s="9">
-        <f>LEN(D29)-LEN(SUBSTITUTE(D29,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="9">
-        <f>LEN(C29)-LEN(SUBSTITUTE(C29,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5558,15 +5562,15 @@
         <v>717</v>
       </c>
       <c r="G30" s="9">
-        <f>LEN(D30)-LEN(SUBSTITUTE(D30,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <f>LEN(C30)-LEN(SUBSTITUTE(C30,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5581,15 +5585,15 @@
         <v>535</v>
       </c>
       <c r="G31" s="9">
-        <f>LEN(D31)-LEN(SUBSTITUTE(D31,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f>LEN(C31)-LEN(SUBSTITUTE(C31,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5604,15 +5608,15 @@
         <v>718</v>
       </c>
       <c r="G32" s="9">
-        <f>LEN(D32)-LEN(SUBSTITUTE(D32,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <f>LEN(C32)-LEN(SUBSTITUTE(C32,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5627,15 +5631,15 @@
         <v>719</v>
       </c>
       <c r="G33" s="9">
-        <f>LEN(D33)-LEN(SUBSTITUTE(D33,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H33" s="9">
-        <f>LEN(C33)-LEN(SUBSTITUTE(C33,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5650,15 +5654,15 @@
         <v>720</v>
       </c>
       <c r="G34" s="9">
-        <f>LEN(D34)-LEN(SUBSTITUTE(D34,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <f>LEN(C34)-LEN(SUBSTITUTE(C34,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5673,15 +5677,15 @@
         <v>721</v>
       </c>
       <c r="G35" s="9">
-        <f>LEN(D35)-LEN(SUBSTITUTE(D35,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <f>LEN(C35)-LEN(SUBSTITUTE(C35,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5696,15 +5700,15 @@
         <v>722</v>
       </c>
       <c r="G36" s="9">
-        <f>LEN(D36)-LEN(SUBSTITUTE(D36,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <f>LEN(C36)-LEN(SUBSTITUTE(C36,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5719,15 +5723,15 @@
         <v>723</v>
       </c>
       <c r="G37" s="9">
-        <f>LEN(D37)-LEN(SUBSTITUTE(D37,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <f>LEN(C37)-LEN(SUBSTITUTE(C37,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5742,15 +5746,15 @@
         <v>724</v>
       </c>
       <c r="G38" s="9">
-        <f>LEN(D38)-LEN(SUBSTITUTE(D38,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <f>LEN(C38)-LEN(SUBSTITUTE(C38,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5765,15 +5769,15 @@
         <v>725</v>
       </c>
       <c r="G39" s="9">
-        <f>LEN(D39)-LEN(SUBSTITUTE(D39,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <f>LEN(C39)-LEN(SUBSTITUTE(C39,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5788,15 +5792,15 @@
         <v>726</v>
       </c>
       <c r="G40" s="9">
-        <f>LEN(D40)-LEN(SUBSTITUTE(D40,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <f>LEN(C40)-LEN(SUBSTITUTE(C40,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5811,15 +5815,15 @@
         <v>44</v>
       </c>
       <c r="G41" s="9">
-        <f>LEN(D41)-LEN(SUBSTITUTE(D41,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <f>LEN(C41)-LEN(SUBSTITUTE(C41,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5834,15 +5838,15 @@
         <v>727</v>
       </c>
       <c r="G42" s="9">
-        <f>LEN(D42)-LEN(SUBSTITUTE(D42,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <f>LEN(C42)-LEN(SUBSTITUTE(C42,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5857,15 +5861,15 @@
         <v>728</v>
       </c>
       <c r="G43" s="9">
-        <f>LEN(D43)-LEN(SUBSTITUTE(D43,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <f>LEN(C43)-LEN(SUBSTITUTE(C43,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5880,15 +5884,15 @@
         <v>33</v>
       </c>
       <c r="G44" s="9">
-        <f>LEN(D44)-LEN(SUBSTITUTE(D44,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <f>LEN(C44)-LEN(SUBSTITUTE(C44,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5903,15 +5907,15 @@
         <v>729</v>
       </c>
       <c r="G45" s="9">
-        <f>LEN(D45)-LEN(SUBSTITUTE(D45,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <f>LEN(C45)-LEN(SUBSTITUTE(C45,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5926,15 +5930,15 @@
         <v>730</v>
       </c>
       <c r="G46" s="9">
-        <f>LEN(D46)-LEN(SUBSTITUTE(D46,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <f>LEN(C46)-LEN(SUBSTITUTE(C46,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5949,15 +5953,15 @@
         <v>731</v>
       </c>
       <c r="G47" s="9">
-        <f>LEN(D47)-LEN(SUBSTITUTE(D47,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" s="9">
-        <f>LEN(C47)-LEN(SUBSTITUTE(C47,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5972,15 +5976,15 @@
         <v>732</v>
       </c>
       <c r="G48" s="9">
-        <f>LEN(D48)-LEN(SUBSTITUTE(D48,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <f>LEN(C48)-LEN(SUBSTITUTE(C48,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5995,15 +5999,15 @@
         <v>33</v>
       </c>
       <c r="G49" s="9">
-        <f>LEN(D49)-LEN(SUBSTITUTE(D49,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <f>LEN(C49)-LEN(SUBSTITUTE(C49,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6018,15 +6022,15 @@
         <v>552</v>
       </c>
       <c r="G50" s="10">
-        <f>LEN(D50)-LEN(SUBSTITUTE(D50,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H50" s="10">
-        <f>LEN(C50)-LEN(SUBSTITUTE(C50,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6041,15 +6045,15 @@
         <v>553</v>
       </c>
       <c r="G51" s="10">
-        <f>LEN(D51)-LEN(SUBSTITUTE(D51,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" s="10">
-        <f>LEN(C51)-LEN(SUBSTITUTE(C51,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6064,15 +6068,15 @@
         <v>733</v>
       </c>
       <c r="G52" s="9">
-        <f>LEN(D52)-LEN(SUBSTITUTE(D52,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <f>LEN(C52)-LEN(SUBSTITUTE(C52,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6087,15 +6091,15 @@
         <v>734</v>
       </c>
       <c r="G53" s="9">
-        <f>LEN(D53)-LEN(SUBSTITUTE(D53,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" s="9">
-        <f>LEN(C53)-LEN(SUBSTITUTE(C53,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6110,15 +6114,15 @@
         <v>735</v>
       </c>
       <c r="G54" s="9">
-        <f>LEN(D54)-LEN(SUBSTITUTE(D54,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" s="9">
-        <f>LEN(C54)-LEN(SUBSTITUTE(C54,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6133,15 +6137,15 @@
         <v>557</v>
       </c>
       <c r="G55" s="9">
-        <f>LEN(D55)-LEN(SUBSTITUTE(D55,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
-        <f>LEN(C55)-LEN(SUBSTITUTE(C55,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,15 +6160,15 @@
         <v>558</v>
       </c>
       <c r="G56" s="9">
-        <f>LEN(D56)-LEN(SUBSTITUTE(D56,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" s="9">
-        <f>LEN(C56)-LEN(SUBSTITUTE(C56,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,15 +6183,15 @@
         <v>736</v>
       </c>
       <c r="G57" s="9">
-        <f>LEN(D57)-LEN(SUBSTITUTE(D57,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57" s="9">
-        <f>LEN(C57)-LEN(SUBSTITUTE(C57,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6202,15 +6206,15 @@
         <v>737</v>
       </c>
       <c r="G58" s="9">
-        <f>LEN(D58)-LEN(SUBSTITUTE(D58,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H58" s="9">
-        <f>LEN(C58)-LEN(SUBSTITUTE(C58,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6225,15 +6229,15 @@
         <v>738</v>
       </c>
       <c r="G59" s="9">
-        <f>LEN(D59)-LEN(SUBSTITUTE(D59,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H59" s="9">
-        <f>LEN(C59)-LEN(SUBSTITUTE(C59,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6248,15 +6252,15 @@
         <v>739</v>
       </c>
       <c r="G60" s="9">
-        <f>LEN(D60)-LEN(SUBSTITUTE(D60,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H60" s="9">
-        <f>LEN(C60)-LEN(SUBSTITUTE(C60,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6271,15 +6275,15 @@
         <v>740</v>
       </c>
       <c r="G61" s="9">
-        <f>LEN(D61)-LEN(SUBSTITUTE(D61,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H61" s="9">
-        <f>LEN(C61)-LEN(SUBSTITUTE(C61,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6294,15 +6298,15 @@
         <v>741</v>
       </c>
       <c r="G62" s="9">
-        <f>LEN(D62)-LEN(SUBSTITUTE(D62,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H62" s="9">
-        <f>LEN(C62)-LEN(SUBSTITUTE(C62,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6317,15 +6321,15 @@
         <v>742</v>
       </c>
       <c r="G63" s="9">
-        <f>LEN(D63)-LEN(SUBSTITUTE(D63,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H63" s="9">
-        <f>LEN(C63)-LEN(SUBSTITUTE(C63,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6340,15 +6344,15 @@
         <v>39</v>
       </c>
       <c r="G64" s="9">
-        <f>LEN(D64)-LEN(SUBSTITUTE(D64,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H64" s="9">
-        <f>LEN(C64)-LEN(SUBSTITUTE(C64,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6363,15 +6367,15 @@
         <v>743</v>
       </c>
       <c r="G65" s="9">
-        <f>LEN(D65)-LEN(SUBSTITUTE(D65,"?",""))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <f>LEN(C65)-LEN(SUBSTITUTE(C65,"?",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6386,15 +6390,15 @@
         <v>744</v>
       </c>
       <c r="G66" s="9">
-        <f>LEN(D66)-LEN(SUBSTITUTE(D66,"?",""))</f>
+        <f t="shared" ref="G66:G129" si="3">LEN(D66)-LEN(SUBSTITUTE(D66,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <f>LEN(C66)-LEN(SUBSTITUTE(C66,"?",""))</f>
+        <f t="shared" ref="H66:H129" si="4">LEN(C66)-LEN(SUBSTITUTE(C66,"?",""))</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6409,15 +6413,15 @@
         <v>745</v>
       </c>
       <c r="G67" s="9">
-        <f>LEN(D67)-LEN(SUBSTITUTE(D67,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <f>LEN(C67)-LEN(SUBSTITUTE(C67,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6432,15 +6436,15 @@
         <v>746</v>
       </c>
       <c r="G68" s="9">
-        <f>LEN(D68)-LEN(SUBSTITUTE(D68,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="9">
-        <f>LEN(C68)-LEN(SUBSTITUTE(C68,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="1">IF(H68&gt;G68, H68-G68, 0)</f>
+        <f t="shared" ref="I68:I131" si="5">IF(H68&gt;G68, H68-G68, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6455,15 +6459,15 @@
         <v>33</v>
       </c>
       <c r="G69" s="9">
-        <f>LEN(D69)-LEN(SUBSTITUTE(D69,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" s="9">
-        <f>LEN(C69)-LEN(SUBSTITUTE(C69,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6478,15 +6482,15 @@
         <v>747</v>
       </c>
       <c r="G70" s="9">
-        <f>LEN(D70)-LEN(SUBSTITUTE(D70,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H70" s="9">
-        <f>LEN(C70)-LEN(SUBSTITUTE(C70,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6501,15 +6505,15 @@
         <v>33</v>
       </c>
       <c r="G71" s="9">
-        <f>LEN(D71)-LEN(SUBSTITUTE(D71,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <f>LEN(C71)-LEN(SUBSTITUTE(C71,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6524,15 +6528,15 @@
         <v>748</v>
       </c>
       <c r="G72" s="9">
-        <f>LEN(D72)-LEN(SUBSTITUTE(D72,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72" s="9">
-        <f>LEN(C72)-LEN(SUBSTITUTE(C72,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6547,15 +6551,15 @@
         <v>749</v>
       </c>
       <c r="G73" s="9">
-        <f>LEN(D73)-LEN(SUBSTITUTE(D73,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <f>LEN(C73)-LEN(SUBSTITUTE(C73,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6570,15 +6574,15 @@
         <v>750</v>
       </c>
       <c r="G74" s="9">
-        <f>LEN(D74)-LEN(SUBSTITUTE(D74,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="9">
-        <f>LEN(C74)-LEN(SUBSTITUTE(C74,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6593,15 +6597,15 @@
         <v>751</v>
       </c>
       <c r="G75" s="9">
-        <f>LEN(D75)-LEN(SUBSTITUTE(D75,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <f>LEN(C75)-LEN(SUBSTITUTE(C75,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6616,15 +6620,15 @@
         <v>752</v>
       </c>
       <c r="G76" s="9">
-        <f>LEN(D76)-LEN(SUBSTITUTE(D76,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="9">
-        <f>LEN(C76)-LEN(SUBSTITUTE(C76,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6639,15 +6643,15 @@
         <v>753</v>
       </c>
       <c r="G77" s="9">
-        <f>LEN(D77)-LEN(SUBSTITUTE(D77,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="9">
-        <f>LEN(C77)-LEN(SUBSTITUTE(C77,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6662,15 +6666,15 @@
         <v>754</v>
       </c>
       <c r="G78" s="9">
-        <f>LEN(D78)-LEN(SUBSTITUTE(D78,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <f>LEN(C78)-LEN(SUBSTITUTE(C78,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6685,15 +6689,15 @@
         <v>118</v>
       </c>
       <c r="G79" s="9">
-        <f>LEN(D79)-LEN(SUBSTITUTE(D79,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <f>LEN(C79)-LEN(SUBSTITUTE(C79,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6708,15 +6712,15 @@
         <v>755</v>
       </c>
       <c r="G80" s="9">
-        <f>LEN(D80)-LEN(SUBSTITUTE(D80,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <f>LEN(C80)-LEN(SUBSTITUTE(C80,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6731,15 +6735,15 @@
         <v>756</v>
       </c>
       <c r="G81" s="9">
-        <f>LEN(D81)-LEN(SUBSTITUTE(D81,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="9">
-        <f>LEN(C81)-LEN(SUBSTITUTE(C81,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6754,15 +6758,15 @@
         <v>231</v>
       </c>
       <c r="G82" s="9">
-        <f>LEN(D82)-LEN(SUBSTITUTE(D82,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H82" s="9">
-        <f>LEN(C82)-LEN(SUBSTITUTE(C82,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6777,15 +6781,15 @@
         <v>734</v>
       </c>
       <c r="G83" s="9">
-        <f>LEN(D83)-LEN(SUBSTITUTE(D83,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <f>LEN(C83)-LEN(SUBSTITUTE(C83,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6800,15 +6804,15 @@
         <v>757</v>
       </c>
       <c r="G84" s="9">
-        <f>LEN(D84)-LEN(SUBSTITUTE(D84,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="9">
-        <f>LEN(C84)-LEN(SUBSTITUTE(C84,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6823,15 +6827,15 @@
         <v>758</v>
       </c>
       <c r="G85" s="9">
-        <f>LEN(D85)-LEN(SUBSTITUTE(D85,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <f>LEN(C85)-LEN(SUBSTITUTE(C85,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6846,15 +6850,15 @@
         <v>759</v>
       </c>
       <c r="G86" s="9">
-        <f>LEN(D86)-LEN(SUBSTITUTE(D86,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <f>LEN(C86)-LEN(SUBSTITUTE(C86,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6869,15 +6873,15 @@
         <v>760</v>
       </c>
       <c r="G87" s="9">
-        <f>LEN(D87)-LEN(SUBSTITUTE(D87,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <f>LEN(C87)-LEN(SUBSTITUTE(C87,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6892,15 +6896,15 @@
         <v>761</v>
       </c>
       <c r="G88" s="9">
-        <f>LEN(D88)-LEN(SUBSTITUTE(D88,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <f>LEN(C88)-LEN(SUBSTITUTE(C88,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6915,15 +6919,15 @@
         <v>762</v>
       </c>
       <c r="G89" s="9">
-        <f>LEN(D89)-LEN(SUBSTITUTE(D89,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <f>LEN(C89)-LEN(SUBSTITUTE(C89,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6938,15 +6942,15 @@
         <v>763</v>
       </c>
       <c r="G90" s="9">
-        <f>LEN(D90)-LEN(SUBSTITUTE(D90,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="9">
-        <f>LEN(C90)-LEN(SUBSTITUTE(C90,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6961,15 +6965,15 @@
         <v>764</v>
       </c>
       <c r="G91" s="9">
-        <f>LEN(D91)-LEN(SUBSTITUTE(D91,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H91" s="9">
-        <f>LEN(C91)-LEN(SUBSTITUTE(C91,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6984,15 +6988,15 @@
         <v>765</v>
       </c>
       <c r="G92" s="9">
-        <f>LEN(D92)-LEN(SUBSTITUTE(D92,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="9">
-        <f>LEN(C92)-LEN(SUBSTITUTE(C92,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7007,15 +7011,15 @@
         <v>766</v>
       </c>
       <c r="G93" s="9">
-        <f>LEN(D93)-LEN(SUBSTITUTE(D93,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H93" s="9">
-        <f>LEN(C93)-LEN(SUBSTITUTE(C93,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7030,15 +7034,15 @@
         <v>767</v>
       </c>
       <c r="G94" s="9">
-        <f>LEN(D94)-LEN(SUBSTITUTE(D94,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H94" s="9">
-        <f>LEN(C94)-LEN(SUBSTITUTE(C94,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7053,15 +7057,15 @@
         <v>768</v>
       </c>
       <c r="G95" s="9">
-        <f>LEN(D95)-LEN(SUBSTITUTE(D95,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H95" s="9">
-        <f>LEN(C95)-LEN(SUBSTITUTE(C95,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7076,15 +7080,15 @@
         <v>769</v>
       </c>
       <c r="G96" s="9">
-        <f>LEN(D96)-LEN(SUBSTITUTE(D96,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <f>LEN(C96)-LEN(SUBSTITUTE(C96,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7099,15 +7103,15 @@
         <v>770</v>
       </c>
       <c r="G97" s="9">
-        <f>LEN(D97)-LEN(SUBSTITUTE(D97,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H97" s="9">
-        <f>LEN(C97)-LEN(SUBSTITUTE(C97,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7122,15 +7126,15 @@
         <v>771</v>
       </c>
       <c r="G98" s="9">
-        <f>LEN(D98)-LEN(SUBSTITUTE(D98,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <f>LEN(C98)-LEN(SUBSTITUTE(C98,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7145,15 +7149,15 @@
         <v>772</v>
       </c>
       <c r="G99" s="9">
-        <f>LEN(D99)-LEN(SUBSTITUTE(D99,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <f>LEN(C99)-LEN(SUBSTITUTE(C99,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7168,15 +7172,15 @@
         <v>773</v>
       </c>
       <c r="G100" s="9">
-        <f>LEN(D100)-LEN(SUBSTITUTE(D100,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H100" s="9">
-        <f>LEN(C100)-LEN(SUBSTITUTE(C100,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7191,15 +7195,15 @@
         <v>774</v>
       </c>
       <c r="G101" s="9">
-        <f>LEN(D101)-LEN(SUBSTITUTE(D101,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="9">
-        <f>LEN(C101)-LEN(SUBSTITUTE(C101,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7214,15 +7218,15 @@
         <v>775</v>
       </c>
       <c r="G102" s="9">
-        <f>LEN(D102)-LEN(SUBSTITUTE(D102,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="9">
-        <f>LEN(C102)-LEN(SUBSTITUTE(C102,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7237,15 +7241,15 @@
         <v>776</v>
       </c>
       <c r="G103" s="10">
-        <f>LEN(D103)-LEN(SUBSTITUTE(D103,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H103" s="10">
-        <f>LEN(C103)-LEN(SUBSTITUTE(C103,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7260,15 +7264,15 @@
         <v>777</v>
       </c>
       <c r="G104" s="9">
-        <f>LEN(D104)-LEN(SUBSTITUTE(D104,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H104" s="9">
-        <f>LEN(C104)-LEN(SUBSTITUTE(C104,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7283,15 +7287,15 @@
         <v>778</v>
       </c>
       <c r="G105" s="9">
-        <f>LEN(D105)-LEN(SUBSTITUTE(D105,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <f>LEN(C105)-LEN(SUBSTITUTE(C105,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7306,15 +7310,15 @@
         <v>779</v>
       </c>
       <c r="G106" s="9">
-        <f>LEN(D106)-LEN(SUBSTITUTE(D106,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H106" s="9">
-        <f>LEN(C106)-LEN(SUBSTITUTE(C106,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7329,15 +7333,15 @@
         <v>780</v>
       </c>
       <c r="G107" s="9">
-        <f>LEN(D107)-LEN(SUBSTITUTE(D107,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H107" s="9">
-        <f>LEN(C107)-LEN(SUBSTITUTE(C107,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7352,15 +7356,15 @@
         <v>781</v>
       </c>
       <c r="G108" s="9">
-        <f>LEN(D108)-LEN(SUBSTITUTE(D108,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H108" s="9">
-        <f>LEN(C108)-LEN(SUBSTITUTE(C108,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7375,15 +7379,15 @@
         <v>782</v>
       </c>
       <c r="G109" s="9">
-        <f>LEN(D109)-LEN(SUBSTITUTE(D109,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H109" s="9">
-        <f>LEN(C109)-LEN(SUBSTITUTE(C109,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7398,15 +7402,15 @@
         <v>783</v>
       </c>
       <c r="G110" s="9">
-        <f>LEN(D110)-LEN(SUBSTITUTE(D110,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H110" s="9">
-        <f>LEN(C110)-LEN(SUBSTITUTE(C110,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7421,15 +7425,15 @@
         <v>784</v>
       </c>
       <c r="G111" s="9">
-        <f>LEN(D111)-LEN(SUBSTITUTE(D111,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H111" s="9">
-        <f>LEN(C111)-LEN(SUBSTITUTE(C111,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7444,15 +7448,15 @@
         <v>785</v>
       </c>
       <c r="G112" s="9">
-        <f>LEN(D112)-LEN(SUBSTITUTE(D112,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H112" s="9">
-        <f>LEN(C112)-LEN(SUBSTITUTE(C112,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7467,15 +7471,15 @@
         <v>786</v>
       </c>
       <c r="G113" s="9">
-        <f>LEN(D113)-LEN(SUBSTITUTE(D113,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H113" s="9">
-        <f>LEN(C113)-LEN(SUBSTITUTE(C113,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7490,15 +7494,15 @@
         <v>112</v>
       </c>
       <c r="G114" s="9">
-        <f>LEN(D114)-LEN(SUBSTITUTE(D114,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H114" s="9">
-        <f>LEN(C114)-LEN(SUBSTITUTE(C114,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7513,15 +7517,15 @@
         <v>787</v>
       </c>
       <c r="G115" s="9">
-        <f>LEN(D115)-LEN(SUBSTITUTE(D115,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H115" s="9">
-        <f>LEN(C115)-LEN(SUBSTITUTE(C115,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7536,15 +7540,15 @@
         <v>788</v>
       </c>
       <c r="G116" s="9">
-        <f>LEN(D116)-LEN(SUBSTITUTE(D116,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H116" s="9">
-        <f>LEN(C116)-LEN(SUBSTITUTE(C116,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7559,15 +7563,15 @@
         <v>789</v>
       </c>
       <c r="G117" s="9">
-        <f>LEN(D117)-LEN(SUBSTITUTE(D117,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H117" s="9">
-        <f>LEN(C117)-LEN(SUBSTITUTE(C117,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7582,15 +7586,15 @@
         <v>790</v>
       </c>
       <c r="G118" s="9">
-        <f>LEN(D118)-LEN(SUBSTITUTE(D118,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H118" s="9">
-        <f>LEN(C118)-LEN(SUBSTITUTE(C118,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7605,15 +7609,15 @@
         <v>791</v>
       </c>
       <c r="G119" s="9">
-        <f>LEN(D119)-LEN(SUBSTITUTE(D119,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H119" s="9">
-        <f>LEN(C119)-LEN(SUBSTITUTE(C119,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7628,15 +7632,15 @@
         <v>792</v>
       </c>
       <c r="G120" s="9">
-        <f>LEN(D120)-LEN(SUBSTITUTE(D120,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H120" s="9">
-        <f>LEN(C120)-LEN(SUBSTITUTE(C120,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7651,15 +7655,15 @@
         <v>793</v>
       </c>
       <c r="G121" s="9">
-        <f>LEN(D121)-LEN(SUBSTITUTE(D121,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H121" s="9">
-        <f>LEN(C121)-LEN(SUBSTITUTE(C121,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7674,15 +7678,15 @@
         <v>794</v>
       </c>
       <c r="G122" s="9">
-        <f>LEN(D122)-LEN(SUBSTITUTE(D122,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H122" s="9">
-        <f>LEN(C122)-LEN(SUBSTITUTE(C122,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7697,15 +7701,15 @@
         <v>795</v>
       </c>
       <c r="G123" s="9">
-        <f>LEN(D123)-LEN(SUBSTITUTE(D123,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H123" s="9">
-        <f>LEN(C123)-LEN(SUBSTITUTE(C123,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7720,15 +7724,15 @@
         <v>735</v>
       </c>
       <c r="G124" s="9">
-        <f>LEN(D124)-LEN(SUBSTITUTE(D124,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H124" s="9">
-        <f>LEN(C124)-LEN(SUBSTITUTE(C124,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7743,15 +7747,15 @@
         <v>796</v>
       </c>
       <c r="G125" s="9">
-        <f>LEN(D125)-LEN(SUBSTITUTE(D125,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H125" s="9">
-        <f>LEN(C125)-LEN(SUBSTITUTE(C125,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7766,15 +7770,15 @@
         <v>609</v>
       </c>
       <c r="G126" s="10">
-        <f>LEN(D126)-LEN(SUBSTITUTE(D126,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H126" s="10">
-        <f>LEN(C126)-LEN(SUBSTITUTE(C126,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I126" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7789,15 +7793,15 @@
         <v>797</v>
       </c>
       <c r="G127" s="9">
-        <f>LEN(D127)-LEN(SUBSTITUTE(D127,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H127" s="9">
-        <f>LEN(C127)-LEN(SUBSTITUTE(C127,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7812,15 +7816,15 @@
         <v>798</v>
       </c>
       <c r="G128" s="9">
-        <f>LEN(D128)-LEN(SUBSTITUTE(D128,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H128" s="9">
-        <f>LEN(C128)-LEN(SUBSTITUTE(C128,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7835,15 +7839,15 @@
         <v>799</v>
       </c>
       <c r="G129" s="9">
-        <f>LEN(D129)-LEN(SUBSTITUTE(D129,"?",""))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H129" s="9">
-        <f>LEN(C129)-LEN(SUBSTITUTE(C129,"?",""))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7858,15 +7862,15 @@
         <v>800</v>
       </c>
       <c r="G130" s="9">
-        <f>LEN(D130)-LEN(SUBSTITUTE(D130,"?",""))</f>
+        <f t="shared" ref="G130:G193" si="6">LEN(D130)-LEN(SUBSTITUTE(D130,"?",""))</f>
         <v>0</v>
       </c>
       <c r="H130" s="9">
-        <f>LEN(C130)-LEN(SUBSTITUTE(C130,"?",""))</f>
+        <f t="shared" ref="H130:H193" si="7">LEN(C130)-LEN(SUBSTITUTE(C130,"?",""))</f>
         <v>1</v>
       </c>
       <c r="I130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7881,15 +7885,15 @@
         <v>801</v>
       </c>
       <c r="G131" s="9">
-        <f>LEN(D131)-LEN(SUBSTITUTE(D131,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H131" s="9">
-        <f>LEN(C131)-LEN(SUBSTITUTE(C131,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7904,15 +7908,15 @@
         <v>802</v>
       </c>
       <c r="G132" s="9">
-        <f>LEN(D132)-LEN(SUBSTITUTE(D132,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132" s="9">
-        <f>LEN(C132)-LEN(SUBSTITUTE(C132,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I195" si="2">IF(H132&gt;G132, H132-G132, 0)</f>
+        <f t="shared" ref="I132:I195" si="8">IF(H132&gt;G132, H132-G132, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7927,15 +7931,15 @@
         <v>803</v>
       </c>
       <c r="G133" s="9">
-        <f>LEN(D133)-LEN(SUBSTITUTE(D133,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133" s="9">
-        <f>LEN(C133)-LEN(SUBSTITUTE(C133,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7950,15 +7954,15 @@
         <v>804</v>
       </c>
       <c r="G134" s="9">
-        <f>LEN(D134)-LEN(SUBSTITUTE(D134,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134" s="9">
-        <f>LEN(C134)-LEN(SUBSTITUTE(C134,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7973,15 +7977,15 @@
         <v>790</v>
       </c>
       <c r="G135" s="9">
-        <f>LEN(D135)-LEN(SUBSTITUTE(D135,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135" s="9">
-        <f>LEN(C135)-LEN(SUBSTITUTE(C135,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7996,15 +8000,15 @@
         <v>805</v>
       </c>
       <c r="G136" s="9">
-        <f>LEN(D136)-LEN(SUBSTITUTE(D136,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136" s="9">
-        <f>LEN(C136)-LEN(SUBSTITUTE(C136,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8019,15 +8023,15 @@
         <v>806</v>
       </c>
       <c r="G137" s="9">
-        <f>LEN(D137)-LEN(SUBSTITUTE(D137,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137" s="9">
-        <f>LEN(C137)-LEN(SUBSTITUTE(C137,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8042,15 +8046,15 @@
         <v>807</v>
       </c>
       <c r="G138" s="9">
-        <f>LEN(D138)-LEN(SUBSTITUTE(D138,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138" s="9">
-        <f>LEN(C138)-LEN(SUBSTITUTE(C138,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8065,15 +8069,15 @@
         <v>808</v>
       </c>
       <c r="G139" s="9">
-        <f>LEN(D139)-LEN(SUBSTITUTE(D139,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139" s="9">
-        <f>LEN(C139)-LEN(SUBSTITUTE(C139,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8088,15 +8092,15 @@
         <v>809</v>
       </c>
       <c r="G140" s="9">
-        <f>LEN(D140)-LEN(SUBSTITUTE(D140,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140" s="9">
-        <f>LEN(C140)-LEN(SUBSTITUTE(C140,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8111,15 +8115,15 @@
         <v>810</v>
       </c>
       <c r="G141" s="9">
-        <f>LEN(D141)-LEN(SUBSTITUTE(D141,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141" s="9">
-        <f>LEN(C141)-LEN(SUBSTITUTE(C141,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8134,15 +8138,15 @@
         <v>811</v>
       </c>
       <c r="G142" s="9">
-        <f>LEN(D142)-LEN(SUBSTITUTE(D142,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142" s="9">
-        <f>LEN(C142)-LEN(SUBSTITUTE(C142,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8157,15 +8161,15 @@
         <v>812</v>
       </c>
       <c r="G143" s="9">
-        <f>LEN(D143)-LEN(SUBSTITUTE(D143,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143" s="9">
-        <f>LEN(C143)-LEN(SUBSTITUTE(C143,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8180,15 +8184,15 @@
         <v>813</v>
       </c>
       <c r="G144" s="9">
-        <f>LEN(D144)-LEN(SUBSTITUTE(D144,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144" s="9">
-        <f>LEN(C144)-LEN(SUBSTITUTE(C144,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8203,15 +8207,15 @@
         <v>814</v>
       </c>
       <c r="G145" s="9">
-        <f>LEN(D145)-LEN(SUBSTITUTE(D145,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145" s="9">
-        <f>LEN(C145)-LEN(SUBSTITUTE(C145,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8226,15 +8230,15 @@
         <v>815</v>
       </c>
       <c r="G146" s="9">
-        <f>LEN(D146)-LEN(SUBSTITUTE(D146,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146" s="9">
-        <f>LEN(C146)-LEN(SUBSTITUTE(C146,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8249,15 +8253,15 @@
         <v>622</v>
       </c>
       <c r="G147" s="9">
-        <f>LEN(D147)-LEN(SUBSTITUTE(D147,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147" s="9">
-        <f>LEN(C147)-LEN(SUBSTITUTE(C147,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8272,15 +8276,15 @@
         <v>816</v>
       </c>
       <c r="G148" s="9">
-        <f>LEN(D148)-LEN(SUBSTITUTE(D148,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H148" s="9">
-        <f>LEN(C148)-LEN(SUBSTITUTE(C148,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I148" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8295,15 +8299,15 @@
         <v>624</v>
       </c>
       <c r="G149" s="9">
-        <f>LEN(D149)-LEN(SUBSTITUTE(D149,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149" s="9">
-        <f>LEN(C149)-LEN(SUBSTITUTE(C149,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8318,15 +8322,15 @@
         <v>19</v>
       </c>
       <c r="G150" s="9">
-        <f>LEN(D150)-LEN(SUBSTITUTE(D150,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150" s="9">
-        <f>LEN(C150)-LEN(SUBSTITUTE(C150,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8341,15 +8345,15 @@
         <v>817</v>
       </c>
       <c r="G151" s="9">
-        <f>LEN(D151)-LEN(SUBSTITUTE(D151,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151" s="9">
-        <f>LEN(C151)-LEN(SUBSTITUTE(C151,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8364,15 +8368,15 @@
         <v>818</v>
       </c>
       <c r="G152" s="9">
-        <f>LEN(D152)-LEN(SUBSTITUTE(D152,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152" s="9">
-        <f>LEN(C152)-LEN(SUBSTITUTE(C152,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8387,15 +8391,15 @@
         <v>626</v>
       </c>
       <c r="G153" s="9">
-        <f>LEN(D153)-LEN(SUBSTITUTE(D153,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153" s="9">
-        <f>LEN(C153)-LEN(SUBSTITUTE(C153,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8410,15 +8414,15 @@
         <v>627</v>
       </c>
       <c r="G154" s="9">
-        <f>LEN(D154)-LEN(SUBSTITUTE(D154,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H154" s="9">
-        <f>LEN(C154)-LEN(SUBSTITUTE(C154,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8433,15 +8437,15 @@
         <v>819</v>
       </c>
       <c r="G155" s="9">
-        <f>LEN(D155)-LEN(SUBSTITUTE(D155,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155" s="9">
-        <f>LEN(C155)-LEN(SUBSTITUTE(C155,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8456,15 +8460,15 @@
         <v>629</v>
       </c>
       <c r="G156" s="9">
-        <f>LEN(D156)-LEN(SUBSTITUTE(D156,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156" s="9">
-        <f>LEN(C156)-LEN(SUBSTITUTE(C156,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8479,15 +8483,15 @@
         <v>630</v>
       </c>
       <c r="G157" s="9">
-        <f>LEN(D157)-LEN(SUBSTITUTE(D157,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="9">
-        <f>LEN(C157)-LEN(SUBSTITUTE(C157,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8502,15 +8506,15 @@
         <v>820</v>
       </c>
       <c r="G158" s="10">
-        <f>LEN(D158)-LEN(SUBSTITUTE(D158,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H158" s="10">
-        <f>LEN(C158)-LEN(SUBSTITUTE(C158,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I158" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8525,15 +8529,15 @@
         <v>821</v>
       </c>
       <c r="G159" s="9">
-        <f>LEN(D159)-LEN(SUBSTITUTE(D159,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H159" s="9">
-        <f>LEN(C159)-LEN(SUBSTITUTE(C159,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8548,15 +8552,15 @@
         <v>822</v>
       </c>
       <c r="G160" s="9">
-        <f>LEN(D160)-LEN(SUBSTITUTE(D160,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="9">
-        <f>LEN(C160)-LEN(SUBSTITUTE(C160,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -8571,15 +8575,15 @@
         <v>634</v>
       </c>
       <c r="G161" s="9">
-        <f>LEN(D161)-LEN(SUBSTITUTE(D161,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161" s="9">
-        <f>LEN(C161)-LEN(SUBSTITUTE(C161,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8594,15 +8598,15 @@
         <v>823</v>
       </c>
       <c r="G162" s="9">
-        <f>LEN(D162)-LEN(SUBSTITUTE(D162,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162" s="9">
-        <f>LEN(C162)-LEN(SUBSTITUTE(C162,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8617,15 +8621,15 @@
         <v>636</v>
       </c>
       <c r="G163" s="9">
-        <f>LEN(D163)-LEN(SUBSTITUTE(D163,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163" s="9">
-        <f>LEN(C163)-LEN(SUBSTITUTE(C163,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8640,15 +8644,15 @@
         <v>824</v>
       </c>
       <c r="G164" s="9">
-        <f>LEN(D164)-LEN(SUBSTITUTE(D164,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164" s="9">
-        <f>LEN(C164)-LEN(SUBSTITUTE(C164,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8663,15 +8667,15 @@
         <v>825</v>
       </c>
       <c r="G165" s="9">
-        <f>LEN(D165)-LEN(SUBSTITUTE(D165,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165" s="9">
-        <f>LEN(C165)-LEN(SUBSTITUTE(C165,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8686,15 +8690,15 @@
         <v>826</v>
       </c>
       <c r="G166" s="9">
-        <f>LEN(D166)-LEN(SUBSTITUTE(D166,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166" s="9">
-        <f>LEN(C166)-LEN(SUBSTITUTE(C166,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8709,15 +8713,15 @@
         <v>827</v>
       </c>
       <c r="G167" s="9">
-        <f>LEN(D167)-LEN(SUBSTITUTE(D167,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167" s="9">
-        <f>LEN(C167)-LEN(SUBSTITUTE(C167,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,15 +8736,15 @@
         <v>828</v>
       </c>
       <c r="G168" s="9">
-        <f>LEN(D168)-LEN(SUBSTITUTE(D168,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168" s="9">
-        <f>LEN(C168)-LEN(SUBSTITUTE(C168,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -8755,15 +8759,15 @@
         <v>829</v>
       </c>
       <c r="G169" s="10">
-        <f>LEN(D169)-LEN(SUBSTITUTE(D169,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H169" s="10">
-        <f>LEN(C169)-LEN(SUBSTITUTE(C169,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I169" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8778,15 +8782,15 @@
         <v>830</v>
       </c>
       <c r="G170" s="9">
-        <f>LEN(D170)-LEN(SUBSTITUTE(D170,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H170" s="9">
-        <f>LEN(C170)-LEN(SUBSTITUTE(C170,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8801,15 +8805,15 @@
         <v>831</v>
       </c>
       <c r="G171" s="9">
-        <f>LEN(D171)-LEN(SUBSTITUTE(D171,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171" s="9">
-        <f>LEN(C171)-LEN(SUBSTITUTE(C171,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8824,15 +8828,15 @@
         <v>832</v>
       </c>
       <c r="G172" s="9">
-        <f>LEN(D172)-LEN(SUBSTITUTE(D172,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172" s="9">
-        <f>LEN(C172)-LEN(SUBSTITUTE(C172,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8847,15 +8851,15 @@
         <v>833</v>
       </c>
       <c r="G173" s="9">
-        <f>LEN(D173)-LEN(SUBSTITUTE(D173,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173" s="9">
-        <f>LEN(C173)-LEN(SUBSTITUTE(C173,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -8870,15 +8874,15 @@
         <v>834</v>
       </c>
       <c r="G174" s="9">
-        <f>LEN(D174)-LEN(SUBSTITUTE(D174,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174" s="9">
-        <f>LEN(C174)-LEN(SUBSTITUTE(C174,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8893,15 +8897,15 @@
         <v>20</v>
       </c>
       <c r="G175" s="10">
-        <f>LEN(D175)-LEN(SUBSTITUTE(D175,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H175" s="10">
-        <f>LEN(C175)-LEN(SUBSTITUTE(C175,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I175" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8916,15 +8920,15 @@
         <v>648</v>
       </c>
       <c r="G176" s="9">
-        <f>LEN(D176)-LEN(SUBSTITUTE(D176,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176" s="9">
-        <f>LEN(C176)-LEN(SUBSTITUTE(C176,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8939,15 +8943,15 @@
         <v>835</v>
       </c>
       <c r="G177" s="9">
-        <f>LEN(D177)-LEN(SUBSTITUTE(D177,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177" s="9">
-        <f>LEN(C177)-LEN(SUBSTITUTE(C177,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8962,15 +8966,15 @@
         <v>836</v>
       </c>
       <c r="G178" s="9">
-        <f>LEN(D178)-LEN(SUBSTITUTE(D178,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178" s="9">
-        <f>LEN(C178)-LEN(SUBSTITUTE(C178,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -8985,15 +8989,15 @@
         <v>837</v>
       </c>
       <c r="G179" s="9">
-        <f>LEN(D179)-LEN(SUBSTITUTE(D179,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179" s="9">
-        <f>LEN(C179)-LEN(SUBSTITUTE(C179,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9008,15 +9012,15 @@
         <v>838</v>
       </c>
       <c r="G180" s="9">
-        <f>LEN(D180)-LEN(SUBSTITUTE(D180,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180" s="9">
-        <f>LEN(C180)-LEN(SUBSTITUTE(C180,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9031,15 +9035,15 @@
         <v>839</v>
       </c>
       <c r="G181" s="10">
-        <f>LEN(D181)-LEN(SUBSTITUTE(D181,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H181" s="10">
-        <f>LEN(C181)-LEN(SUBSTITUTE(C181,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I181" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9054,15 +9058,15 @@
         <v>840</v>
       </c>
       <c r="G182" s="10">
-        <f>LEN(D182)-LEN(SUBSTITUTE(D182,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H182" s="10">
-        <f>LEN(C182)-LEN(SUBSTITUTE(C182,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I182" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9077,15 +9081,15 @@
         <v>841</v>
       </c>
       <c r="G183" s="9">
-        <f>LEN(D183)-LEN(SUBSTITUTE(D183,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183" s="9">
-        <f>LEN(C183)-LEN(SUBSTITUTE(C183,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9100,15 +9104,15 @@
         <v>842</v>
       </c>
       <c r="G184" s="9">
-        <f>LEN(D184)-LEN(SUBSTITUTE(D184,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184" s="9">
-        <f>LEN(C184)-LEN(SUBSTITUTE(C184,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9123,15 +9127,15 @@
         <v>843</v>
       </c>
       <c r="G185" s="9">
-        <f>LEN(D185)-LEN(SUBSTITUTE(D185,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H185" s="9">
-        <f>LEN(C185)-LEN(SUBSTITUTE(C185,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9146,15 +9150,15 @@
         <v>844</v>
       </c>
       <c r="G186" s="9">
-        <f>LEN(D186)-LEN(SUBSTITUTE(D186,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186" s="9">
-        <f>LEN(C186)-LEN(SUBSTITUTE(C186,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9169,15 +9173,15 @@
         <v>845</v>
       </c>
       <c r="G187" s="9">
-        <f>LEN(D187)-LEN(SUBSTITUTE(D187,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187" s="9">
-        <f>LEN(C187)-LEN(SUBSTITUTE(C187,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9192,15 +9196,15 @@
         <v>22</v>
       </c>
       <c r="G188" s="9">
-        <f>LEN(D188)-LEN(SUBSTITUTE(D188,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188" s="9">
-        <f>LEN(C188)-LEN(SUBSTITUTE(C188,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9215,15 +9219,15 @@
         <v>846</v>
       </c>
       <c r="G189" s="9">
-        <f>LEN(D189)-LEN(SUBSTITUTE(D189,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H189" s="9">
-        <f>LEN(C189)-LEN(SUBSTITUTE(C189,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9238,15 +9242,15 @@
         <v>847</v>
       </c>
       <c r="G190" s="9">
-        <f>LEN(D190)-LEN(SUBSTITUTE(D190,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190" s="9">
-        <f>LEN(C190)-LEN(SUBSTITUTE(C190,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9261,15 +9265,15 @@
         <v>848</v>
       </c>
       <c r="G191" s="9">
-        <f>LEN(D191)-LEN(SUBSTITUTE(D191,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H191" s="9">
-        <f>LEN(C191)-LEN(SUBSTITUTE(C191,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9284,15 +9288,15 @@
         <v>636</v>
       </c>
       <c r="G192" s="9">
-        <f>LEN(D192)-LEN(SUBSTITUTE(D192,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <f>LEN(C192)-LEN(SUBSTITUTE(C192,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9307,15 +9311,15 @@
         <v>791</v>
       </c>
       <c r="G193" s="9">
-        <f>LEN(D193)-LEN(SUBSTITUTE(D193,"?",""))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H193" s="9">
-        <f>LEN(C193)-LEN(SUBSTITUTE(C193,"?",""))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9330,15 +9334,15 @@
         <v>849</v>
       </c>
       <c r="G194" s="10">
-        <f>LEN(D194)-LEN(SUBSTITUTE(D194,"?",""))</f>
+        <f t="shared" ref="G194:G250" si="9">LEN(D194)-LEN(SUBSTITUTE(D194,"?",""))</f>
         <v>1</v>
       </c>
       <c r="H194" s="10">
-        <f>LEN(C194)-LEN(SUBSTITUTE(C194,"?",""))</f>
+        <f t="shared" ref="H194:H250" si="10">LEN(C194)-LEN(SUBSTITUTE(C194,"?",""))</f>
         <v>1</v>
       </c>
       <c r="I194" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9353,15 +9357,15 @@
         <v>850</v>
       </c>
       <c r="G195" s="10">
-        <f>LEN(D195)-LEN(SUBSTITUTE(D195,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H195" s="10">
-        <f>LEN(C195)-LEN(SUBSTITUTE(C195,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I195" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9376,15 +9380,15 @@
         <v>851</v>
       </c>
       <c r="G196" s="10">
-        <f>LEN(D196)-LEN(SUBSTITUTE(D196,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H196" s="10">
-        <f>LEN(C196)-LEN(SUBSTITUTE(C196,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I196" s="6">
-        <f t="shared" ref="I196:I250" si="3">IF(H196&gt;G196, H196-G196, 0)</f>
+        <f t="shared" ref="I196:I250" si="11">IF(H196&gt;G196, H196-G196, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9399,15 +9403,15 @@
         <v>852</v>
       </c>
       <c r="G197" s="9">
-        <f>LEN(D197)-LEN(SUBSTITUTE(D197,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H197" s="9">
-        <f>LEN(C197)-LEN(SUBSTITUTE(C197,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9422,15 +9426,15 @@
         <v>661</v>
       </c>
       <c r="G198" s="10">
-        <f>LEN(D198)-LEN(SUBSTITUTE(D198,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H198" s="10">
-        <f>LEN(C198)-LEN(SUBSTITUTE(C198,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I198" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9445,15 +9449,15 @@
         <v>662</v>
       </c>
       <c r="G199" s="10">
-        <f>LEN(D199)-LEN(SUBSTITUTE(D199,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H199" s="10">
-        <f>LEN(C199)-LEN(SUBSTITUTE(C199,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I199" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9468,15 +9472,15 @@
         <v>791</v>
       </c>
       <c r="G200" s="9">
-        <f>LEN(D200)-LEN(SUBSTITUTE(D200,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H200" s="9">
-        <f>LEN(C200)-LEN(SUBSTITUTE(C200,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9491,15 +9495,15 @@
         <v>664</v>
       </c>
       <c r="G201" s="10">
-        <f>LEN(D201)-LEN(SUBSTITUTE(D201,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H201" s="10">
-        <f>LEN(C201)-LEN(SUBSTITUTE(C201,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I201" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9514,15 +9518,15 @@
         <v>853</v>
       </c>
       <c r="G202" s="9">
-        <f>LEN(D202)-LEN(SUBSTITUTE(D202,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <f>LEN(C202)-LEN(SUBSTITUTE(C202,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9537,15 +9541,15 @@
         <v>854</v>
       </c>
       <c r="G203" s="9">
-        <f>LEN(D203)-LEN(SUBSTITUTE(D203,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H203" s="9">
-        <f>LEN(C203)-LEN(SUBSTITUTE(C203,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9560,15 +9564,15 @@
         <v>855</v>
       </c>
       <c r="G204" s="9">
-        <f>LEN(D204)-LEN(SUBSTITUTE(D204,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H204" s="9">
-        <f>LEN(C204)-LEN(SUBSTITUTE(C204,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9583,15 +9587,15 @@
         <v>856</v>
       </c>
       <c r="G205" s="9">
-        <f>LEN(D205)-LEN(SUBSTITUTE(D205,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H205" s="9">
-        <f>LEN(C205)-LEN(SUBSTITUTE(C205,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9606,15 +9610,15 @@
         <v>857</v>
       </c>
       <c r="G206" s="9">
-        <f>LEN(D206)-LEN(SUBSTITUTE(D206,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H206" s="9">
-        <f>LEN(C206)-LEN(SUBSTITUTE(C206,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9629,15 +9633,15 @@
         <v>858</v>
       </c>
       <c r="G207" s="9">
-        <f>LEN(D207)-LEN(SUBSTITUTE(D207,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H207" s="9">
-        <f>LEN(C207)-LEN(SUBSTITUTE(C207,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9652,15 +9656,15 @@
         <v>859</v>
       </c>
       <c r="G208" s="9">
-        <f>LEN(D208)-LEN(SUBSTITUTE(D208,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H208" s="9">
-        <f>LEN(C208)-LEN(SUBSTITUTE(C208,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9675,15 +9679,15 @@
         <v>860</v>
       </c>
       <c r="G209" s="9">
-        <f>LEN(D209)-LEN(SUBSTITUTE(D209,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H209" s="9">
-        <f>LEN(C209)-LEN(SUBSTITUTE(C209,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9698,15 +9702,15 @@
         <v>861</v>
       </c>
       <c r="G210" s="9">
-        <f>LEN(D210)-LEN(SUBSTITUTE(D210,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H210" s="9">
-        <f>LEN(C210)-LEN(SUBSTITUTE(C210,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9721,15 +9725,15 @@
         <v>862</v>
       </c>
       <c r="G211" s="9">
-        <f>LEN(D211)-LEN(SUBSTITUTE(D211,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H211" s="9">
-        <f>LEN(C211)-LEN(SUBSTITUTE(C211,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9744,15 +9748,15 @@
         <v>662</v>
       </c>
       <c r="G212" s="9">
-        <f>LEN(D212)-LEN(SUBSTITUTE(D212,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H212" s="9">
-        <f>LEN(C212)-LEN(SUBSTITUTE(C212,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9767,15 +9771,15 @@
         <v>863</v>
       </c>
       <c r="G213" s="9">
-        <f>LEN(D213)-LEN(SUBSTITUTE(D213,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H213" s="9">
-        <f>LEN(C213)-LEN(SUBSTITUTE(C213,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9790,15 +9794,15 @@
         <v>864</v>
       </c>
       <c r="G214" s="9">
-        <f>LEN(D214)-LEN(SUBSTITUTE(D214,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H214" s="9">
-        <f>LEN(C214)-LEN(SUBSTITUTE(C214,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9813,15 +9817,15 @@
         <v>676</v>
       </c>
       <c r="G215" s="10">
-        <f>LEN(D215)-LEN(SUBSTITUTE(D215,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H215" s="10">
-        <f>LEN(C215)-LEN(SUBSTITUTE(C215,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I215" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9836,15 +9840,15 @@
         <v>8</v>
       </c>
       <c r="G216" s="10">
-        <f>LEN(D216)-LEN(SUBSTITUTE(D216,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H216" s="10">
-        <f>LEN(C216)-LEN(SUBSTITUTE(C216,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I216" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9859,15 +9863,15 @@
         <v>664</v>
       </c>
       <c r="G217" s="10">
-        <f>LEN(D217)-LEN(SUBSTITUTE(D217,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H217" s="10">
-        <f>LEN(C217)-LEN(SUBSTITUTE(C217,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I217" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9882,15 +9886,15 @@
         <v>865</v>
       </c>
       <c r="G218" s="9">
-        <f>LEN(D218)-LEN(SUBSTITUTE(D218,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H218" s="9">
-        <f>LEN(C218)-LEN(SUBSTITUTE(C218,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9905,15 +9909,15 @@
         <v>737</v>
       </c>
       <c r="G219" s="9">
-        <f>LEN(D219)-LEN(SUBSTITUTE(D219,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H219" s="9">
-        <f>LEN(C219)-LEN(SUBSTITUTE(C219,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9928,15 +9932,15 @@
         <v>866</v>
       </c>
       <c r="G220" s="9">
-        <f>LEN(D220)-LEN(SUBSTITUTE(D220,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H220" s="9">
-        <f>LEN(C220)-LEN(SUBSTITUTE(C220,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9951,15 +9955,15 @@
         <v>867</v>
       </c>
       <c r="G221" s="10">
-        <f>LEN(D221)-LEN(SUBSTITUTE(D221,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H221" s="10">
-        <f>LEN(C221)-LEN(SUBSTITUTE(C221,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I221" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9974,15 +9978,15 @@
         <v>868</v>
       </c>
       <c r="G222" s="9">
-        <f>LEN(D222)-LEN(SUBSTITUTE(D222,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H222" s="9">
-        <f>LEN(C222)-LEN(SUBSTITUTE(C222,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9997,15 +10001,15 @@
         <v>869</v>
       </c>
       <c r="G223" s="9">
-        <f>LEN(D223)-LEN(SUBSTITUTE(D223,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H223" s="9">
-        <f>LEN(C223)-LEN(SUBSTITUTE(C223,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -10020,15 +10024,15 @@
         <v>680</v>
       </c>
       <c r="G224" s="9">
-        <f>LEN(D224)-LEN(SUBSTITUTE(D224,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H224" s="9">
-        <f>LEN(C224)-LEN(SUBSTITUTE(C224,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10043,15 +10047,15 @@
         <v>870</v>
       </c>
       <c r="G225" s="9">
-        <f>LEN(D225)-LEN(SUBSTITUTE(D225,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H225" s="9">
-        <f>LEN(C225)-LEN(SUBSTITUTE(C225,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10066,15 +10070,15 @@
         <v>682</v>
       </c>
       <c r="G226" s="9">
-        <f>LEN(D226)-LEN(SUBSTITUTE(D226,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H226" s="9">
-        <f>LEN(C226)-LEN(SUBSTITUTE(C226,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10089,15 +10093,15 @@
         <v>871</v>
       </c>
       <c r="G227" s="9">
-        <f>LEN(D227)-LEN(SUBSTITUTE(D227,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H227" s="9">
-        <f>LEN(C227)-LEN(SUBSTITUTE(C227,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,29 +10116,29 @@
         <v>872</v>
       </c>
       <c r="G228" s="9">
-        <f>LEN(D228)-LEN(SUBSTITUTE(D228,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H228" s="9">
-        <f>LEN(C228)-LEN(SUBSTITUTE(C228,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G229" s="9">
-        <f>LEN(D229)-LEN(SUBSTITUTE(D229,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H229" s="9">
-        <f>LEN(C229)-LEN(SUBSTITUTE(C229,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10149,15 +10153,15 @@
         <v>684</v>
       </c>
       <c r="G230" s="9">
-        <f>LEN(D230)-LEN(SUBSTITUTE(D230,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H230" s="9">
-        <f>LEN(C230)-LEN(SUBSTITUTE(C230,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10172,15 +10176,15 @@
         <v>685</v>
       </c>
       <c r="G231" s="9">
-        <f>LEN(D231)-LEN(SUBSTITUTE(D231,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H231" s="9">
-        <f>LEN(C231)-LEN(SUBSTITUTE(C231,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10195,15 +10199,15 @@
         <v>686</v>
       </c>
       <c r="G232" s="9">
-        <f>LEN(D232)-LEN(SUBSTITUTE(D232,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H232" s="9">
-        <f>LEN(C232)-LEN(SUBSTITUTE(C232,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10218,15 +10222,15 @@
         <v>873</v>
       </c>
       <c r="G233" s="9">
-        <f>LEN(D233)-LEN(SUBSTITUTE(D233,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H233" s="9">
-        <f>LEN(C233)-LEN(SUBSTITUTE(C233,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10241,15 +10245,15 @@
         <v>688</v>
       </c>
       <c r="G234" s="9">
-        <f>LEN(D234)-LEN(SUBSTITUTE(D234,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H234" s="9">
-        <f>LEN(C234)-LEN(SUBSTITUTE(C234,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10264,15 +10268,15 @@
         <v>874</v>
       </c>
       <c r="G235" s="9">
-        <f>LEN(D235)-LEN(SUBSTITUTE(D235,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H235" s="9">
-        <f>LEN(C235)-LEN(SUBSTITUTE(C235,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10287,15 +10291,15 @@
         <v>44</v>
       </c>
       <c r="G236" s="9">
-        <f>LEN(D236)-LEN(SUBSTITUTE(D236,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H236" s="9">
-        <f>LEN(C236)-LEN(SUBSTITUTE(C236,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10310,15 +10314,15 @@
         <v>689</v>
       </c>
       <c r="G237" s="9">
-        <f>LEN(D237)-LEN(SUBSTITUTE(D237,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H237" s="9">
-        <f>LEN(C237)-LEN(SUBSTITUTE(C237,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10333,15 +10337,15 @@
         <v>875</v>
       </c>
       <c r="G238" s="9">
-        <f>LEN(D238)-LEN(SUBSTITUTE(D238,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H238" s="9">
-        <f>LEN(C238)-LEN(SUBSTITUTE(C238,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10356,15 +10360,15 @@
         <v>876</v>
       </c>
       <c r="G239" s="9">
-        <f>LEN(D239)-LEN(SUBSTITUTE(D239,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H239" s="9">
-        <f>LEN(C239)-LEN(SUBSTITUTE(C239,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10379,15 +10383,15 @@
         <v>692</v>
       </c>
       <c r="G240" s="9">
-        <f>LEN(D240)-LEN(SUBSTITUTE(D240,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H240" s="9">
-        <f>LEN(C240)-LEN(SUBSTITUTE(C240,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10402,15 +10406,15 @@
         <v>877</v>
       </c>
       <c r="G241" s="9">
-        <f>LEN(D241)-LEN(SUBSTITUTE(D241,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H241" s="9">
-        <f>LEN(C241)-LEN(SUBSTITUTE(C241,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10425,15 +10429,15 @@
         <v>694</v>
       </c>
       <c r="G242" s="9">
-        <f>LEN(D242)-LEN(SUBSTITUTE(D242,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H242" s="9">
-        <f>LEN(C242)-LEN(SUBSTITUTE(C242,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10448,15 +10452,15 @@
         <v>878</v>
       </c>
       <c r="G243" s="9">
-        <f>LEN(D243)-LEN(SUBSTITUTE(D243,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H243" s="9">
-        <f>LEN(C243)-LEN(SUBSTITUTE(C243,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10471,15 +10475,15 @@
         <v>44</v>
       </c>
       <c r="G244" s="9">
-        <f>LEN(D244)-LEN(SUBSTITUTE(D244,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H244" s="9">
-        <f>LEN(C244)-LEN(SUBSTITUTE(C244,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10494,15 +10498,15 @@
         <v>696</v>
       </c>
       <c r="G245" s="9">
-        <f>LEN(D245)-LEN(SUBSTITUTE(D245,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H245" s="9">
-        <f>LEN(C245)-LEN(SUBSTITUTE(C245,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10517,15 +10521,15 @@
         <v>697</v>
       </c>
       <c r="G246" s="9">
-        <f>LEN(D246)-LEN(SUBSTITUTE(D246,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H246" s="9">
-        <f>LEN(C246)-LEN(SUBSTITUTE(C246,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10540,15 +10544,15 @@
         <v>698</v>
       </c>
       <c r="G247" s="9">
-        <f>LEN(D247)-LEN(SUBSTITUTE(D247,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H247" s="9">
-        <f>LEN(C247)-LEN(SUBSTITUTE(C247,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10563,15 +10567,15 @@
         <v>879</v>
       </c>
       <c r="G248" s="9">
-        <f>LEN(D248)-LEN(SUBSTITUTE(D248,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H248" s="9">
-        <f>LEN(C248)-LEN(SUBSTITUTE(C248,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10586,15 +10590,15 @@
         <v>880</v>
       </c>
       <c r="G249" s="9">
-        <f>LEN(D249)-LEN(SUBSTITUTE(D249,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H249" s="9">
-        <f>LEN(C249)-LEN(SUBSTITUTE(C249,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10609,15 +10613,15 @@
         <v>692</v>
       </c>
       <c r="G250" s="9">
-        <f>LEN(D250)-LEN(SUBSTITUTE(D250,"?",""))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H250" s="9">
-        <f>LEN(C250)-LEN(SUBSTITUTE(C250,"?",""))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10660,7 +10664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
